--- a/BAT.xlsx
+++ b/BAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\iCloudDrive\Documents\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9544CF91-FC76-4AE1-B29E-37C5E6E520D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47C7B5B-E794-46E5-A80A-87CC9FAB632A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="767" activeTab="5" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
+    <workbookView xWindow="5985" yWindow="3195" windowWidth="38700" windowHeight="15345" tabRatio="767" activeTab="5" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -21,9 +21,6 @@
     <sheet name="Historical" sheetId="10" r:id="rId6"/>
     <sheet name="INPUT&gt;&gt;" sheetId="6" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -611,7 +608,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -695,7 +692,6 @@
     <xf numFmtId="15" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,49 +736,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Cover"/>
-      <sheetName val="Manual"/>
-      <sheetName val="Disclaimer"/>
-      <sheetName val="Input"/>
-      <sheetName val="WORKINGS&gt;&gt;"/>
-      <sheetName val="Valuation"/>
-      <sheetName val="Model"/>
-      <sheetName val="Historical"/>
-      <sheetName val="INPUT&gt;&gt;"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="8">
-          <cell r="E8" t="str">
-            <v>BHP</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="E14" t="str">
-            <v>USDmn</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1469,7 +1422,7 @@
   <dimension ref="A1:AA734"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1512,8 +1465,8 @@
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E8" s="5" t="str">
-        <f>Input!$E$8&amp;" P&amp;L"</f>
-        <v>BAT P&amp;L</v>
+        <f>Input!$E$8&amp;" - P&amp;L"</f>
+        <v>BAT - P&amp;L</v>
       </c>
       <c r="O8" s="9"/>
       <c r="Q8" s="34" t="s">
@@ -1857,20 +1810,20 @@
       <c r="E21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45">
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16">
         <v>-1641</v>
       </c>
-      <c r="N21" s="45">
+      <c r="N21" s="16">
         <v>-1895</v>
       </c>
-      <c r="O21" s="45">
+      <c r="O21" s="16">
         <v>-1098</v>
       </c>
       <c r="Q21" s="35" t="str">
@@ -2215,16 +2168,16 @@
     </row>
     <row r="37" spans="3:27" x14ac:dyDescent="0.2">
       <c r="E37" s="5" t="str">
-        <f>[1]Input!$E$8&amp;" BS"</f>
-        <v>BHP BS</v>
+        <f>Input!$E$8&amp;" - BS"</f>
+        <v>BAT - BS</v>
       </c>
       <c r="O37" s="9"/>
       <c r="AA37" s="30"/>
     </row>
     <row r="38" spans="3:27" x14ac:dyDescent="0.2">
       <c r="E38" s="10" t="str">
-        <f>+[1]Input!$E$14</f>
-        <v>USDmn</v>
+        <f>+Input!$E$14</f>
+        <v>£m</v>
       </c>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>

--- a/BAT.xlsx
+++ b/BAT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\iCloudDrive\Documents\valuations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47C7B5B-E794-46E5-A80A-87CC9FAB632A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64BE137-FBEE-495A-BFFC-7206085D4660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="3195" windowWidth="38700" windowHeight="15345" tabRatio="767" activeTab="5" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
+    <workbookView xWindow="6045" yWindow="3660" windowWidth="38700" windowHeight="15345" tabRatio="767" activeTab="5" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Font</t>
   </si>
@@ -358,6 +358,42 @@
   </si>
   <si>
     <t>Investments</t>
+  </si>
+  <si>
+    <t>FY15</t>
+  </si>
+  <si>
+    <t>FY16</t>
+  </si>
+  <si>
+    <t>FY17</t>
+  </si>
+  <si>
+    <t>FY18</t>
+  </si>
+  <si>
+    <t>FY19</t>
+  </si>
+  <si>
+    <t>Dec 21</t>
+  </si>
+  <si>
+    <t>Dec 20</t>
+  </si>
+  <si>
+    <t>Dec 19</t>
+  </si>
+  <si>
+    <t>Dec 18</t>
+  </si>
+  <si>
+    <t>Dec 17</t>
+  </si>
+  <si>
+    <t>Dec 16</t>
+  </si>
+  <si>
+    <t>Dec 15</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1458,7 @@
   <dimension ref="A1:AA734"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1482,11 +1518,21 @@
         <f>+Input!$E$14</f>
         <v>£m</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
+      <c r="F9" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>89</v>
+      </c>
       <c r="K9" s="32" t="s">
         <v>46</v>
       </c>
@@ -2179,13 +2225,27 @@
         <f>+Input!$E$14</f>
         <v>£m</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
+      <c r="F38" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="K38" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="L38" s="21" t="s">
+        <v>90</v>
+      </c>
       <c r="M38" s="21" t="s">
         <v>77</v>
       </c>

--- a/BAT.xlsx
+++ b/BAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/konstantin/Developer/valuations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\Development\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB424305-612B-1441-9159-824D6BD89C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E608F26-9AF9-4C42-AF49-91AE5AF827E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" tabRatio="767" activeTab="5" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="767" activeTab="5" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -825,7 +825,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1174,21 +1174,21 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,256)</f>
         <v>Cover</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="str">
         <f>"Indicative valuation of "&amp;IF(Input!E7="","###",Input!E7)&amp;": Public information"</f>
         <v>Indicative valuation of British American Tobacco p.l.c.: Public information</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -1210,30 +1210,30 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,256)</f>
         <v>Manual</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="str">
         <f>Cover!$A$2</f>
         <v>Indicative valuation of British American Tobacco p.l.c.: Public information</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="str">
         <f>Cover!$A$3</f>
         <v>Educational purposes only, no financial advice</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1249,11 +1249,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1304,47 +1304,47 @@
       <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,256)</f>
         <v>Disclaimer</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="str">
         <f>Cover!$A$2</f>
         <v>Indicative valuation of British American Tobacco p.l.c.: Public information</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="str">
         <f>Cover!$A$3</f>
         <v>Educational purposes only, no financial advice</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1362,33 +1362,33 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="133" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,256)</f>
         <v>Input</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="str">
         <f>Cover!$A$2</f>
         <v>Indicative valuation of British American Tobacco p.l.c.: Public information</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="str">
         <f>Cover!$A$3</f>
         <v>Educational purposes only, no financial advice</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>21</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>54</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>35</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>47</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>48</v>
       </c>
@@ -1493,30 +1493,30 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>51</v>
       </c>
       <c r="E22" s="42"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>52</v>
       </c>
       <c r="E23" s="42"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>53</v>
       </c>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>55</v>
       </c>
@@ -1538,7 +1538,7 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1551,49 +1551,50 @@
   </sheetPr>
   <dimension ref="A1:AD740"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.1640625" style="8" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="2.33203125" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="52.83203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="2.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="8.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="52.85546875" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:30" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B1" s="8">
         <v>0.1</v>
       </c>
     </row>
-    <row r="2" spans="2:30" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:30" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="b">
         <f>AND(C:C)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.2">
       <c r="D3" s="5" t="str">
         <f ca="1">MID(CELL("filename",D3),FIND("]",CELL("filename",D3))+1,256)</f>
         <v>Historical</v>
       </c>
     </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.2">
       <c r="D4" s="6" t="str">
         <f>Cover!$A$2</f>
         <v>Indicative valuation of British American Tobacco p.l.c.: Public information</v>
       </c>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.2">
       <c r="D5" s="6" t="str">
         <f>Cover!$A$3</f>
         <v>Educational purposes only, no financial advice</v>
       </c>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.2">
       <c r="E8" s="5" t="str">
         <f>Input!$E$8&amp;" - P&amp;L"</f>
         <v>BAT - P&amp;L</v>
@@ -1642,7 +1643,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.2">
       <c r="E9" s="9" t="str">
         <f>+Input!$E$14</f>
         <v>£m</v>
@@ -1711,8 +1712,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="2:30" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:30" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.2">
       <c r="E11" s="12" t="s">
         <v>23</v>
       </c>
@@ -1764,7 +1765,7 @@
       <c r="AA11" s="15"/>
       <c r="AB11" s="15"/>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.2">
       <c r="E12" s="12" t="s">
         <v>63</v>
       </c>
@@ -1819,7 +1820,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.2">
       <c r="E13" s="12" t="s">
         <v>69</v>
       </c>
@@ -1851,7 +1852,7 @@
       <c r="AA13" s="17"/>
       <c r="AB13" s="17"/>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.2">
       <c r="E14" s="5" t="s">
         <v>64</v>
       </c>
@@ -1940,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:30" x14ac:dyDescent="0.2">
       <c r="E15" s="12" t="s">
         <v>68</v>
       </c>
@@ -1978,7 +1979,7 @@
       <c r="AA15" s="15"/>
       <c r="AB15" s="15"/>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:30" x14ac:dyDescent="0.2">
       <c r="E16" s="12" t="s">
         <v>70</v>
       </c>
@@ -2037,7 +2038,7 @@
       <c r="AA16" s="15"/>
       <c r="AB16" s="15"/>
     </row>
-    <row r="17" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="17" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E17" s="12" t="s">
         <v>65</v>
       </c>
@@ -2099,7 +2100,7 @@
       <c r="AA17" s="17"/>
       <c r="AB17" s="17"/>
     </row>
-    <row r="18" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="18" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E18" s="5" t="s">
         <v>66</v>
       </c>
@@ -2188,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="19" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E19" s="12" t="s">
         <v>36</v>
       </c>
@@ -2240,7 +2241,7 @@
       <c r="AA19" s="17"/>
       <c r="AB19" s="17"/>
     </row>
-    <row r="20" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="20" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E20" s="5" t="s">
         <v>67</v>
       </c>
@@ -2329,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="21" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E21" s="12" t="s">
         <v>24</v>
       </c>
@@ -2381,7 +2382,7 @@
       <c r="AA21" s="15"/>
       <c r="AB21" s="15"/>
     </row>
-    <row r="22" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="22" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E22" s="12" t="s">
         <v>75</v>
       </c>
@@ -2433,7 +2434,7 @@
       <c r="AA22" s="17"/>
       <c r="AB22" s="17"/>
     </row>
-    <row r="23" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="23" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E23" s="13" t="s">
         <v>25</v>
       </c>
@@ -2522,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="24" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
         <v>26</v>
       </c>
@@ -2574,7 +2575,7 @@
       <c r="AA24" s="15"/>
       <c r="AB24" s="15"/>
     </row>
-    <row r="25" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="25" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
         <v>90</v>
       </c>
@@ -2626,7 +2627,7 @@
       <c r="AA25" s="15"/>
       <c r="AB25" s="15"/>
     </row>
-    <row r="26" spans="5:28" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E26" s="5" t="s">
         <v>27</v>
       </c>
@@ -2715,8 +2716,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:28" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="27" spans="5:28" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E28" s="36" t="s">
         <v>31</v>
       </c>
@@ -2794,7 +2795,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="29" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="29" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E29" s="37" t="s">
         <v>32</v>
       </c>
@@ -2876,7 +2877,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="30" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="30" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E30" s="37" t="s">
         <v>49</v>
       </c>
@@ -2958,7 +2959,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="31" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E31" s="38" t="s">
         <v>33</v>
       </c>
@@ -3036,8 +3037,8 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="32" spans="5:28" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="3:28" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="5:28" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="3:28" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E33" s="28" t="s">
         <v>34</v>
       </c>
@@ -3061,7 +3062,7 @@
       <c r="AA33" s="15"/>
       <c r="AB33" s="15"/>
     </row>
-    <row r="34" spans="3:28" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:28" x14ac:dyDescent="0.2">
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -3082,7 +3083,7 @@
       <c r="AA34" s="15"/>
       <c r="AB34" s="15"/>
     </row>
-    <row r="35" spans="3:28" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:28" x14ac:dyDescent="0.2">
       <c r="E35" s="8" t="s">
         <v>29</v>
       </c>
@@ -3126,7 +3127,7 @@
       <c r="AA35" s="18"/>
       <c r="AB35" s="18"/>
     </row>
-    <row r="36" spans="3:28" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C36" s="14" t="b" cm="1">
         <f t="array" ref="C36">AND(G36:O36&lt;$B$1,G36:O36&gt;-$B$1)</f>
         <v>0</v>
@@ -3211,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:28" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:28" x14ac:dyDescent="0.2">
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
@@ -3232,7 +3233,7 @@
       <c r="AA37" s="15"/>
       <c r="AB37" s="15"/>
     </row>
-    <row r="38" spans="3:28" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:28" x14ac:dyDescent="0.2">
       <c r="E38" s="5" t="str">
         <f>Input!$E$8&amp;" - BS"</f>
         <v>BAT - BS</v>
@@ -3242,7 +3243,7 @@
       </c>
       <c r="R38" s="32"/>
     </row>
-    <row r="39" spans="3:28" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:28" x14ac:dyDescent="0.2">
       <c r="E39" s="9" t="str">
         <f>+Input!$E$14</f>
         <v>£m</v>
@@ -3311,8 +3312,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="3:28" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="3:28" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:28" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="3:28" x14ac:dyDescent="0.2">
       <c r="E41" s="5" t="s">
         <v>30</v>
       </c>
@@ -3364,8 +3365,8 @@
       <c r="AA41" s="16"/>
       <c r="AB41" s="16"/>
     </row>
-    <row r="42" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="E42" t="s">
+    <row r="42" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="E42" s="6" t="s">
         <v>101</v>
       </c>
       <c r="F42" s="15"/>
@@ -3374,35 +3375,35 @@
         <v>8258</v>
       </c>
       <c r="H42" s="46">
-        <f t="shared" ref="H42" si="57">+H41-G41</f>
+        <f>+H41-G41</f>
         <v>101281</v>
       </c>
       <c r="I42" s="46">
-        <f t="shared" ref="I42" si="58">+I41-H41</f>
+        <f>+I41-H41</f>
         <v>5288</v>
       </c>
       <c r="J42" s="46">
-        <f t="shared" ref="J42" si="59">+J41-I41</f>
+        <f t="shared" ref="J42" si="57">+J41-I41</f>
         <v>-5337</v>
       </c>
       <c r="K42" s="46">
-        <f t="shared" ref="K42" si="60">+K41-J41</f>
+        <f t="shared" ref="K42" si="58">+K41-J41</f>
         <v>-3315</v>
       </c>
       <c r="L42" s="46">
-        <f t="shared" ref="L42" si="61">+L41-K41</f>
+        <f t="shared" ref="L42" si="59">+L41-K41</f>
         <v>-325</v>
       </c>
       <c r="M42" s="46">
-        <f t="shared" ref="M42" si="62">+M41-L41</f>
+        <f t="shared" ref="M42" si="60">+M41-L41</f>
         <v>16181</v>
       </c>
       <c r="N42" s="46">
-        <f t="shared" ref="N42" si="63">+N41-M41</f>
+        <f t="shared" ref="N42" si="61">+N41-M41</f>
         <v>-34830</v>
       </c>
       <c r="O42" s="46">
-        <f t="shared" ref="O42" si="64">+O41-N41</f>
+        <f t="shared" ref="O42" si="62">+O41-N41</f>
         <v>183</v>
       </c>
       <c r="T42" s="46"/>
@@ -3415,7 +3416,7 @@
       <c r="AA42" s="46"/>
       <c r="AB42" s="46"/>
     </row>
-    <row r="43" spans="3:28" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:28" x14ac:dyDescent="0.2">
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
@@ -3436,7 +3437,7 @@
       <c r="AA43" s="15"/>
       <c r="AB43" s="15"/>
     </row>
-    <row r="44" spans="3:28" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:28" x14ac:dyDescent="0.2">
       <c r="E44" s="5" t="s">
         <v>100</v>
       </c>
@@ -3471,11 +3472,11 @@
         <v>32194</v>
       </c>
       <c r="Q44" s="34">
-        <f t="shared" ref="Q44" si="65">IFERROR((O44/F44)^(1/9)-1,"n/a")</f>
+        <f t="shared" ref="Q44" si="63">IFERROR((O44/F44)^(1/9)-1,"n/a")</f>
         <v>9.0294632565758759E-2</v>
       </c>
       <c r="R44" s="34">
-        <f t="shared" ref="R44" si="66">IFERROR((O44/L44)^(1/3)-1,"n/a")</f>
+        <f t="shared" ref="R44" si="64">IFERROR((O44/L44)^(1/3)-1,"n/a")</f>
         <v>-3.0655339938247095E-2</v>
       </c>
       <c r="T44" s="16"/>
@@ -3488,8 +3489,8 @@
       <c r="AA44" s="16"/>
       <c r="AB44" s="16"/>
     </row>
-    <row r="45" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="E45" t="s">
+    <row r="45" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="E45" s="6" t="s">
         <v>101</v>
       </c>
       <c r="F45" s="15"/>
@@ -3498,35 +3499,35 @@
         <v>1685</v>
       </c>
       <c r="H45" s="46">
-        <f t="shared" ref="H45:O45" si="67">+H44-G44</f>
+        <f t="shared" ref="H45:O45" si="65">+H44-G44</f>
         <v>27543</v>
       </c>
       <c r="I45" s="46">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>-738</v>
       </c>
       <c r="J45" s="46">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>-5898</v>
       </c>
       <c r="K45" s="46">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>2210</v>
       </c>
       <c r="L45" s="46">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>-4243</v>
       </c>
       <c r="M45" s="46">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>3440</v>
       </c>
       <c r="N45" s="46">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>-3560</v>
       </c>
       <c r="O45" s="46">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>-3032</v>
       </c>
       <c r="T45" s="46"/>
@@ -3539,7 +3540,7 @@
       <c r="AA45" s="46"/>
       <c r="AB45" s="46"/>
     </row>
-    <row r="46" spans="3:28" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:28" x14ac:dyDescent="0.2">
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
@@ -3560,7 +3561,7 @@
       <c r="AA46" s="15"/>
       <c r="AB46" s="15"/>
     </row>
-    <row r="47" spans="3:28" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:28" x14ac:dyDescent="0.2">
       <c r="E47" s="5" t="s">
         <v>74</v>
       </c>
@@ -3595,11 +3596,11 @@
         <v>49995</v>
       </c>
       <c r="Q47" s="34">
-        <f t="shared" ref="Q47" si="68">IFERROR((O47/F47)^(1/9)-1,"n/a")</f>
+        <f t="shared" ref="Q47" si="66">IFERROR((O47/F47)^(1/9)-1,"n/a")</f>
         <v>0.2906201395905923</v>
       </c>
       <c r="R47" s="34">
-        <f t="shared" ref="R47" si="69">IFERROR((O47/L47)^(1/3)-1,"n/a")</f>
+        <f t="shared" ref="R47" si="67">IFERROR((O47/L47)^(1/3)-1,"n/a")</f>
         <v>-9.4781521211680375E-2</v>
       </c>
       <c r="T47" s="16"/>
@@ -3612,8 +3613,8 @@
       <c r="AA47" s="16"/>
       <c r="AB47" s="16"/>
     </row>
-    <row r="48" spans="3:28" x14ac:dyDescent="0.15">
-      <c r="E48" t="s">
+    <row r="48" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="E48" s="6" t="s">
         <v>101</v>
       </c>
       <c r="F48" s="15"/>
@@ -3622,35 +3623,35 @@
         <v>3374</v>
       </c>
       <c r="H48" s="46">
-        <f t="shared" ref="H48" si="70">+H47-G47</f>
+        <f t="shared" ref="H48" si="68">+H47-G47</f>
         <v>52575</v>
       </c>
       <c r="I48" s="46">
-        <f t="shared" ref="I48" si="71">+I47-H47</f>
+        <f t="shared" ref="I48" si="69">+I47-H47</f>
         <v>4707</v>
       </c>
       <c r="J48" s="46">
-        <f t="shared" ref="J48" si="72">+J47-I47</f>
+        <f t="shared" ref="J48" si="70">+J47-I47</f>
         <v>-1528</v>
       </c>
       <c r="K48" s="46">
-        <f t="shared" ref="K48" si="73">+K47-J47</f>
+        <f t="shared" ref="K48" si="71">+K47-J47</f>
         <v>-1205</v>
       </c>
       <c r="L48" s="46">
-        <f t="shared" ref="L48" si="74">+L47-K47</f>
+        <f t="shared" ref="L48" si="72">+L47-K47</f>
         <v>4446</v>
       </c>
       <c r="M48" s="46">
-        <f t="shared" ref="M48" si="75">+M47-L47</f>
+        <f t="shared" ref="M48" si="73">+M47-L47</f>
         <v>8309</v>
       </c>
       <c r="N48" s="46">
-        <f t="shared" ref="N48" si="76">+N47-M47</f>
+        <f t="shared" ref="N48" si="74">+N47-M47</f>
         <v>-22776</v>
       </c>
       <c r="O48" s="46">
-        <f t="shared" ref="O48" si="77">+O47-N47</f>
+        <f t="shared" ref="O48" si="75">+O47-N47</f>
         <v>-2939</v>
       </c>
       <c r="T48" s="46"/>
@@ -3663,7 +3664,7 @@
       <c r="AA48" s="46"/>
       <c r="AB48" s="46"/>
     </row>
-    <row r="49" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="49" spans="5:28" x14ac:dyDescent="0.2">
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
@@ -3684,13 +3685,13 @@
       <c r="AA49" s="15"/>
       <c r="AB49" s="15"/>
     </row>
-    <row r="50" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="50" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E50" s="5" t="str">
         <f>Input!$E$8&amp;" - CF"</f>
         <v>BAT - CF</v>
       </c>
     </row>
-    <row r="51" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="51" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E51" s="9" t="str">
         <f>+Input!$E$14</f>
         <v>£m</v>
@@ -3753,8 +3754,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="5:28" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="52" spans="5:28" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E53" s="45" t="s">
         <v>91</v>
       </c>
@@ -3789,11 +3790,11 @@
         <v>10125</v>
       </c>
       <c r="Q53" s="34">
-        <f t="shared" ref="Q53" si="78">IFERROR((O53/F53)^(1/9)-1,"n/a")</f>
+        <f t="shared" ref="Q53" si="76">IFERROR((O53/F53)^(1/9)-1,"n/a")</f>
         <v>8.8499201544778971E-2</v>
       </c>
       <c r="R53" s="34">
-        <f t="shared" ref="R53" si="79">IFERROR((O53/L53)^(1/3)-1,"n/a")</f>
+        <f t="shared" ref="R53" si="77">IFERROR((O53/L53)^(1/3)-1,"n/a")</f>
         <v>1.3804644217273898E-2</v>
       </c>
       <c r="T53" s="16"/>
@@ -3806,7 +3807,7 @@
       <c r="AA53" s="16"/>
       <c r="AB53" s="16"/>
     </row>
-    <row r="54" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="54" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E54" s="12"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
@@ -3828,7 +3829,7 @@
       <c r="AA54" s="15"/>
       <c r="AB54" s="15"/>
     </row>
-    <row r="55" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="55" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E55" s="44" t="s">
         <v>99</v>
       </c>
@@ -3863,11 +3864,11 @@
         <v>-486</v>
       </c>
       <c r="Q55" s="24">
-        <f t="shared" ref="Q55:Q56" si="80">IFERROR((O55/F55)^(1/9)-1,"n/a")</f>
+        <f t="shared" ref="Q55:Q56" si="78">IFERROR((O55/F55)^(1/9)-1,"n/a")</f>
         <v>6.882334182243266E-4</v>
       </c>
       <c r="R55" s="24">
-        <f t="shared" ref="R55:R56" si="81">IFERROR((O55/L55)^(1/3)-1,"n/a")</f>
+        <f t="shared" ref="R55:R56" si="79">IFERROR((O55/L55)^(1/3)-1,"n/a")</f>
         <v>-2.6636138391606834E-2</v>
       </c>
       <c r="T55" s="15"/>
@@ -3880,7 +3881,7 @@
       <c r="AA55" s="15"/>
       <c r="AB55" s="15"/>
     </row>
-    <row r="56" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="56" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E56" s="44" t="s">
         <v>97</v>
       </c>
@@ -3889,87 +3890,87 @@
         <v>-3508</v>
       </c>
       <c r="G56" s="17">
-        <f t="shared" ref="G56:O56" si="82">G57-G55</f>
+        <f t="shared" ref="G56:O56" si="80">G57-G55</f>
         <v>-54</v>
       </c>
       <c r="H56" s="17">
+        <f t="shared" si="80"/>
+        <v>-17753</v>
+      </c>
+      <c r="I56" s="17">
+        <f t="shared" si="80"/>
+        <v>-263</v>
+      </c>
+      <c r="J56" s="17">
+        <f t="shared" si="80"/>
+        <v>25</v>
+      </c>
+      <c r="K56" s="17">
+        <f t="shared" si="80"/>
+        <v>-272</v>
+      </c>
+      <c r="L56" s="17">
+        <f t="shared" si="80"/>
+        <v>-613</v>
+      </c>
+      <c r="M56" s="17">
+        <f t="shared" si="80"/>
+        <v>-182</v>
+      </c>
+      <c r="N56" s="17">
+        <f t="shared" si="80"/>
+        <v>164</v>
+      </c>
+      <c r="O56" s="17">
+        <f t="shared" si="80"/>
+        <v>1861</v>
+      </c>
+      <c r="Q56" s="24">
+        <f t="shared" si="78"/>
+        <v>-1.9319865463477033</v>
+      </c>
+      <c r="R56" s="24">
+        <f t="shared" si="79"/>
+        <v>-2.4479780093019188</v>
+      </c>
+      <c r="T56" s="17">
+        <f t="shared" ref="T56" si="81">T57-T55</f>
+        <v>0</v>
+      </c>
+      <c r="U56" s="17">
+        <f t="shared" ref="U56:Y56" si="82">U57-U55</f>
+        <v>0</v>
+      </c>
+      <c r="V56" s="17">
         <f t="shared" si="82"/>
-        <v>-17753</v>
-      </c>
-      <c r="I56" s="17">
+        <v>0</v>
+      </c>
+      <c r="W56" s="17">
         <f t="shared" si="82"/>
-        <v>-263</v>
-      </c>
-      <c r="J56" s="17">
+        <v>0</v>
+      </c>
+      <c r="X56" s="17">
         <f t="shared" si="82"/>
-        <v>25</v>
-      </c>
-      <c r="K56" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="17">
         <f t="shared" si="82"/>
-        <v>-272</v>
-      </c>
-      <c r="L56" s="17">
-        <f t="shared" si="82"/>
-        <v>-613</v>
-      </c>
-      <c r="M56" s="17">
-        <f t="shared" si="82"/>
-        <v>-182</v>
-      </c>
-      <c r="N56" s="17">
-        <f t="shared" si="82"/>
-        <v>164</v>
-      </c>
-      <c r="O56" s="17">
-        <f t="shared" si="82"/>
-        <v>1861</v>
-      </c>
-      <c r="Q56" s="24">
-        <f t="shared" si="80"/>
-        <v>-1.9319865463477033</v>
-      </c>
-      <c r="R56" s="24">
-        <f t="shared" si="81"/>
-        <v>-2.4479780093019188</v>
-      </c>
-      <c r="T56" s="17">
-        <f t="shared" ref="T56:U56" si="83">T57-T55</f>
         <v>0</v>
       </c>
-      <c r="U56" s="17">
-        <f t="shared" ref="U56:Y56" si="84">U57-U55</f>
+      <c r="Z56" s="17">
+        <f t="shared" ref="Z56:AB56" si="83">Z57-Z55</f>
         <v>0</v>
       </c>
-      <c r="V56" s="17">
-        <f t="shared" si="84"/>
+      <c r="AA56" s="17">
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="W56" s="17">
-        <f t="shared" si="84"/>
+      <c r="AB56" s="17">
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="X56" s="17">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="Y56" s="17">
-        <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="Z56" s="17">
-        <f t="shared" ref="Y56:AB56" si="85">Z57-Z55</f>
-        <v>0</v>
-      </c>
-      <c r="AA56" s="17">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="AB56" s="17">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="5:28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E57" s="45" t="s">
         <v>98</v>
       </c>
@@ -4004,11 +4005,11 @@
         <v>1375</v>
       </c>
       <c r="Q57" s="34">
-        <f t="shared" ref="Q57" si="86">IFERROR((O57/F57)^(1/9)-1,"n/a")</f>
+        <f t="shared" ref="Q57" si="84">IFERROR((O57/F57)^(1/9)-1,"n/a")</f>
         <v>-1.8883418203629456</v>
       </c>
       <c r="R57" s="34">
-        <f t="shared" ref="R57" si="87">IFERROR((O57/L57)^(1/3)-1,"n/a")</f>
+        <f t="shared" ref="R57" si="85">IFERROR((O57/L57)^(1/3)-1,"n/a")</f>
         <v>-2.0644680131987156</v>
       </c>
       <c r="T57" s="16"/>
@@ -4021,7 +4022,7 @@
       <c r="AA57" s="16"/>
       <c r="AB57" s="16"/>
     </row>
-    <row r="58" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="58" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E58" s="12"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
@@ -4043,7 +4044,7 @@
       <c r="AA58" s="15"/>
       <c r="AB58" s="15"/>
     </row>
-    <row r="59" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="59" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E59" s="45" t="s">
         <v>92</v>
       </c>
@@ -4052,87 +4053,87 @@
         <v>4237</v>
       </c>
       <c r="G59" s="16">
-        <f t="shared" ref="G59:O59" si="88">+G53+G55</f>
+        <f t="shared" ref="G59:O59" si="86">+G53+G55</f>
         <v>4024</v>
       </c>
       <c r="H59" s="16">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>4556</v>
       </c>
       <c r="I59" s="16">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>9537</v>
       </c>
       <c r="J59" s="16">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>8332</v>
       </c>
       <c r="K59" s="16">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>9275</v>
       </c>
       <c r="L59" s="16">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>9190</v>
       </c>
       <c r="M59" s="16">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>9871</v>
       </c>
       <c r="N59" s="16">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>10254</v>
       </c>
       <c r="O59" s="16">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>9639</v>
       </c>
       <c r="Q59" s="34">
-        <f t="shared" ref="Q59" si="89">IFERROR((O59/F59)^(1/9)-1,"n/a")</f>
+        <f t="shared" ref="Q59" si="87">IFERROR((O59/F59)^(1/9)-1,"n/a")</f>
         <v>9.5629517261101693E-2</v>
       </c>
       <c r="R59" s="34">
-        <f t="shared" ref="R59" si="90">IFERROR((O59/L59)^(1/3)-1,"n/a")</f>
+        <f t="shared" ref="R59" si="88">IFERROR((O59/L59)^(1/3)-1,"n/a")</f>
         <v>1.6027562748800683E-2</v>
       </c>
       <c r="T59" s="16">
-        <f t="shared" ref="T59:U59" si="91">+T53+T55</f>
+        <f t="shared" ref="T59" si="89">+T53+T55</f>
         <v>0</v>
       </c>
       <c r="U59" s="16">
-        <f t="shared" ref="U59:Y59" si="92">+U53+U55</f>
+        <f t="shared" ref="U59:Y59" si="90">+U53+U55</f>
         <v>0</v>
       </c>
       <c r="V59" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="W59" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="X59" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="Y59" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="Z59" s="16">
-        <f t="shared" ref="Y59:AB59" si="93">+Z53+Z55</f>
+        <f t="shared" ref="Z59:AB59" si="91">+Z53+Z55</f>
         <v>0</v>
       </c>
       <c r="AA59" s="16">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AB59" s="16">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="60" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E60" s="12"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
@@ -4154,7 +4155,7 @@
       <c r="AA60" s="15"/>
       <c r="AB60" s="15"/>
     </row>
-    <row r="61" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="61" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E61" s="44" t="s">
         <v>94</v>
       </c>
@@ -4190,11 +4191,11 @@
       </c>
       <c r="P61" s="15"/>
       <c r="Q61" s="24">
-        <f t="shared" ref="Q61:Q66" si="94">IFERROR((O61/F61)^(1/9)-1,"n/a")</f>
+        <f t="shared" ref="Q61:Q66" si="92">IFERROR((O61/F61)^(1/9)-1,"n/a")</f>
         <v>-0.11099483341813987</v>
       </c>
       <c r="R61" s="24">
-        <f t="shared" ref="R61:R66" si="95">IFERROR((O61/L61)^(1/3)-1,"n/a")</f>
+        <f t="shared" ref="R61:R66" si="93">IFERROR((O61/L61)^(1/3)-1,"n/a")</f>
         <v>0.34957969716233661</v>
       </c>
       <c r="T61" s="15"/>
@@ -4207,7 +4208,7 @@
       <c r="AA61" s="15"/>
       <c r="AB61" s="15"/>
     </row>
-    <row r="62" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="62" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E62" s="44" t="s">
         <v>95</v>
       </c>
@@ -4243,11 +4244,11 @@
       </c>
       <c r="P62" s="15"/>
       <c r="Q62" s="24">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>0.10524290447012818</v>
       </c>
       <c r="R62" s="24">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v>-4.0040044320388546E-4</v>
       </c>
       <c r="T62" s="17"/>
@@ -4260,97 +4261,97 @@
       <c r="AA62" s="17"/>
       <c r="AB62" s="17"/>
     </row>
-    <row r="63" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="63" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E63" s="12" t="s">
         <v>96</v>
       </c>
       <c r="F63" s="16">
-        <f t="shared" ref="F63:O63" si="96">SUM(F61:F62)</f>
+        <f t="shared" ref="F63:O63" si="94">SUM(F61:F62)</f>
         <v>4903</v>
       </c>
       <c r="G63" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>-364</v>
       </c>
       <c r="H63" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>20103</v>
       </c>
       <c r="I63" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>-3485</v>
       </c>
       <c r="J63" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>-1547</v>
       </c>
       <c r="K63" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>-971</v>
       </c>
       <c r="L63" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>-4019</v>
       </c>
       <c r="M63" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>62</v>
       </c>
       <c r="N63" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>-1797</v>
       </c>
       <c r="O63" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>-2587</v>
       </c>
       <c r="P63" s="15"/>
       <c r="Q63" s="34">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>-1.9314258390957197</v>
       </c>
       <c r="R63" s="34">
+        <f t="shared" si="93"/>
+        <v>-0.13657197492833817</v>
+      </c>
+      <c r="T63" s="16">
+        <f t="shared" ref="T63:AB63" si="95">SUM(T61:T62)</f>
+        <v>0</v>
+      </c>
+      <c r="U63" s="16">
+        <f t="shared" ref="U63" si="96">SUM(U61:U62)</f>
+        <v>0</v>
+      </c>
+      <c r="V63" s="16">
+        <f t="shared" ref="V63" si="97">SUM(V61:V62)</f>
+        <v>0</v>
+      </c>
+      <c r="W63" s="16">
+        <f t="shared" ref="W63" si="98">SUM(W61:W62)</f>
+        <v>0</v>
+      </c>
+      <c r="X63" s="16">
+        <f t="shared" ref="X63" si="99">SUM(X61:X62)</f>
+        <v>0</v>
+      </c>
+      <c r="Y63" s="16">
+        <f t="shared" ref="Y63" si="100">SUM(Y61:Y62)</f>
+        <v>0</v>
+      </c>
+      <c r="Z63" s="16">
         <f t="shared" si="95"/>
-        <v>-0.13657197492833817</v>
-      </c>
-      <c r="T63" s="16">
-        <f t="shared" ref="T63:AB63" si="97">SUM(T61:T62)</f>
         <v>0</v>
       </c>
-      <c r="U63" s="16">
-        <f t="shared" ref="U63" si="98">SUM(U61:U62)</f>
+      <c r="AA63" s="16">
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="V63" s="16">
-        <f t="shared" ref="V63" si="99">SUM(V61:V62)</f>
+      <c r="AB63" s="16">
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="W63" s="16">
-        <f t="shared" ref="W63" si="100">SUM(W61:W62)</f>
-        <v>0</v>
-      </c>
-      <c r="X63" s="16">
-        <f t="shared" ref="X63" si="101">SUM(X61:X62)</f>
-        <v>0</v>
-      </c>
-      <c r="Y63" s="16">
-        <f t="shared" ref="Y63" si="102">SUM(Y61:Y62)</f>
-        <v>0</v>
-      </c>
-      <c r="Z63" s="16">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="AA63" s="16">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="AB63" s="16">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="5:28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E64" s="12" t="s">
         <v>102</v>
       </c>
@@ -4396,11 +4397,11 @@
       </c>
       <c r="P64" s="15"/>
       <c r="Q64" s="24">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>8.8905475165628189E-2</v>
       </c>
       <c r="R64" s="24">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v>0.22328702052631644</v>
       </c>
       <c r="T64" s="15"/>
@@ -4413,7 +4414,7 @@
       <c r="AA64" s="15"/>
       <c r="AB64" s="15"/>
     </row>
-    <row r="65" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="65" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E65" s="12" t="s">
         <v>97</v>
       </c>
@@ -4422,88 +4423,88 @@
         <v>-2306</v>
       </c>
       <c r="G65" s="17">
-        <f t="shared" ref="G65:O65" si="103">+G66-G64-G63</f>
+        <f t="shared" ref="G65:O65" si="101">+G66-G64-G63</f>
         <v>-891</v>
       </c>
       <c r="H65" s="17">
-        <f t="shared" si="103"/>
+        <f t="shared" si="101"/>
         <v>-1674</v>
       </c>
       <c r="I65" s="17">
-        <f t="shared" si="103"/>
+        <f t="shared" si="101"/>
         <v>-2663</v>
       </c>
       <c r="J65" s="17">
-        <f t="shared" si="103"/>
+        <f t="shared" si="101"/>
         <v>-2331</v>
       </c>
       <c r="K65" s="17">
-        <f t="shared" si="103"/>
+        <f t="shared" si="101"/>
         <v>-2163</v>
       </c>
       <c r="L65" s="17">
-        <f t="shared" si="103"/>
+        <f t="shared" si="101"/>
         <v>-1419</v>
       </c>
       <c r="M65" s="17">
-        <f t="shared" si="103"/>
+        <f t="shared" si="101"/>
         <v>-1873</v>
       </c>
       <c r="N65" s="17">
-        <f t="shared" si="103"/>
+        <f t="shared" si="101"/>
         <v>-2293</v>
       </c>
       <c r="O65" s="17">
-        <f t="shared" si="103"/>
+        <f t="shared" si="101"/>
         <v>-1984</v>
       </c>
       <c r="P65" s="15"/>
       <c r="Q65" s="24">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>-1.6572190906386175E-2</v>
       </c>
       <c r="R65" s="24">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v>0.11820069397509592</v>
       </c>
       <c r="T65" s="17">
-        <f t="shared" ref="T65:U65" si="104">+T66-T64-T63</f>
+        <f t="shared" ref="T65" si="102">+T66-T64-T63</f>
         <v>0</v>
       </c>
       <c r="U65" s="17">
-        <f t="shared" ref="U65:Y65" si="105">+U66-U64-U63</f>
+        <f t="shared" ref="U65:Y65" si="103">+U66-U64-U63</f>
         <v>0</v>
       </c>
       <c r="V65" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="W65" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="X65" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="Y65" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="Z65" s="17">
-        <f t="shared" ref="Y65:AB65" si="106">+Z66-Z64-Z63</f>
+        <f t="shared" ref="Z65:AB65" si="104">+Z66-Z64-Z63</f>
         <v>0</v>
       </c>
       <c r="AA65" s="17">
-        <f t="shared" si="106"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="AB65" s="17">
-        <f t="shared" si="106"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="66" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E66" s="5" t="s">
         <v>93</v>
       </c>
@@ -4539,11 +4540,11 @@
       </c>
       <c r="P66" s="15"/>
       <c r="Q66" s="34">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>0.53940295898858115</v>
       </c>
       <c r="R66" s="34">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v>6.7133737741288613E-2</v>
       </c>
       <c r="T66" s="16"/>
@@ -4556,7 +4557,7 @@
       <c r="AA66" s="16"/>
       <c r="AB66" s="16"/>
     </row>
-    <row r="67" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="67" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E67" s="12"/>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
@@ -4578,7 +4579,7 @@
       <c r="AA67" s="15"/>
       <c r="AB67" s="15"/>
     </row>
-    <row r="68" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="68" spans="5:28" x14ac:dyDescent="0.2">
       <c r="F68" s="15"/>
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
@@ -4599,7 +4600,7 @@
       <c r="AA68" s="15"/>
       <c r="AB68" s="15"/>
     </row>
-    <row r="69" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="69" spans="5:28" x14ac:dyDescent="0.2">
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
       <c r="H69" s="15"/>
@@ -4620,7 +4621,7 @@
       <c r="AA69" s="15"/>
       <c r="AB69" s="15"/>
     </row>
-    <row r="70" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="70" spans="5:28" x14ac:dyDescent="0.2">
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
       <c r="H70" s="15"/>
@@ -4641,7 +4642,7 @@
       <c r="AA70" s="15"/>
       <c r="AB70" s="15"/>
     </row>
-    <row r="71" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="71" spans="5:28" x14ac:dyDescent="0.2">
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
@@ -4662,7 +4663,7 @@
       <c r="AA71" s="15"/>
       <c r="AB71" s="15"/>
     </row>
-    <row r="72" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="72" spans="5:28" x14ac:dyDescent="0.2">
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
@@ -4683,7 +4684,7 @@
       <c r="AA72" s="47"/>
       <c r="AB72" s="47"/>
     </row>
-    <row r="73" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="73" spans="5:28" x14ac:dyDescent="0.2">
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
@@ -4704,7 +4705,7 @@
       <c r="AA73" s="15"/>
       <c r="AB73" s="15"/>
     </row>
-    <row r="74" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="74" spans="5:28" x14ac:dyDescent="0.2">
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
@@ -4725,7 +4726,7 @@
       <c r="AA74" s="15"/>
       <c r="AB74" s="15"/>
     </row>
-    <row r="75" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="75" spans="5:28" x14ac:dyDescent="0.2">
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
@@ -4746,7 +4747,7 @@
       <c r="AA75" s="15"/>
       <c r="AB75" s="15"/>
     </row>
-    <row r="76" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="76" spans="5:28" x14ac:dyDescent="0.2">
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
@@ -4767,7 +4768,7 @@
       <c r="AA76" s="15"/>
       <c r="AB76" s="15"/>
     </row>
-    <row r="77" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="77" spans="5:28" x14ac:dyDescent="0.2">
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
@@ -4788,7 +4789,7 @@
       <c r="AA77" s="15"/>
       <c r="AB77" s="15"/>
     </row>
-    <row r="78" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="78" spans="5:28" x14ac:dyDescent="0.2">
       <c r="F78" s="15"/>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
@@ -4809,7 +4810,7 @@
       <c r="AA78" s="15"/>
       <c r="AB78" s="15"/>
     </row>
-    <row r="79" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="79" spans="5:28" x14ac:dyDescent="0.2">
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
@@ -4830,7 +4831,7 @@
       <c r="AA79" s="15"/>
       <c r="AB79" s="15"/>
     </row>
-    <row r="80" spans="5:28" x14ac:dyDescent="0.15">
+    <row r="80" spans="5:28" x14ac:dyDescent="0.2">
       <c r="F80" s="15"/>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
@@ -4851,7 +4852,7 @@
       <c r="AA80" s="15"/>
       <c r="AB80" s="15"/>
     </row>
-    <row r="81" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="81" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F81" s="15"/>
       <c r="G81" s="15"/>
       <c r="H81" s="15"/>
@@ -4872,7 +4873,7 @@
       <c r="AA81" s="15"/>
       <c r="AB81" s="15"/>
     </row>
-    <row r="82" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="82" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F82" s="15"/>
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
@@ -4893,7 +4894,7 @@
       <c r="AA82" s="15"/>
       <c r="AB82" s="15"/>
     </row>
-    <row r="83" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="83" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F83" s="15"/>
       <c r="G83" s="15"/>
       <c r="H83" s="15"/>
@@ -4914,7 +4915,7 @@
       <c r="AA83" s="15"/>
       <c r="AB83" s="15"/>
     </row>
-    <row r="84" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="84" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F84" s="15"/>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>
@@ -4935,7 +4936,7 @@
       <c r="AA84" s="15"/>
       <c r="AB84" s="15"/>
     </row>
-    <row r="85" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="85" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F85" s="15"/>
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
@@ -4956,7 +4957,7 @@
       <c r="AA85" s="15"/>
       <c r="AB85" s="15"/>
     </row>
-    <row r="86" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="86" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F86" s="15"/>
       <c r="G86" s="15"/>
       <c r="H86" s="15"/>
@@ -4977,7 +4978,7 @@
       <c r="AA86" s="15"/>
       <c r="AB86" s="15"/>
     </row>
-    <row r="87" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="87" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F87" s="15"/>
       <c r="G87" s="15"/>
       <c r="H87" s="15"/>
@@ -4998,7 +4999,7 @@
       <c r="AA87" s="15"/>
       <c r="AB87" s="15"/>
     </row>
-    <row r="88" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="88" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
       <c r="H88" s="15"/>
@@ -5019,7 +5020,7 @@
       <c r="AA88" s="15"/>
       <c r="AB88" s="15"/>
     </row>
-    <row r="89" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="89" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F89" s="15"/>
       <c r="G89" s="15"/>
       <c r="H89" s="15"/>
@@ -5040,7 +5041,7 @@
       <c r="AA89" s="15"/>
       <c r="AB89" s="15"/>
     </row>
-    <row r="90" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="90" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F90" s="15"/>
       <c r="G90" s="15"/>
       <c r="H90" s="15"/>
@@ -5061,7 +5062,7 @@
       <c r="AA90" s="15"/>
       <c r="AB90" s="15"/>
     </row>
-    <row r="91" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="91" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F91" s="15"/>
       <c r="G91" s="15"/>
       <c r="H91" s="15"/>
@@ -5082,7 +5083,7 @@
       <c r="AA91" s="15"/>
       <c r="AB91" s="15"/>
     </row>
-    <row r="92" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="92" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F92" s="15"/>
       <c r="G92" s="15"/>
       <c r="H92" s="15"/>
@@ -5103,7 +5104,7 @@
       <c r="AA92" s="15"/>
       <c r="AB92" s="15"/>
     </row>
-    <row r="93" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="93" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F93" s="15"/>
       <c r="G93" s="15"/>
       <c r="H93" s="15"/>
@@ -5124,7 +5125,7 @@
       <c r="AA93" s="15"/>
       <c r="AB93" s="15"/>
     </row>
-    <row r="94" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="94" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F94" s="15"/>
       <c r="G94" s="15"/>
       <c r="H94" s="15"/>
@@ -5145,7 +5146,7 @@
       <c r="AA94" s="15"/>
       <c r="AB94" s="15"/>
     </row>
-    <row r="95" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="95" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F95" s="15"/>
       <c r="G95" s="15"/>
       <c r="H95" s="15"/>
@@ -5166,7 +5167,7 @@
       <c r="AA95" s="15"/>
       <c r="AB95" s="15"/>
     </row>
-    <row r="96" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="96" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F96" s="15"/>
       <c r="G96" s="15"/>
       <c r="H96" s="15"/>
@@ -5187,7 +5188,7 @@
       <c r="AA96" s="15"/>
       <c r="AB96" s="15"/>
     </row>
-    <row r="97" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="97" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F97" s="15"/>
       <c r="G97" s="15"/>
       <c r="H97" s="15"/>
@@ -5208,7 +5209,7 @@
       <c r="AA97" s="15"/>
       <c r="AB97" s="15"/>
     </row>
-    <row r="98" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="98" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F98" s="15"/>
       <c r="G98" s="15"/>
       <c r="H98" s="15"/>
@@ -5229,7 +5230,7 @@
       <c r="AA98" s="15"/>
       <c r="AB98" s="15"/>
     </row>
-    <row r="99" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="99" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F99" s="15"/>
       <c r="G99" s="15"/>
       <c r="H99" s="15"/>
@@ -5250,7 +5251,7 @@
       <c r="AA99" s="15"/>
       <c r="AB99" s="15"/>
     </row>
-    <row r="100" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="100" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F100" s="15"/>
       <c r="G100" s="15"/>
       <c r="H100" s="15"/>
@@ -5271,7 +5272,7 @@
       <c r="AA100" s="15"/>
       <c r="AB100" s="15"/>
     </row>
-    <row r="101" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="101" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F101" s="15"/>
       <c r="G101" s="15"/>
       <c r="H101" s="15"/>
@@ -5292,7 +5293,7 @@
       <c r="AA101" s="15"/>
       <c r="AB101" s="15"/>
     </row>
-    <row r="102" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="102" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F102" s="15"/>
       <c r="G102" s="15"/>
       <c r="H102" s="15"/>
@@ -5313,7 +5314,7 @@
       <c r="AA102" s="15"/>
       <c r="AB102" s="15"/>
     </row>
-    <row r="103" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="103" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F103" s="15"/>
       <c r="G103" s="15"/>
       <c r="H103" s="15"/>
@@ -5334,7 +5335,7 @@
       <c r="AA103" s="15"/>
       <c r="AB103" s="15"/>
     </row>
-    <row r="104" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="104" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F104" s="15"/>
       <c r="G104" s="15"/>
       <c r="H104" s="15"/>
@@ -5355,7 +5356,7 @@
       <c r="AA104" s="15"/>
       <c r="AB104" s="15"/>
     </row>
-    <row r="105" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="105" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F105" s="15"/>
       <c r="G105" s="15"/>
       <c r="H105" s="15"/>
@@ -5376,7 +5377,7 @@
       <c r="AA105" s="15"/>
       <c r="AB105" s="15"/>
     </row>
-    <row r="106" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="106" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F106" s="15"/>
       <c r="G106" s="15"/>
       <c r="H106" s="15"/>
@@ -5397,7 +5398,7 @@
       <c r="AA106" s="15"/>
       <c r="AB106" s="15"/>
     </row>
-    <row r="107" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="107" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F107" s="15"/>
       <c r="G107" s="15"/>
       <c r="H107" s="15"/>
@@ -5418,7 +5419,7 @@
       <c r="AA107" s="15"/>
       <c r="AB107" s="15"/>
     </row>
-    <row r="108" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="108" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F108" s="15"/>
       <c r="G108" s="15"/>
       <c r="H108" s="15"/>
@@ -5439,7 +5440,7 @@
       <c r="AA108" s="15"/>
       <c r="AB108" s="15"/>
     </row>
-    <row r="109" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="109" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F109" s="15"/>
       <c r="G109" s="15"/>
       <c r="H109" s="15"/>
@@ -5460,7 +5461,7 @@
       <c r="AA109" s="15"/>
       <c r="AB109" s="15"/>
     </row>
-    <row r="110" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="110" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F110" s="15"/>
       <c r="G110" s="15"/>
       <c r="H110" s="15"/>
@@ -5481,7 +5482,7 @@
       <c r="AA110" s="15"/>
       <c r="AB110" s="15"/>
     </row>
-    <row r="111" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="111" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F111" s="15"/>
       <c r="G111" s="15"/>
       <c r="H111" s="15"/>
@@ -5502,7 +5503,7 @@
       <c r="AA111" s="15"/>
       <c r="AB111" s="15"/>
     </row>
-    <row r="112" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="112" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F112" s="15"/>
       <c r="G112" s="15"/>
       <c r="H112" s="15"/>
@@ -5523,7 +5524,7 @@
       <c r="AA112" s="15"/>
       <c r="AB112" s="15"/>
     </row>
-    <row r="113" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="113" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F113" s="15"/>
       <c r="G113" s="15"/>
       <c r="H113" s="15"/>
@@ -5544,7 +5545,7 @@
       <c r="AA113" s="15"/>
       <c r="AB113" s="15"/>
     </row>
-    <row r="114" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="114" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F114" s="15"/>
       <c r="G114" s="15"/>
       <c r="H114" s="15"/>
@@ -5565,7 +5566,7 @@
       <c r="AA114" s="15"/>
       <c r="AB114" s="15"/>
     </row>
-    <row r="115" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="115" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F115" s="15"/>
       <c r="G115" s="15"/>
       <c r="H115" s="15"/>
@@ -5586,7 +5587,7 @@
       <c r="AA115" s="15"/>
       <c r="AB115" s="15"/>
     </row>
-    <row r="116" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="116" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F116" s="15"/>
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
@@ -5607,7 +5608,7 @@
       <c r="AA116" s="15"/>
       <c r="AB116" s="15"/>
     </row>
-    <row r="117" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="117" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F117" s="15"/>
       <c r="G117" s="15"/>
       <c r="H117" s="15"/>
@@ -5628,7 +5629,7 @@
       <c r="AA117" s="15"/>
       <c r="AB117" s="15"/>
     </row>
-    <row r="118" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="118" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F118" s="15"/>
       <c r="G118" s="15"/>
       <c r="H118" s="15"/>
@@ -5649,7 +5650,7 @@
       <c r="AA118" s="15"/>
       <c r="AB118" s="15"/>
     </row>
-    <row r="119" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="119" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F119" s="15"/>
       <c r="G119" s="15"/>
       <c r="H119" s="15"/>
@@ -5670,7 +5671,7 @@
       <c r="AA119" s="15"/>
       <c r="AB119" s="15"/>
     </row>
-    <row r="120" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="120" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F120" s="15"/>
       <c r="G120" s="15"/>
       <c r="H120" s="15"/>
@@ -5691,7 +5692,7 @@
       <c r="AA120" s="15"/>
       <c r="AB120" s="15"/>
     </row>
-    <row r="121" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="121" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F121" s="15"/>
       <c r="G121" s="15"/>
       <c r="H121" s="15"/>
@@ -5712,7 +5713,7 @@
       <c r="AA121" s="15"/>
       <c r="AB121" s="15"/>
     </row>
-    <row r="122" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="122" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F122" s="15"/>
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
@@ -5733,7 +5734,7 @@
       <c r="AA122" s="15"/>
       <c r="AB122" s="15"/>
     </row>
-    <row r="123" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="123" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F123" s="15"/>
       <c r="G123" s="15"/>
       <c r="H123" s="15"/>
@@ -5754,7 +5755,7 @@
       <c r="AA123" s="15"/>
       <c r="AB123" s="15"/>
     </row>
-    <row r="124" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="124" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F124" s="15"/>
       <c r="G124" s="15"/>
       <c r="H124" s="15"/>
@@ -5775,7 +5776,7 @@
       <c r="AA124" s="15"/>
       <c r="AB124" s="15"/>
     </row>
-    <row r="125" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="125" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F125" s="15"/>
       <c r="G125" s="15"/>
       <c r="H125" s="15"/>
@@ -5796,7 +5797,7 @@
       <c r="AA125" s="15"/>
       <c r="AB125" s="15"/>
     </row>
-    <row r="126" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="126" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F126" s="15"/>
       <c r="G126" s="15"/>
       <c r="H126" s="15"/>
@@ -5817,7 +5818,7 @@
       <c r="AA126" s="15"/>
       <c r="AB126" s="15"/>
     </row>
-    <row r="127" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="127" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F127" s="15"/>
       <c r="G127" s="15"/>
       <c r="H127" s="15"/>
@@ -5838,7 +5839,7 @@
       <c r="AA127" s="15"/>
       <c r="AB127" s="15"/>
     </row>
-    <row r="128" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="128" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F128" s="15"/>
       <c r="G128" s="15"/>
       <c r="H128" s="15"/>
@@ -5859,7 +5860,7 @@
       <c r="AA128" s="15"/>
       <c r="AB128" s="15"/>
     </row>
-    <row r="129" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="129" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F129" s="15"/>
       <c r="G129" s="15"/>
       <c r="H129" s="15"/>
@@ -5880,7 +5881,7 @@
       <c r="AA129" s="15"/>
       <c r="AB129" s="15"/>
     </row>
-    <row r="130" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="130" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F130" s="15"/>
       <c r="G130" s="15"/>
       <c r="H130" s="15"/>
@@ -5901,7 +5902,7 @@
       <c r="AA130" s="15"/>
       <c r="AB130" s="15"/>
     </row>
-    <row r="131" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="131" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F131" s="15"/>
       <c r="G131" s="15"/>
       <c r="H131" s="15"/>
@@ -5922,7 +5923,7 @@
       <c r="AA131" s="15"/>
       <c r="AB131" s="15"/>
     </row>
-    <row r="132" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="132" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F132" s="15"/>
       <c r="G132" s="15"/>
       <c r="H132" s="15"/>
@@ -5943,7 +5944,7 @@
       <c r="AA132" s="15"/>
       <c r="AB132" s="15"/>
     </row>
-    <row r="133" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="133" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F133" s="15"/>
       <c r="G133" s="15"/>
       <c r="H133" s="15"/>
@@ -5964,7 +5965,7 @@
       <c r="AA133" s="15"/>
       <c r="AB133" s="15"/>
     </row>
-    <row r="134" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="134" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F134" s="15"/>
       <c r="G134" s="15"/>
       <c r="H134" s="15"/>
@@ -5985,7 +5986,7 @@
       <c r="AA134" s="15"/>
       <c r="AB134" s="15"/>
     </row>
-    <row r="135" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="135" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F135" s="15"/>
       <c r="G135" s="15"/>
       <c r="H135" s="15"/>
@@ -6006,7 +6007,7 @@
       <c r="AA135" s="15"/>
       <c r="AB135" s="15"/>
     </row>
-    <row r="136" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="136" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F136" s="15"/>
       <c r="G136" s="15"/>
       <c r="H136" s="15"/>
@@ -6027,7 +6028,7 @@
       <c r="AA136" s="15"/>
       <c r="AB136" s="15"/>
     </row>
-    <row r="137" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="137" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F137" s="15"/>
       <c r="G137" s="15"/>
       <c r="H137" s="15"/>
@@ -6048,7 +6049,7 @@
       <c r="AA137" s="15"/>
       <c r="AB137" s="15"/>
     </row>
-    <row r="138" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="138" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F138" s="15"/>
       <c r="G138" s="15"/>
       <c r="H138" s="15"/>
@@ -6069,7 +6070,7 @@
       <c r="AA138" s="15"/>
       <c r="AB138" s="15"/>
     </row>
-    <row r="139" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="139" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F139" s="15"/>
       <c r="G139" s="15"/>
       <c r="H139" s="15"/>
@@ -6090,7 +6091,7 @@
       <c r="AA139" s="15"/>
       <c r="AB139" s="15"/>
     </row>
-    <row r="140" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="140" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F140" s="15"/>
       <c r="G140" s="15"/>
       <c r="H140" s="15"/>
@@ -6111,7 +6112,7 @@
       <c r="AA140" s="15"/>
       <c r="AB140" s="15"/>
     </row>
-    <row r="141" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="141" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F141" s="15"/>
       <c r="G141" s="15"/>
       <c r="H141" s="15"/>
@@ -6132,7 +6133,7 @@
       <c r="AA141" s="15"/>
       <c r="AB141" s="15"/>
     </row>
-    <row r="142" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="142" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F142" s="15"/>
       <c r="G142" s="15"/>
       <c r="H142" s="15"/>
@@ -6153,7 +6154,7 @@
       <c r="AA142" s="15"/>
       <c r="AB142" s="15"/>
     </row>
-    <row r="143" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="143" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F143" s="15"/>
       <c r="G143" s="15"/>
       <c r="H143" s="15"/>
@@ -6174,7 +6175,7 @@
       <c r="AA143" s="15"/>
       <c r="AB143" s="15"/>
     </row>
-    <row r="144" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="144" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F144" s="15"/>
       <c r="G144" s="15"/>
       <c r="H144" s="15"/>
@@ -6195,7 +6196,7 @@
       <c r="AA144" s="15"/>
       <c r="AB144" s="15"/>
     </row>
-    <row r="145" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="145" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F145" s="15"/>
       <c r="G145" s="15"/>
       <c r="H145" s="15"/>
@@ -6216,7 +6217,7 @@
       <c r="AA145" s="15"/>
       <c r="AB145" s="15"/>
     </row>
-    <row r="146" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="146" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F146" s="15"/>
       <c r="G146" s="15"/>
       <c r="H146" s="15"/>
@@ -6237,7 +6238,7 @@
       <c r="AA146" s="15"/>
       <c r="AB146" s="15"/>
     </row>
-    <row r="147" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="147" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F147" s="15"/>
       <c r="G147" s="15"/>
       <c r="H147" s="15"/>
@@ -6258,7 +6259,7 @@
       <c r="AA147" s="15"/>
       <c r="AB147" s="15"/>
     </row>
-    <row r="148" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="148" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F148" s="15"/>
       <c r="G148" s="15"/>
       <c r="H148" s="15"/>
@@ -6279,7 +6280,7 @@
       <c r="AA148" s="15"/>
       <c r="AB148" s="15"/>
     </row>
-    <row r="149" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="149" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F149" s="15"/>
       <c r="G149" s="15"/>
       <c r="H149" s="15"/>
@@ -6300,7 +6301,7 @@
       <c r="AA149" s="15"/>
       <c r="AB149" s="15"/>
     </row>
-    <row r="150" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="150" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F150" s="15"/>
       <c r="G150" s="15"/>
       <c r="H150" s="15"/>
@@ -6321,7 +6322,7 @@
       <c r="AA150" s="15"/>
       <c r="AB150" s="15"/>
     </row>
-    <row r="151" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="151" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F151" s="15"/>
       <c r="G151" s="15"/>
       <c r="H151" s="15"/>
@@ -6342,7 +6343,7 @@
       <c r="AA151" s="15"/>
       <c r="AB151" s="15"/>
     </row>
-    <row r="152" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="152" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F152" s="15"/>
       <c r="G152" s="15"/>
       <c r="H152" s="15"/>
@@ -6363,7 +6364,7 @@
       <c r="AA152" s="15"/>
       <c r="AB152" s="15"/>
     </row>
-    <row r="153" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="153" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F153" s="15"/>
       <c r="G153" s="15"/>
       <c r="H153" s="15"/>
@@ -6384,7 +6385,7 @@
       <c r="AA153" s="15"/>
       <c r="AB153" s="15"/>
     </row>
-    <row r="154" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="154" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F154" s="15"/>
       <c r="G154" s="15"/>
       <c r="H154" s="15"/>
@@ -6405,7 +6406,7 @@
       <c r="AA154" s="15"/>
       <c r="AB154" s="15"/>
     </row>
-    <row r="155" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="155" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F155" s="15"/>
       <c r="G155" s="15"/>
       <c r="H155" s="15"/>
@@ -6426,7 +6427,7 @@
       <c r="AA155" s="15"/>
       <c r="AB155" s="15"/>
     </row>
-    <row r="156" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="156" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F156" s="15"/>
       <c r="G156" s="15"/>
       <c r="H156" s="15"/>
@@ -6447,7 +6448,7 @@
       <c r="AA156" s="15"/>
       <c r="AB156" s="15"/>
     </row>
-    <row r="157" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="157" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F157" s="15"/>
       <c r="G157" s="15"/>
       <c r="H157" s="15"/>
@@ -6468,7 +6469,7 @@
       <c r="AA157" s="15"/>
       <c r="AB157" s="15"/>
     </row>
-    <row r="158" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="158" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F158" s="15"/>
       <c r="G158" s="15"/>
       <c r="H158" s="15"/>
@@ -6489,7 +6490,7 @@
       <c r="AA158" s="15"/>
       <c r="AB158" s="15"/>
     </row>
-    <row r="159" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="159" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F159" s="15"/>
       <c r="G159" s="15"/>
       <c r="H159" s="15"/>
@@ -6510,7 +6511,7 @@
       <c r="AA159" s="15"/>
       <c r="AB159" s="15"/>
     </row>
-    <row r="160" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="160" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F160" s="15"/>
       <c r="G160" s="15"/>
       <c r="H160" s="15"/>
@@ -6531,7 +6532,7 @@
       <c r="AA160" s="15"/>
       <c r="AB160" s="15"/>
     </row>
-    <row r="161" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="161" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F161" s="15"/>
       <c r="G161" s="15"/>
       <c r="H161" s="15"/>
@@ -6552,7 +6553,7 @@
       <c r="AA161" s="15"/>
       <c r="AB161" s="15"/>
     </row>
-    <row r="162" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="162" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F162" s="15"/>
       <c r="G162" s="15"/>
       <c r="H162" s="15"/>
@@ -6573,7 +6574,7 @@
       <c r="AA162" s="15"/>
       <c r="AB162" s="15"/>
     </row>
-    <row r="163" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="163" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F163" s="15"/>
       <c r="G163" s="15"/>
       <c r="H163" s="15"/>
@@ -6594,7 +6595,7 @@
       <c r="AA163" s="15"/>
       <c r="AB163" s="15"/>
     </row>
-    <row r="164" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="164" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F164" s="15"/>
       <c r="G164" s="15"/>
       <c r="H164" s="15"/>
@@ -6615,7 +6616,7 @@
       <c r="AA164" s="15"/>
       <c r="AB164" s="15"/>
     </row>
-    <row r="165" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="165" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F165" s="15"/>
       <c r="G165" s="15"/>
       <c r="H165" s="15"/>
@@ -6636,7 +6637,7 @@
       <c r="AA165" s="15"/>
       <c r="AB165" s="15"/>
     </row>
-    <row r="166" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="166" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F166" s="15"/>
       <c r="G166" s="15"/>
       <c r="H166" s="15"/>
@@ -6657,7 +6658,7 @@
       <c r="AA166" s="15"/>
       <c r="AB166" s="15"/>
     </row>
-    <row r="167" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="167" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F167" s="15"/>
       <c r="G167" s="15"/>
       <c r="H167" s="15"/>
@@ -6678,7 +6679,7 @@
       <c r="AA167" s="15"/>
       <c r="AB167" s="15"/>
     </row>
-    <row r="168" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="168" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F168" s="15"/>
       <c r="G168" s="15"/>
       <c r="H168" s="15"/>
@@ -6699,7 +6700,7 @@
       <c r="AA168" s="15"/>
       <c r="AB168" s="15"/>
     </row>
-    <row r="169" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="169" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F169" s="15"/>
       <c r="G169" s="15"/>
       <c r="H169" s="15"/>
@@ -6720,7 +6721,7 @@
       <c r="AA169" s="15"/>
       <c r="AB169" s="15"/>
     </row>
-    <row r="170" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="170" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F170" s="15"/>
       <c r="G170" s="15"/>
       <c r="H170" s="15"/>
@@ -6741,7 +6742,7 @@
       <c r="AA170" s="15"/>
       <c r="AB170" s="15"/>
     </row>
-    <row r="171" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="171" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F171" s="15"/>
       <c r="G171" s="15"/>
       <c r="H171" s="15"/>
@@ -6762,7 +6763,7 @@
       <c r="AA171" s="15"/>
       <c r="AB171" s="15"/>
     </row>
-    <row r="172" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="172" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F172" s="15"/>
       <c r="G172" s="15"/>
       <c r="H172" s="15"/>
@@ -6783,7 +6784,7 @@
       <c r="AA172" s="15"/>
       <c r="AB172" s="15"/>
     </row>
-    <row r="173" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="173" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F173" s="15"/>
       <c r="G173" s="15"/>
       <c r="H173" s="15"/>
@@ -6804,7 +6805,7 @@
       <c r="AA173" s="15"/>
       <c r="AB173" s="15"/>
     </row>
-    <row r="174" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="174" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F174" s="15"/>
       <c r="G174" s="15"/>
       <c r="H174" s="15"/>
@@ -6825,7 +6826,7 @@
       <c r="AA174" s="15"/>
       <c r="AB174" s="15"/>
     </row>
-    <row r="175" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="175" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F175" s="15"/>
       <c r="G175" s="15"/>
       <c r="H175" s="15"/>
@@ -6846,7 +6847,7 @@
       <c r="AA175" s="15"/>
       <c r="AB175" s="15"/>
     </row>
-    <row r="176" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="176" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F176" s="15"/>
       <c r="G176" s="15"/>
       <c r="H176" s="15"/>
@@ -6867,7 +6868,7 @@
       <c r="AA176" s="15"/>
       <c r="AB176" s="15"/>
     </row>
-    <row r="177" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="177" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F177" s="15"/>
       <c r="G177" s="15"/>
       <c r="H177" s="15"/>
@@ -6888,7 +6889,7 @@
       <c r="AA177" s="15"/>
       <c r="AB177" s="15"/>
     </row>
-    <row r="178" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="178" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F178" s="15"/>
       <c r="G178" s="15"/>
       <c r="H178" s="15"/>
@@ -6909,7 +6910,7 @@
       <c r="AA178" s="15"/>
       <c r="AB178" s="15"/>
     </row>
-    <row r="179" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="179" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F179" s="15"/>
       <c r="G179" s="15"/>
       <c r="H179" s="15"/>
@@ -6930,7 +6931,7 @@
       <c r="AA179" s="15"/>
       <c r="AB179" s="15"/>
     </row>
-    <row r="180" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="180" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F180" s="15"/>
       <c r="G180" s="15"/>
       <c r="H180" s="15"/>
@@ -6951,7 +6952,7 @@
       <c r="AA180" s="15"/>
       <c r="AB180" s="15"/>
     </row>
-    <row r="181" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="181" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F181" s="15"/>
       <c r="G181" s="15"/>
       <c r="H181" s="15"/>
@@ -6972,7 +6973,7 @@
       <c r="AA181" s="15"/>
       <c r="AB181" s="15"/>
     </row>
-    <row r="182" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="182" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F182" s="15"/>
       <c r="G182" s="15"/>
       <c r="H182" s="15"/>
@@ -6993,7 +6994,7 @@
       <c r="AA182" s="15"/>
       <c r="AB182" s="15"/>
     </row>
-    <row r="183" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="183" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F183" s="15"/>
       <c r="G183" s="15"/>
       <c r="H183" s="15"/>
@@ -7014,7 +7015,7 @@
       <c r="AA183" s="15"/>
       <c r="AB183" s="15"/>
     </row>
-    <row r="184" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="184" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F184" s="15"/>
       <c r="G184" s="15"/>
       <c r="H184" s="15"/>
@@ -7035,7 +7036,7 @@
       <c r="AA184" s="15"/>
       <c r="AB184" s="15"/>
     </row>
-    <row r="185" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="185" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F185" s="15"/>
       <c r="G185" s="15"/>
       <c r="H185" s="15"/>
@@ -7056,7 +7057,7 @@
       <c r="AA185" s="15"/>
       <c r="AB185" s="15"/>
     </row>
-    <row r="186" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="186" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F186" s="15"/>
       <c r="G186" s="15"/>
       <c r="H186" s="15"/>
@@ -7077,7 +7078,7 @@
       <c r="AA186" s="15"/>
       <c r="AB186" s="15"/>
     </row>
-    <row r="187" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="187" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F187" s="15"/>
       <c r="G187" s="15"/>
       <c r="H187" s="15"/>
@@ -7098,7 +7099,7 @@
       <c r="AA187" s="15"/>
       <c r="AB187" s="15"/>
     </row>
-    <row r="188" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="188" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F188" s="15"/>
       <c r="G188" s="15"/>
       <c r="H188" s="15"/>
@@ -7119,7 +7120,7 @@
       <c r="AA188" s="15"/>
       <c r="AB188" s="15"/>
     </row>
-    <row r="189" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="189" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F189" s="15"/>
       <c r="G189" s="15"/>
       <c r="H189" s="15"/>
@@ -7140,7 +7141,7 @@
       <c r="AA189" s="15"/>
       <c r="AB189" s="15"/>
     </row>
-    <row r="190" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="190" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F190" s="15"/>
       <c r="G190" s="15"/>
       <c r="H190" s="15"/>
@@ -7161,7 +7162,7 @@
       <c r="AA190" s="15"/>
       <c r="AB190" s="15"/>
     </row>
-    <row r="191" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="191" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F191" s="15"/>
       <c r="G191" s="15"/>
       <c r="H191" s="15"/>
@@ -7182,7 +7183,7 @@
       <c r="AA191" s="15"/>
       <c r="AB191" s="15"/>
     </row>
-    <row r="192" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="192" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F192" s="15"/>
       <c r="G192" s="15"/>
       <c r="H192" s="15"/>
@@ -7203,7 +7204,7 @@
       <c r="AA192" s="15"/>
       <c r="AB192" s="15"/>
     </row>
-    <row r="193" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="193" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F193" s="15"/>
       <c r="G193" s="15"/>
       <c r="H193" s="15"/>
@@ -7224,7 +7225,7 @@
       <c r="AA193" s="15"/>
       <c r="AB193" s="15"/>
     </row>
-    <row r="194" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="194" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F194" s="15"/>
       <c r="G194" s="15"/>
       <c r="H194" s="15"/>
@@ -7245,7 +7246,7 @@
       <c r="AA194" s="15"/>
       <c r="AB194" s="15"/>
     </row>
-    <row r="195" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="195" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F195" s="15"/>
       <c r="G195" s="15"/>
       <c r="H195" s="15"/>
@@ -7266,7 +7267,7 @@
       <c r="AA195" s="15"/>
       <c r="AB195" s="15"/>
     </row>
-    <row r="196" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="196" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F196" s="15"/>
       <c r="G196" s="15"/>
       <c r="H196" s="15"/>
@@ -7287,7 +7288,7 @@
       <c r="AA196" s="15"/>
       <c r="AB196" s="15"/>
     </row>
-    <row r="197" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="197" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F197" s="15"/>
       <c r="G197" s="15"/>
       <c r="H197" s="15"/>
@@ -7308,7 +7309,7 @@
       <c r="AA197" s="15"/>
       <c r="AB197" s="15"/>
     </row>
-    <row r="198" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="198" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F198" s="15"/>
       <c r="G198" s="15"/>
       <c r="H198" s="15"/>
@@ -7329,7 +7330,7 @@
       <c r="AA198" s="15"/>
       <c r="AB198" s="15"/>
     </row>
-    <row r="199" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="199" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F199" s="15"/>
       <c r="G199" s="15"/>
       <c r="H199" s="15"/>
@@ -7350,7 +7351,7 @@
       <c r="AA199" s="15"/>
       <c r="AB199" s="15"/>
     </row>
-    <row r="200" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="200" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F200" s="15"/>
       <c r="G200" s="15"/>
       <c r="H200" s="15"/>
@@ -7371,7 +7372,7 @@
       <c r="AA200" s="15"/>
       <c r="AB200" s="15"/>
     </row>
-    <row r="201" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="201" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F201" s="15"/>
       <c r="G201" s="15"/>
       <c r="H201" s="15"/>
@@ -7392,7 +7393,7 @@
       <c r="AA201" s="15"/>
       <c r="AB201" s="15"/>
     </row>
-    <row r="202" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="202" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F202" s="15"/>
       <c r="G202" s="15"/>
       <c r="H202" s="15"/>
@@ -7413,7 +7414,7 @@
       <c r="AA202" s="15"/>
       <c r="AB202" s="15"/>
     </row>
-    <row r="203" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="203" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F203" s="15"/>
       <c r="G203" s="15"/>
       <c r="H203" s="15"/>
@@ -7434,7 +7435,7 @@
       <c r="AA203" s="15"/>
       <c r="AB203" s="15"/>
     </row>
-    <row r="204" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="204" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F204" s="15"/>
       <c r="G204" s="15"/>
       <c r="H204" s="15"/>
@@ -7455,7 +7456,7 @@
       <c r="AA204" s="15"/>
       <c r="AB204" s="15"/>
     </row>
-    <row r="205" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="205" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F205" s="15"/>
       <c r="G205" s="15"/>
       <c r="H205" s="15"/>
@@ -7476,7 +7477,7 @@
       <c r="AA205" s="15"/>
       <c r="AB205" s="15"/>
     </row>
-    <row r="206" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="206" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F206" s="15"/>
       <c r="G206" s="15"/>
       <c r="H206" s="15"/>
@@ -7497,7 +7498,7 @@
       <c r="AA206" s="15"/>
       <c r="AB206" s="15"/>
     </row>
-    <row r="207" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="207" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F207" s="15"/>
       <c r="G207" s="15"/>
       <c r="H207" s="15"/>
@@ -7518,7 +7519,7 @@
       <c r="AA207" s="15"/>
       <c r="AB207" s="15"/>
     </row>
-    <row r="208" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="208" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F208" s="15"/>
       <c r="G208" s="15"/>
       <c r="H208" s="15"/>
@@ -7539,7 +7540,7 @@
       <c r="AA208" s="15"/>
       <c r="AB208" s="15"/>
     </row>
-    <row r="209" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="209" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F209" s="15"/>
       <c r="G209" s="15"/>
       <c r="H209" s="15"/>
@@ -7560,7 +7561,7 @@
       <c r="AA209" s="15"/>
       <c r="AB209" s="15"/>
     </row>
-    <row r="210" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="210" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F210" s="15"/>
       <c r="G210" s="15"/>
       <c r="H210" s="15"/>
@@ -7581,7 +7582,7 @@
       <c r="AA210" s="15"/>
       <c r="AB210" s="15"/>
     </row>
-    <row r="211" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="211" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F211" s="15"/>
       <c r="G211" s="15"/>
       <c r="H211" s="15"/>
@@ -7602,7 +7603,7 @@
       <c r="AA211" s="15"/>
       <c r="AB211" s="15"/>
     </row>
-    <row r="212" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="212" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F212" s="15"/>
       <c r="G212" s="15"/>
       <c r="H212" s="15"/>
@@ -7623,7 +7624,7 @@
       <c r="AA212" s="15"/>
       <c r="AB212" s="15"/>
     </row>
-    <row r="213" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="213" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F213" s="15"/>
       <c r="G213" s="15"/>
       <c r="H213" s="15"/>
@@ -7644,7 +7645,7 @@
       <c r="AA213" s="15"/>
       <c r="AB213" s="15"/>
     </row>
-    <row r="214" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="214" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F214" s="15"/>
       <c r="G214" s="15"/>
       <c r="H214" s="15"/>
@@ -7665,7 +7666,7 @@
       <c r="AA214" s="15"/>
       <c r="AB214" s="15"/>
     </row>
-    <row r="215" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="215" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F215" s="15"/>
       <c r="G215" s="15"/>
       <c r="H215" s="15"/>
@@ -7686,7 +7687,7 @@
       <c r="AA215" s="15"/>
       <c r="AB215" s="15"/>
     </row>
-    <row r="216" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="216" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F216" s="15"/>
       <c r="G216" s="15"/>
       <c r="H216" s="15"/>
@@ -7707,7 +7708,7 @@
       <c r="AA216" s="15"/>
       <c r="AB216" s="15"/>
     </row>
-    <row r="217" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="217" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F217" s="15"/>
       <c r="G217" s="15"/>
       <c r="H217" s="15"/>
@@ -7728,7 +7729,7 @@
       <c r="AA217" s="15"/>
       <c r="AB217" s="15"/>
     </row>
-    <row r="218" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="218" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F218" s="15"/>
       <c r="G218" s="15"/>
       <c r="H218" s="15"/>
@@ -7749,7 +7750,7 @@
       <c r="AA218" s="15"/>
       <c r="AB218" s="15"/>
     </row>
-    <row r="219" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="219" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F219" s="15"/>
       <c r="G219" s="15"/>
       <c r="H219" s="15"/>
@@ -7770,7 +7771,7 @@
       <c r="AA219" s="15"/>
       <c r="AB219" s="15"/>
     </row>
-    <row r="220" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="220" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F220" s="15"/>
       <c r="G220" s="15"/>
       <c r="H220" s="15"/>
@@ -7791,7 +7792,7 @@
       <c r="AA220" s="15"/>
       <c r="AB220" s="15"/>
     </row>
-    <row r="221" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="221" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F221" s="15"/>
       <c r="G221" s="15"/>
       <c r="H221" s="15"/>
@@ -7812,7 +7813,7 @@
       <c r="AA221" s="15"/>
       <c r="AB221" s="15"/>
     </row>
-    <row r="222" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="222" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F222" s="15"/>
       <c r="G222" s="15"/>
       <c r="H222" s="15"/>
@@ -7833,7 +7834,7 @@
       <c r="AA222" s="15"/>
       <c r="AB222" s="15"/>
     </row>
-    <row r="223" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="223" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F223" s="15"/>
       <c r="G223" s="15"/>
       <c r="H223" s="15"/>
@@ -7854,7 +7855,7 @@
       <c r="AA223" s="15"/>
       <c r="AB223" s="15"/>
     </row>
-    <row r="224" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="224" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F224" s="15"/>
       <c r="G224" s="15"/>
       <c r="H224" s="15"/>
@@ -7875,7 +7876,7 @@
       <c r="AA224" s="15"/>
       <c r="AB224" s="15"/>
     </row>
-    <row r="225" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="225" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F225" s="15"/>
       <c r="G225" s="15"/>
       <c r="H225" s="15"/>
@@ -7896,7 +7897,7 @@
       <c r="AA225" s="15"/>
       <c r="AB225" s="15"/>
     </row>
-    <row r="226" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="226" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F226" s="15"/>
       <c r="G226" s="15"/>
       <c r="H226" s="15"/>
@@ -7917,7 +7918,7 @@
       <c r="AA226" s="15"/>
       <c r="AB226" s="15"/>
     </row>
-    <row r="227" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="227" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F227" s="15"/>
       <c r="G227" s="15"/>
       <c r="H227" s="15"/>
@@ -7938,7 +7939,7 @@
       <c r="AA227" s="15"/>
       <c r="AB227" s="15"/>
     </row>
-    <row r="228" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="228" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F228" s="15"/>
       <c r="G228" s="15"/>
       <c r="H228" s="15"/>
@@ -7959,7 +7960,7 @@
       <c r="AA228" s="15"/>
       <c r="AB228" s="15"/>
     </row>
-    <row r="229" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="229" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F229" s="15"/>
       <c r="G229" s="15"/>
       <c r="H229" s="15"/>
@@ -7980,7 +7981,7 @@
       <c r="AA229" s="15"/>
       <c r="AB229" s="15"/>
     </row>
-    <row r="230" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="230" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F230" s="15"/>
       <c r="G230" s="15"/>
       <c r="H230" s="15"/>
@@ -8001,7 +8002,7 @@
       <c r="AA230" s="15"/>
       <c r="AB230" s="15"/>
     </row>
-    <row r="231" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="231" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F231" s="15"/>
       <c r="G231" s="15"/>
       <c r="H231" s="15"/>
@@ -8022,7 +8023,7 @@
       <c r="AA231" s="15"/>
       <c r="AB231" s="15"/>
     </row>
-    <row r="232" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="232" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F232" s="15"/>
       <c r="G232" s="15"/>
       <c r="H232" s="15"/>
@@ -8043,7 +8044,7 @@
       <c r="AA232" s="15"/>
       <c r="AB232" s="15"/>
     </row>
-    <row r="233" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="233" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F233" s="15"/>
       <c r="G233" s="15"/>
       <c r="H233" s="15"/>
@@ -8064,7 +8065,7 @@
       <c r="AA233" s="15"/>
       <c r="AB233" s="15"/>
     </row>
-    <row r="234" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="234" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F234" s="15"/>
       <c r="G234" s="15"/>
       <c r="H234" s="15"/>
@@ -8085,7 +8086,7 @@
       <c r="AA234" s="15"/>
       <c r="AB234" s="15"/>
     </row>
-    <row r="235" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="235" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F235" s="15"/>
       <c r="G235" s="15"/>
       <c r="H235" s="15"/>
@@ -8106,7 +8107,7 @@
       <c r="AA235" s="15"/>
       <c r="AB235" s="15"/>
     </row>
-    <row r="236" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="236" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F236" s="15"/>
       <c r="G236" s="15"/>
       <c r="H236" s="15"/>
@@ -8127,7 +8128,7 @@
       <c r="AA236" s="15"/>
       <c r="AB236" s="15"/>
     </row>
-    <row r="237" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="237" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F237" s="15"/>
       <c r="G237" s="15"/>
       <c r="H237" s="15"/>
@@ -8148,7 +8149,7 @@
       <c r="AA237" s="15"/>
       <c r="AB237" s="15"/>
     </row>
-    <row r="238" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="238" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F238" s="15"/>
       <c r="G238" s="15"/>
       <c r="H238" s="15"/>
@@ -8169,7 +8170,7 @@
       <c r="AA238" s="15"/>
       <c r="AB238" s="15"/>
     </row>
-    <row r="239" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="239" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F239" s="15"/>
       <c r="G239" s="15"/>
       <c r="H239" s="15"/>
@@ -8190,7 +8191,7 @@
       <c r="AA239" s="15"/>
       <c r="AB239" s="15"/>
     </row>
-    <row r="240" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="240" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F240" s="15"/>
       <c r="G240" s="15"/>
       <c r="H240" s="15"/>
@@ -8211,7 +8212,7 @@
       <c r="AA240" s="15"/>
       <c r="AB240" s="15"/>
     </row>
-    <row r="241" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="241" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F241" s="15"/>
       <c r="G241" s="15"/>
       <c r="H241" s="15"/>
@@ -8232,7 +8233,7 @@
       <c r="AA241" s="15"/>
       <c r="AB241" s="15"/>
     </row>
-    <row r="242" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="242" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F242" s="15"/>
       <c r="G242" s="15"/>
       <c r="H242" s="15"/>
@@ -8253,7 +8254,7 @@
       <c r="AA242" s="15"/>
       <c r="AB242" s="15"/>
     </row>
-    <row r="243" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="243" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F243" s="15"/>
       <c r="G243" s="15"/>
       <c r="H243" s="15"/>
@@ -8274,7 +8275,7 @@
       <c r="AA243" s="15"/>
       <c r="AB243" s="15"/>
     </row>
-    <row r="244" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="244" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F244" s="15"/>
       <c r="G244" s="15"/>
       <c r="H244" s="15"/>
@@ -8295,7 +8296,7 @@
       <c r="AA244" s="15"/>
       <c r="AB244" s="15"/>
     </row>
-    <row r="245" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="245" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F245" s="15"/>
       <c r="G245" s="15"/>
       <c r="H245" s="15"/>
@@ -8316,7 +8317,7 @@
       <c r="AA245" s="15"/>
       <c r="AB245" s="15"/>
     </row>
-    <row r="246" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="246" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F246" s="15"/>
       <c r="G246" s="15"/>
       <c r="H246" s="15"/>
@@ -8337,7 +8338,7 @@
       <c r="AA246" s="15"/>
       <c r="AB246" s="15"/>
     </row>
-    <row r="247" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="247" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F247" s="15"/>
       <c r="G247" s="15"/>
       <c r="H247" s="15"/>
@@ -8358,7 +8359,7 @@
       <c r="AA247" s="15"/>
       <c r="AB247" s="15"/>
     </row>
-    <row r="248" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="248" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F248" s="15"/>
       <c r="G248" s="15"/>
       <c r="H248" s="15"/>
@@ -8379,7 +8380,7 @@
       <c r="AA248" s="15"/>
       <c r="AB248" s="15"/>
     </row>
-    <row r="249" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="249" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F249" s="15"/>
       <c r="G249" s="15"/>
       <c r="H249" s="15"/>
@@ -8400,7 +8401,7 @@
       <c r="AA249" s="15"/>
       <c r="AB249" s="15"/>
     </row>
-    <row r="250" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="250" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F250" s="15"/>
       <c r="G250" s="15"/>
       <c r="H250" s="15"/>
@@ -8421,7 +8422,7 @@
       <c r="AA250" s="15"/>
       <c r="AB250" s="15"/>
     </row>
-    <row r="251" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="251" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F251" s="15"/>
       <c r="G251" s="15"/>
       <c r="H251" s="15"/>
@@ -8442,7 +8443,7 @@
       <c r="AA251" s="15"/>
       <c r="AB251" s="15"/>
     </row>
-    <row r="252" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="252" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F252" s="15"/>
       <c r="G252" s="15"/>
       <c r="H252" s="15"/>
@@ -8463,7 +8464,7 @@
       <c r="AA252" s="15"/>
       <c r="AB252" s="15"/>
     </row>
-    <row r="253" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="253" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F253" s="15"/>
       <c r="G253" s="15"/>
       <c r="H253" s="15"/>
@@ -8484,7 +8485,7 @@
       <c r="AA253" s="15"/>
       <c r="AB253" s="15"/>
     </row>
-    <row r="254" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="254" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F254" s="15"/>
       <c r="G254" s="15"/>
       <c r="H254" s="15"/>
@@ -8505,7 +8506,7 @@
       <c r="AA254" s="15"/>
       <c r="AB254" s="15"/>
     </row>
-    <row r="255" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="255" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F255" s="15"/>
       <c r="G255" s="15"/>
       <c r="H255" s="15"/>
@@ -8526,7 +8527,7 @@
       <c r="AA255" s="15"/>
       <c r="AB255" s="15"/>
     </row>
-    <row r="256" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="256" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F256" s="15"/>
       <c r="G256" s="15"/>
       <c r="H256" s="15"/>
@@ -8547,7 +8548,7 @@
       <c r="AA256" s="15"/>
       <c r="AB256" s="15"/>
     </row>
-    <row r="257" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="257" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F257" s="15"/>
       <c r="G257" s="15"/>
       <c r="H257" s="15"/>
@@ -8568,7 +8569,7 @@
       <c r="AA257" s="15"/>
       <c r="AB257" s="15"/>
     </row>
-    <row r="258" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="258" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F258" s="15"/>
       <c r="G258" s="15"/>
       <c r="H258" s="15"/>
@@ -8589,7 +8590,7 @@
       <c r="AA258" s="15"/>
       <c r="AB258" s="15"/>
     </row>
-    <row r="259" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="259" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F259" s="15"/>
       <c r="G259" s="15"/>
       <c r="H259" s="15"/>
@@ -8610,7 +8611,7 @@
       <c r="AA259" s="15"/>
       <c r="AB259" s="15"/>
     </row>
-    <row r="260" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="260" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F260" s="15"/>
       <c r="G260" s="15"/>
       <c r="H260" s="15"/>
@@ -8631,7 +8632,7 @@
       <c r="AA260" s="15"/>
       <c r="AB260" s="15"/>
     </row>
-    <row r="261" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="261" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F261" s="15"/>
       <c r="G261" s="15"/>
       <c r="H261" s="15"/>
@@ -8652,7 +8653,7 @@
       <c r="AA261" s="15"/>
       <c r="AB261" s="15"/>
     </row>
-    <row r="262" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="262" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F262" s="15"/>
       <c r="G262" s="15"/>
       <c r="H262" s="15"/>
@@ -8673,7 +8674,7 @@
       <c r="AA262" s="15"/>
       <c r="AB262" s="15"/>
     </row>
-    <row r="263" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="263" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F263" s="15"/>
       <c r="G263" s="15"/>
       <c r="H263" s="15"/>
@@ -8694,7 +8695,7 @@
       <c r="AA263" s="15"/>
       <c r="AB263" s="15"/>
     </row>
-    <row r="264" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="264" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F264" s="15"/>
       <c r="G264" s="15"/>
       <c r="H264" s="15"/>
@@ -8715,7 +8716,7 @@
       <c r="AA264" s="15"/>
       <c r="AB264" s="15"/>
     </row>
-    <row r="265" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="265" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F265" s="15"/>
       <c r="G265" s="15"/>
       <c r="H265" s="15"/>
@@ -8736,7 +8737,7 @@
       <c r="AA265" s="15"/>
       <c r="AB265" s="15"/>
     </row>
-    <row r="266" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="266" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F266" s="15"/>
       <c r="G266" s="15"/>
       <c r="H266" s="15"/>
@@ -8757,7 +8758,7 @@
       <c r="AA266" s="15"/>
       <c r="AB266" s="15"/>
     </row>
-    <row r="267" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="267" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F267" s="15"/>
       <c r="G267" s="15"/>
       <c r="H267" s="15"/>
@@ -8778,7 +8779,7 @@
       <c r="AA267" s="15"/>
       <c r="AB267" s="15"/>
     </row>
-    <row r="268" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="268" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F268" s="15"/>
       <c r="G268" s="15"/>
       <c r="H268" s="15"/>
@@ -8799,7 +8800,7 @@
       <c r="AA268" s="15"/>
       <c r="AB268" s="15"/>
     </row>
-    <row r="269" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="269" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F269" s="15"/>
       <c r="G269" s="15"/>
       <c r="H269" s="15"/>
@@ -8820,7 +8821,7 @@
       <c r="AA269" s="15"/>
       <c r="AB269" s="15"/>
     </row>
-    <row r="270" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="270" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F270" s="15"/>
       <c r="G270" s="15"/>
       <c r="H270" s="15"/>
@@ -8841,7 +8842,7 @@
       <c r="AA270" s="15"/>
       <c r="AB270" s="15"/>
     </row>
-    <row r="271" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="271" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F271" s="15"/>
       <c r="G271" s="15"/>
       <c r="H271" s="15"/>
@@ -8862,7 +8863,7 @@
       <c r="AA271" s="15"/>
       <c r="AB271" s="15"/>
     </row>
-    <row r="272" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="272" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F272" s="15"/>
       <c r="G272" s="15"/>
       <c r="H272" s="15"/>
@@ -8883,7 +8884,7 @@
       <c r="AA272" s="15"/>
       <c r="AB272" s="15"/>
     </row>
-    <row r="273" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="273" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F273" s="15"/>
       <c r="G273" s="15"/>
       <c r="H273" s="15"/>
@@ -8904,7 +8905,7 @@
       <c r="AA273" s="15"/>
       <c r="AB273" s="15"/>
     </row>
-    <row r="274" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="274" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F274" s="15"/>
       <c r="G274" s="15"/>
       <c r="H274" s="15"/>
@@ -8925,7 +8926,7 @@
       <c r="AA274" s="15"/>
       <c r="AB274" s="15"/>
     </row>
-    <row r="275" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="275" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F275" s="15"/>
       <c r="G275" s="15"/>
       <c r="H275" s="15"/>
@@ -8946,7 +8947,7 @@
       <c r="AA275" s="15"/>
       <c r="AB275" s="15"/>
     </row>
-    <row r="276" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="276" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F276" s="15"/>
       <c r="G276" s="15"/>
       <c r="H276" s="15"/>
@@ -8967,7 +8968,7 @@
       <c r="AA276" s="15"/>
       <c r="AB276" s="15"/>
     </row>
-    <row r="277" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="277" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F277" s="15"/>
       <c r="G277" s="15"/>
       <c r="H277" s="15"/>
@@ -8988,7 +8989,7 @@
       <c r="AA277" s="15"/>
       <c r="AB277" s="15"/>
     </row>
-    <row r="278" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="278" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F278" s="15"/>
       <c r="G278" s="15"/>
       <c r="H278" s="15"/>
@@ -9009,7 +9010,7 @@
       <c r="AA278" s="15"/>
       <c r="AB278" s="15"/>
     </row>
-    <row r="279" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="279" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F279" s="15"/>
       <c r="G279" s="15"/>
       <c r="H279" s="15"/>
@@ -9030,7 +9031,7 @@
       <c r="AA279" s="15"/>
       <c r="AB279" s="15"/>
     </row>
-    <row r="280" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="280" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F280" s="15"/>
       <c r="G280" s="15"/>
       <c r="H280" s="15"/>
@@ -9051,7 +9052,7 @@
       <c r="AA280" s="15"/>
       <c r="AB280" s="15"/>
     </row>
-    <row r="281" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="281" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F281" s="15"/>
       <c r="G281" s="15"/>
       <c r="H281" s="15"/>
@@ -9072,7 +9073,7 @@
       <c r="AA281" s="15"/>
       <c r="AB281" s="15"/>
     </row>
-    <row r="282" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="282" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F282" s="15"/>
       <c r="G282" s="15"/>
       <c r="H282" s="15"/>
@@ -9093,7 +9094,7 @@
       <c r="AA282" s="15"/>
       <c r="AB282" s="15"/>
     </row>
-    <row r="283" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="283" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F283" s="15"/>
       <c r="G283" s="15"/>
       <c r="H283" s="15"/>
@@ -9114,7 +9115,7 @@
       <c r="AA283" s="15"/>
       <c r="AB283" s="15"/>
     </row>
-    <row r="284" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="284" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F284" s="15"/>
       <c r="G284" s="15"/>
       <c r="H284" s="15"/>
@@ -9135,7 +9136,7 @@
       <c r="AA284" s="15"/>
       <c r="AB284" s="15"/>
     </row>
-    <row r="285" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="285" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F285" s="15"/>
       <c r="G285" s="15"/>
       <c r="H285" s="15"/>
@@ -9156,7 +9157,7 @@
       <c r="AA285" s="15"/>
       <c r="AB285" s="15"/>
     </row>
-    <row r="286" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="286" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F286" s="15"/>
       <c r="G286" s="15"/>
       <c r="H286" s="15"/>
@@ -9177,7 +9178,7 @@
       <c r="AA286" s="15"/>
       <c r="AB286" s="15"/>
     </row>
-    <row r="287" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="287" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F287" s="15"/>
       <c r="G287" s="15"/>
       <c r="H287" s="15"/>
@@ -9198,7 +9199,7 @@
       <c r="AA287" s="15"/>
       <c r="AB287" s="15"/>
     </row>
-    <row r="288" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="288" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F288" s="15"/>
       <c r="G288" s="15"/>
       <c r="H288" s="15"/>
@@ -9219,7 +9220,7 @@
       <c r="AA288" s="15"/>
       <c r="AB288" s="15"/>
     </row>
-    <row r="289" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="289" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F289" s="15"/>
       <c r="G289" s="15"/>
       <c r="H289" s="15"/>
@@ -9240,7 +9241,7 @@
       <c r="AA289" s="15"/>
       <c r="AB289" s="15"/>
     </row>
-    <row r="290" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="290" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F290" s="15"/>
       <c r="G290" s="15"/>
       <c r="H290" s="15"/>
@@ -9261,7 +9262,7 @@
       <c r="AA290" s="15"/>
       <c r="AB290" s="15"/>
     </row>
-    <row r="291" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="291" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F291" s="15"/>
       <c r="G291" s="15"/>
       <c r="H291" s="15"/>
@@ -9282,7 +9283,7 @@
       <c r="AA291" s="15"/>
       <c r="AB291" s="15"/>
     </row>
-    <row r="292" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="292" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F292" s="15"/>
       <c r="G292" s="15"/>
       <c r="H292" s="15"/>
@@ -9303,7 +9304,7 @@
       <c r="AA292" s="15"/>
       <c r="AB292" s="15"/>
     </row>
-    <row r="293" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="293" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F293" s="15"/>
       <c r="G293" s="15"/>
       <c r="H293" s="15"/>
@@ -9324,7 +9325,7 @@
       <c r="AA293" s="15"/>
       <c r="AB293" s="15"/>
     </row>
-    <row r="294" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="294" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F294" s="15"/>
       <c r="G294" s="15"/>
       <c r="H294" s="15"/>
@@ -9345,7 +9346,7 @@
       <c r="AA294" s="15"/>
       <c r="AB294" s="15"/>
     </row>
-    <row r="295" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="295" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F295" s="15"/>
       <c r="G295" s="15"/>
       <c r="H295" s="15"/>
@@ -9366,7 +9367,7 @@
       <c r="AA295" s="15"/>
       <c r="AB295" s="15"/>
     </row>
-    <row r="296" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="296" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F296" s="15"/>
       <c r="G296" s="15"/>
       <c r="H296" s="15"/>
@@ -9387,7 +9388,7 @@
       <c r="AA296" s="15"/>
       <c r="AB296" s="15"/>
     </row>
-    <row r="297" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="297" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F297" s="15"/>
       <c r="G297" s="15"/>
       <c r="H297" s="15"/>
@@ -9408,7 +9409,7 @@
       <c r="AA297" s="15"/>
       <c r="AB297" s="15"/>
     </row>
-    <row r="298" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="298" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F298" s="15"/>
       <c r="G298" s="15"/>
       <c r="H298" s="15"/>
@@ -9429,7 +9430,7 @@
       <c r="AA298" s="15"/>
       <c r="AB298" s="15"/>
     </row>
-    <row r="299" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="299" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F299" s="15"/>
       <c r="G299" s="15"/>
       <c r="H299" s="15"/>
@@ -9450,7 +9451,7 @@
       <c r="AA299" s="15"/>
       <c r="AB299" s="15"/>
     </row>
-    <row r="300" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="300" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F300" s="15"/>
       <c r="G300" s="15"/>
       <c r="H300" s="15"/>
@@ -9471,7 +9472,7 @@
       <c r="AA300" s="15"/>
       <c r="AB300" s="15"/>
     </row>
-    <row r="301" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="301" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F301" s="15"/>
       <c r="G301" s="15"/>
       <c r="H301" s="15"/>
@@ -9492,7 +9493,7 @@
       <c r="AA301" s="15"/>
       <c r="AB301" s="15"/>
     </row>
-    <row r="302" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="302" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F302" s="15"/>
       <c r="G302" s="15"/>
       <c r="H302" s="15"/>
@@ -9513,7 +9514,7 @@
       <c r="AA302" s="15"/>
       <c r="AB302" s="15"/>
     </row>
-    <row r="303" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="303" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F303" s="15"/>
       <c r="G303" s="15"/>
       <c r="H303" s="15"/>
@@ -9534,7 +9535,7 @@
       <c r="AA303" s="15"/>
       <c r="AB303" s="15"/>
     </row>
-    <row r="304" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="304" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F304" s="15"/>
       <c r="G304" s="15"/>
       <c r="H304" s="15"/>
@@ -9555,7 +9556,7 @@
       <c r="AA304" s="15"/>
       <c r="AB304" s="15"/>
     </row>
-    <row r="305" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="305" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F305" s="15"/>
       <c r="G305" s="15"/>
       <c r="H305" s="15"/>
@@ -9576,7 +9577,7 @@
       <c r="AA305" s="15"/>
       <c r="AB305" s="15"/>
     </row>
-    <row r="306" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="306" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F306" s="15"/>
       <c r="G306" s="15"/>
       <c r="H306" s="15"/>
@@ -9597,7 +9598,7 @@
       <c r="AA306" s="15"/>
       <c r="AB306" s="15"/>
     </row>
-    <row r="307" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="307" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F307" s="15"/>
       <c r="G307" s="15"/>
       <c r="H307" s="15"/>
@@ -9618,7 +9619,7 @@
       <c r="AA307" s="15"/>
       <c r="AB307" s="15"/>
     </row>
-    <row r="308" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="308" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F308" s="15"/>
       <c r="G308" s="15"/>
       <c r="H308" s="15"/>
@@ -9639,7 +9640,7 @@
       <c r="AA308" s="15"/>
       <c r="AB308" s="15"/>
     </row>
-    <row r="309" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="309" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F309" s="15"/>
       <c r="G309" s="15"/>
       <c r="H309" s="15"/>
@@ -9660,7 +9661,7 @@
       <c r="AA309" s="15"/>
       <c r="AB309" s="15"/>
     </row>
-    <row r="310" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="310" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F310" s="15"/>
       <c r="G310" s="15"/>
       <c r="H310" s="15"/>
@@ -9681,7 +9682,7 @@
       <c r="AA310" s="15"/>
       <c r="AB310" s="15"/>
     </row>
-    <row r="311" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="311" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F311" s="15"/>
       <c r="G311" s="15"/>
       <c r="H311" s="15"/>
@@ -9702,7 +9703,7 @@
       <c r="AA311" s="15"/>
       <c r="AB311" s="15"/>
     </row>
-    <row r="312" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="312" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F312" s="15"/>
       <c r="G312" s="15"/>
       <c r="H312" s="15"/>
@@ -9723,7 +9724,7 @@
       <c r="AA312" s="15"/>
       <c r="AB312" s="15"/>
     </row>
-    <row r="313" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="313" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F313" s="15"/>
       <c r="G313" s="15"/>
       <c r="H313" s="15"/>
@@ -9744,7 +9745,7 @@
       <c r="AA313" s="15"/>
       <c r="AB313" s="15"/>
     </row>
-    <row r="314" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="314" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F314" s="15"/>
       <c r="G314" s="15"/>
       <c r="H314" s="15"/>
@@ -9765,7 +9766,7 @@
       <c r="AA314" s="15"/>
       <c r="AB314" s="15"/>
     </row>
-    <row r="315" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="315" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F315" s="15"/>
       <c r="G315" s="15"/>
       <c r="H315" s="15"/>
@@ -9786,7 +9787,7 @@
       <c r="AA315" s="15"/>
       <c r="AB315" s="15"/>
     </row>
-    <row r="316" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="316" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F316" s="15"/>
       <c r="G316" s="15"/>
       <c r="H316" s="15"/>
@@ -9807,7 +9808,7 @@
       <c r="AA316" s="15"/>
       <c r="AB316" s="15"/>
     </row>
-    <row r="317" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="317" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F317" s="15"/>
       <c r="G317" s="15"/>
       <c r="H317" s="15"/>
@@ -9828,7 +9829,7 @@
       <c r="AA317" s="15"/>
       <c r="AB317" s="15"/>
     </row>
-    <row r="318" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="318" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F318" s="15"/>
       <c r="G318" s="15"/>
       <c r="H318" s="15"/>
@@ -9849,7 +9850,7 @@
       <c r="AA318" s="15"/>
       <c r="AB318" s="15"/>
     </row>
-    <row r="319" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="319" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F319" s="15"/>
       <c r="G319" s="15"/>
       <c r="H319" s="15"/>
@@ -9870,7 +9871,7 @@
       <c r="AA319" s="15"/>
       <c r="AB319" s="15"/>
     </row>
-    <row r="320" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="320" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F320" s="15"/>
       <c r="G320" s="15"/>
       <c r="H320" s="15"/>
@@ -9891,7 +9892,7 @@
       <c r="AA320" s="15"/>
       <c r="AB320" s="15"/>
     </row>
-    <row r="321" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="321" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F321" s="15"/>
       <c r="G321" s="15"/>
       <c r="H321" s="15"/>
@@ -9912,7 +9913,7 @@
       <c r="AA321" s="15"/>
       <c r="AB321" s="15"/>
     </row>
-    <row r="322" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="322" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F322" s="15"/>
       <c r="G322" s="15"/>
       <c r="H322" s="15"/>
@@ -9933,7 +9934,7 @@
       <c r="AA322" s="15"/>
       <c r="AB322" s="15"/>
     </row>
-    <row r="323" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="323" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F323" s="15"/>
       <c r="G323" s="15"/>
       <c r="H323" s="15"/>
@@ -9954,7 +9955,7 @@
       <c r="AA323" s="15"/>
       <c r="AB323" s="15"/>
     </row>
-    <row r="324" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="324" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F324" s="15"/>
       <c r="G324" s="15"/>
       <c r="H324" s="15"/>
@@ -9975,7 +9976,7 @@
       <c r="AA324" s="15"/>
       <c r="AB324" s="15"/>
     </row>
-    <row r="325" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="325" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F325" s="15"/>
       <c r="G325" s="15"/>
       <c r="H325" s="15"/>
@@ -9996,7 +9997,7 @@
       <c r="AA325" s="15"/>
       <c r="AB325" s="15"/>
     </row>
-    <row r="326" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="326" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F326" s="15"/>
       <c r="G326" s="15"/>
       <c r="H326" s="15"/>
@@ -10017,7 +10018,7 @@
       <c r="AA326" s="15"/>
       <c r="AB326" s="15"/>
     </row>
-    <row r="327" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="327" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F327" s="15"/>
       <c r="G327" s="15"/>
       <c r="H327" s="15"/>
@@ -10038,7 +10039,7 @@
       <c r="AA327" s="15"/>
       <c r="AB327" s="15"/>
     </row>
-    <row r="328" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="328" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F328" s="15"/>
       <c r="G328" s="15"/>
       <c r="H328" s="15"/>
@@ -10059,7 +10060,7 @@
       <c r="AA328" s="15"/>
       <c r="AB328" s="15"/>
     </row>
-    <row r="329" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="329" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F329" s="15"/>
       <c r="G329" s="15"/>
       <c r="H329" s="15"/>
@@ -10080,7 +10081,7 @@
       <c r="AA329" s="15"/>
       <c r="AB329" s="15"/>
     </row>
-    <row r="330" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="330" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F330" s="15"/>
       <c r="G330" s="15"/>
       <c r="H330" s="15"/>
@@ -10101,7 +10102,7 @@
       <c r="AA330" s="15"/>
       <c r="AB330" s="15"/>
     </row>
-    <row r="331" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="331" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F331" s="15"/>
       <c r="G331" s="15"/>
       <c r="H331" s="15"/>
@@ -10122,7 +10123,7 @@
       <c r="AA331" s="15"/>
       <c r="AB331" s="15"/>
     </row>
-    <row r="332" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="332" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F332" s="15"/>
       <c r="G332" s="15"/>
       <c r="H332" s="15"/>
@@ -10143,7 +10144,7 @@
       <c r="AA332" s="15"/>
       <c r="AB332" s="15"/>
     </row>
-    <row r="333" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="333" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F333" s="15"/>
       <c r="G333" s="15"/>
       <c r="H333" s="15"/>
@@ -10164,7 +10165,7 @@
       <c r="AA333" s="15"/>
       <c r="AB333" s="15"/>
     </row>
-    <row r="334" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="334" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F334" s="15"/>
       <c r="G334" s="15"/>
       <c r="H334" s="15"/>
@@ -10185,7 +10186,7 @@
       <c r="AA334" s="15"/>
       <c r="AB334" s="15"/>
     </row>
-    <row r="335" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="335" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F335" s="15"/>
       <c r="G335" s="15"/>
       <c r="H335" s="15"/>
@@ -10206,7 +10207,7 @@
       <c r="AA335" s="15"/>
       <c r="AB335" s="15"/>
     </row>
-    <row r="336" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="336" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F336" s="15"/>
       <c r="G336" s="15"/>
       <c r="H336" s="15"/>
@@ -10227,7 +10228,7 @@
       <c r="AA336" s="15"/>
       <c r="AB336" s="15"/>
     </row>
-    <row r="337" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="337" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F337" s="15"/>
       <c r="G337" s="15"/>
       <c r="H337" s="15"/>
@@ -10248,7 +10249,7 @@
       <c r="AA337" s="15"/>
       <c r="AB337" s="15"/>
     </row>
-    <row r="338" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="338" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F338" s="15"/>
       <c r="G338" s="15"/>
       <c r="H338" s="15"/>
@@ -10269,7 +10270,7 @@
       <c r="AA338" s="15"/>
       <c r="AB338" s="15"/>
     </row>
-    <row r="339" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="339" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F339" s="15"/>
       <c r="G339" s="15"/>
       <c r="H339" s="15"/>
@@ -10290,7 +10291,7 @@
       <c r="AA339" s="15"/>
       <c r="AB339" s="15"/>
     </row>
-    <row r="340" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="340" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F340" s="15"/>
       <c r="G340" s="15"/>
       <c r="H340" s="15"/>
@@ -10311,7 +10312,7 @@
       <c r="AA340" s="15"/>
       <c r="AB340" s="15"/>
     </row>
-    <row r="341" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="341" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F341" s="15"/>
       <c r="G341" s="15"/>
       <c r="H341" s="15"/>
@@ -10332,7 +10333,7 @@
       <c r="AA341" s="15"/>
       <c r="AB341" s="15"/>
     </row>
-    <row r="342" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="342" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F342" s="15"/>
       <c r="G342" s="15"/>
       <c r="H342" s="15"/>
@@ -10353,7 +10354,7 @@
       <c r="AA342" s="15"/>
       <c r="AB342" s="15"/>
     </row>
-    <row r="343" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="343" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F343" s="15"/>
       <c r="G343" s="15"/>
       <c r="H343" s="15"/>
@@ -10374,7 +10375,7 @@
       <c r="AA343" s="15"/>
       <c r="AB343" s="15"/>
     </row>
-    <row r="344" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="344" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F344" s="15"/>
       <c r="G344" s="15"/>
       <c r="H344" s="15"/>
@@ -10395,7 +10396,7 @@
       <c r="AA344" s="15"/>
       <c r="AB344" s="15"/>
     </row>
-    <row r="345" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="345" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F345" s="15"/>
       <c r="G345" s="15"/>
       <c r="H345" s="15"/>
@@ -10416,7 +10417,7 @@
       <c r="AA345" s="15"/>
       <c r="AB345" s="15"/>
     </row>
-    <row r="346" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="346" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F346" s="15"/>
       <c r="G346" s="15"/>
       <c r="H346" s="15"/>
@@ -10437,7 +10438,7 @@
       <c r="AA346" s="15"/>
       <c r="AB346" s="15"/>
     </row>
-    <row r="347" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="347" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F347" s="15"/>
       <c r="G347" s="15"/>
       <c r="H347" s="15"/>
@@ -10458,7 +10459,7 @@
       <c r="AA347" s="15"/>
       <c r="AB347" s="15"/>
     </row>
-    <row r="348" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="348" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F348" s="15"/>
       <c r="G348" s="15"/>
       <c r="H348" s="15"/>
@@ -10479,7 +10480,7 @@
       <c r="AA348" s="15"/>
       <c r="AB348" s="15"/>
     </row>
-    <row r="349" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="349" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F349" s="15"/>
       <c r="G349" s="15"/>
       <c r="H349" s="15"/>
@@ -10500,7 +10501,7 @@
       <c r="AA349" s="15"/>
       <c r="AB349" s="15"/>
     </row>
-    <row r="350" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="350" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F350" s="15"/>
       <c r="G350" s="15"/>
       <c r="H350" s="15"/>
@@ -10521,7 +10522,7 @@
       <c r="AA350" s="15"/>
       <c r="AB350" s="15"/>
     </row>
-    <row r="351" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="351" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F351" s="15"/>
       <c r="G351" s="15"/>
       <c r="H351" s="15"/>
@@ -10542,7 +10543,7 @@
       <c r="AA351" s="15"/>
       <c r="AB351" s="15"/>
     </row>
-    <row r="352" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="352" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F352" s="15"/>
       <c r="G352" s="15"/>
       <c r="H352" s="15"/>
@@ -10563,7 +10564,7 @@
       <c r="AA352" s="15"/>
       <c r="AB352" s="15"/>
     </row>
-    <row r="353" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="353" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F353" s="15"/>
       <c r="G353" s="15"/>
       <c r="H353" s="15"/>
@@ -10584,7 +10585,7 @@
       <c r="AA353" s="15"/>
       <c r="AB353" s="15"/>
     </row>
-    <row r="354" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="354" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F354" s="15"/>
       <c r="G354" s="15"/>
       <c r="H354" s="15"/>
@@ -10605,7 +10606,7 @@
       <c r="AA354" s="15"/>
       <c r="AB354" s="15"/>
     </row>
-    <row r="355" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="355" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F355" s="15"/>
       <c r="G355" s="15"/>
       <c r="H355" s="15"/>
@@ -10626,7 +10627,7 @@
       <c r="AA355" s="15"/>
       <c r="AB355" s="15"/>
     </row>
-    <row r="356" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="356" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F356" s="15"/>
       <c r="G356" s="15"/>
       <c r="H356" s="15"/>
@@ -10647,7 +10648,7 @@
       <c r="AA356" s="15"/>
       <c r="AB356" s="15"/>
     </row>
-    <row r="357" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="357" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F357" s="15"/>
       <c r="G357" s="15"/>
       <c r="H357" s="15"/>
@@ -10668,7 +10669,7 @@
       <c r="AA357" s="15"/>
       <c r="AB357" s="15"/>
     </row>
-    <row r="358" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="358" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F358" s="15"/>
       <c r="G358" s="15"/>
       <c r="H358" s="15"/>
@@ -10689,7 +10690,7 @@
       <c r="AA358" s="15"/>
       <c r="AB358" s="15"/>
     </row>
-    <row r="359" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="359" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F359" s="15"/>
       <c r="G359" s="15"/>
       <c r="H359" s="15"/>
@@ -10710,7 +10711,7 @@
       <c r="AA359" s="15"/>
       <c r="AB359" s="15"/>
     </row>
-    <row r="360" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="360" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F360" s="15"/>
       <c r="G360" s="15"/>
       <c r="H360" s="15"/>
@@ -10731,7 +10732,7 @@
       <c r="AA360" s="15"/>
       <c r="AB360" s="15"/>
     </row>
-    <row r="361" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="361" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F361" s="15"/>
       <c r="G361" s="15"/>
       <c r="H361" s="15"/>
@@ -10752,7 +10753,7 @@
       <c r="AA361" s="15"/>
       <c r="AB361" s="15"/>
     </row>
-    <row r="362" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="362" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F362" s="15"/>
       <c r="G362" s="15"/>
       <c r="H362" s="15"/>
@@ -10773,7 +10774,7 @@
       <c r="AA362" s="15"/>
       <c r="AB362" s="15"/>
     </row>
-    <row r="363" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="363" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F363" s="15"/>
       <c r="G363" s="15"/>
       <c r="H363" s="15"/>
@@ -10794,7 +10795,7 @@
       <c r="AA363" s="15"/>
       <c r="AB363" s="15"/>
     </row>
-    <row r="364" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="364" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F364" s="15"/>
       <c r="G364" s="15"/>
       <c r="H364" s="15"/>
@@ -10815,7 +10816,7 @@
       <c r="AA364" s="15"/>
       <c r="AB364" s="15"/>
     </row>
-    <row r="365" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="365" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F365" s="15"/>
       <c r="G365" s="15"/>
       <c r="H365" s="15"/>
@@ -10836,7 +10837,7 @@
       <c r="AA365" s="15"/>
       <c r="AB365" s="15"/>
     </row>
-    <row r="366" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="366" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F366" s="15"/>
       <c r="G366" s="15"/>
       <c r="H366" s="15"/>
@@ -10857,7 +10858,7 @@
       <c r="AA366" s="15"/>
       <c r="AB366" s="15"/>
     </row>
-    <row r="367" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="367" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F367" s="15"/>
       <c r="G367" s="15"/>
       <c r="H367" s="15"/>
@@ -10878,7 +10879,7 @@
       <c r="AA367" s="15"/>
       <c r="AB367" s="15"/>
     </row>
-    <row r="368" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="368" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F368" s="15"/>
       <c r="G368" s="15"/>
       <c r="H368" s="15"/>
@@ -10899,7 +10900,7 @@
       <c r="AA368" s="15"/>
       <c r="AB368" s="15"/>
     </row>
-    <row r="369" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="369" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F369" s="15"/>
       <c r="G369" s="15"/>
       <c r="H369" s="15"/>
@@ -10920,7 +10921,7 @@
       <c r="AA369" s="15"/>
       <c r="AB369" s="15"/>
     </row>
-    <row r="370" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="370" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F370" s="15"/>
       <c r="G370" s="15"/>
       <c r="H370" s="15"/>
@@ -10941,7 +10942,7 @@
       <c r="AA370" s="15"/>
       <c r="AB370" s="15"/>
     </row>
-    <row r="371" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="371" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F371" s="15"/>
       <c r="G371" s="15"/>
       <c r="H371" s="15"/>
@@ -10962,7 +10963,7 @@
       <c r="AA371" s="15"/>
       <c r="AB371" s="15"/>
     </row>
-    <row r="372" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="372" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F372" s="15"/>
       <c r="G372" s="15"/>
       <c r="H372" s="15"/>
@@ -10983,7 +10984,7 @@
       <c r="AA372" s="15"/>
       <c r="AB372" s="15"/>
     </row>
-    <row r="373" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="373" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F373" s="15"/>
       <c r="G373" s="15"/>
       <c r="H373" s="15"/>
@@ -11004,7 +11005,7 @@
       <c r="AA373" s="15"/>
       <c r="AB373" s="15"/>
     </row>
-    <row r="374" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="374" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F374" s="15"/>
       <c r="G374" s="15"/>
       <c r="H374" s="15"/>
@@ -11025,7 +11026,7 @@
       <c r="AA374" s="15"/>
       <c r="AB374" s="15"/>
     </row>
-    <row r="375" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="375" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F375" s="15"/>
       <c r="G375" s="15"/>
       <c r="H375" s="15"/>
@@ -11046,7 +11047,7 @@
       <c r="AA375" s="15"/>
       <c r="AB375" s="15"/>
     </row>
-    <row r="376" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="376" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F376" s="15"/>
       <c r="G376" s="15"/>
       <c r="H376" s="15"/>
@@ -11067,7 +11068,7 @@
       <c r="AA376" s="15"/>
       <c r="AB376" s="15"/>
     </row>
-    <row r="377" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="377" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F377" s="15"/>
       <c r="G377" s="15"/>
       <c r="H377" s="15"/>
@@ -11088,7 +11089,7 @@
       <c r="AA377" s="15"/>
       <c r="AB377" s="15"/>
     </row>
-    <row r="378" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="378" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F378" s="15"/>
       <c r="G378" s="15"/>
       <c r="H378" s="15"/>
@@ -11109,7 +11110,7 @@
       <c r="AA378" s="15"/>
       <c r="AB378" s="15"/>
     </row>
-    <row r="379" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="379" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F379" s="15"/>
       <c r="G379" s="15"/>
       <c r="H379" s="15"/>
@@ -11130,7 +11131,7 @@
       <c r="AA379" s="15"/>
       <c r="AB379" s="15"/>
     </row>
-    <row r="380" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="380" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F380" s="15"/>
       <c r="G380" s="15"/>
       <c r="H380" s="15"/>
@@ -11151,7 +11152,7 @@
       <c r="AA380" s="15"/>
       <c r="AB380" s="15"/>
     </row>
-    <row r="381" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="381" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F381" s="15"/>
       <c r="G381" s="15"/>
       <c r="H381" s="15"/>
@@ -11172,7 +11173,7 @@
       <c r="AA381" s="15"/>
       <c r="AB381" s="15"/>
     </row>
-    <row r="382" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="382" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F382" s="15"/>
       <c r="G382" s="15"/>
       <c r="H382" s="15"/>
@@ -11193,7 +11194,7 @@
       <c r="AA382" s="15"/>
       <c r="AB382" s="15"/>
     </row>
-    <row r="383" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="383" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F383" s="15"/>
       <c r="G383" s="15"/>
       <c r="H383" s="15"/>
@@ -11214,7 +11215,7 @@
       <c r="AA383" s="15"/>
       <c r="AB383" s="15"/>
     </row>
-    <row r="384" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="384" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F384" s="15"/>
       <c r="G384" s="15"/>
       <c r="H384" s="15"/>
@@ -11235,7 +11236,7 @@
       <c r="AA384" s="15"/>
       <c r="AB384" s="15"/>
     </row>
-    <row r="385" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="385" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F385" s="15"/>
       <c r="G385" s="15"/>
       <c r="H385" s="15"/>
@@ -11256,7 +11257,7 @@
       <c r="AA385" s="15"/>
       <c r="AB385" s="15"/>
     </row>
-    <row r="386" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="386" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F386" s="15"/>
       <c r="G386" s="15"/>
       <c r="H386" s="15"/>
@@ -11277,7 +11278,7 @@
       <c r="AA386" s="15"/>
       <c r="AB386" s="15"/>
     </row>
-    <row r="387" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="387" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F387" s="15"/>
       <c r="G387" s="15"/>
       <c r="H387" s="15"/>
@@ -11298,7 +11299,7 @@
       <c r="AA387" s="15"/>
       <c r="AB387" s="15"/>
     </row>
-    <row r="388" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="388" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F388" s="15"/>
       <c r="G388" s="15"/>
       <c r="H388" s="15"/>
@@ -11319,7 +11320,7 @@
       <c r="AA388" s="15"/>
       <c r="AB388" s="15"/>
     </row>
-    <row r="389" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="389" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F389" s="15"/>
       <c r="G389" s="15"/>
       <c r="H389" s="15"/>
@@ -11340,7 +11341,7 @@
       <c r="AA389" s="15"/>
       <c r="AB389" s="15"/>
     </row>
-    <row r="390" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="390" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F390" s="15"/>
       <c r="G390" s="15"/>
       <c r="H390" s="15"/>
@@ -11361,7 +11362,7 @@
       <c r="AA390" s="15"/>
       <c r="AB390" s="15"/>
     </row>
-    <row r="391" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="391" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F391" s="15"/>
       <c r="G391" s="15"/>
       <c r="H391" s="15"/>
@@ -11382,7 +11383,7 @@
       <c r="AA391" s="15"/>
       <c r="AB391" s="15"/>
     </row>
-    <row r="392" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="392" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F392" s="15"/>
       <c r="G392" s="15"/>
       <c r="H392" s="15"/>
@@ -11403,7 +11404,7 @@
       <c r="AA392" s="15"/>
       <c r="AB392" s="15"/>
     </row>
-    <row r="393" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="393" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F393" s="15"/>
       <c r="G393" s="15"/>
       <c r="H393" s="15"/>
@@ -11424,7 +11425,7 @@
       <c r="AA393" s="15"/>
       <c r="AB393" s="15"/>
     </row>
-    <row r="394" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="394" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F394" s="15"/>
       <c r="G394" s="15"/>
       <c r="H394" s="15"/>
@@ -11445,7 +11446,7 @@
       <c r="AA394" s="15"/>
       <c r="AB394" s="15"/>
     </row>
-    <row r="395" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="395" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F395" s="15"/>
       <c r="G395" s="15"/>
       <c r="H395" s="15"/>
@@ -11466,7 +11467,7 @@
       <c r="AA395" s="15"/>
       <c r="AB395" s="15"/>
     </row>
-    <row r="396" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="396" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F396" s="15"/>
       <c r="G396" s="15"/>
       <c r="H396" s="15"/>
@@ -11487,7 +11488,7 @@
       <c r="AA396" s="15"/>
       <c r="AB396" s="15"/>
     </row>
-    <row r="397" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="397" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F397" s="15"/>
       <c r="G397" s="15"/>
       <c r="H397" s="15"/>
@@ -11508,7 +11509,7 @@
       <c r="AA397" s="15"/>
       <c r="AB397" s="15"/>
     </row>
-    <row r="398" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="398" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F398" s="15"/>
       <c r="G398" s="15"/>
       <c r="H398" s="15"/>
@@ -11529,7 +11530,7 @@
       <c r="AA398" s="15"/>
       <c r="AB398" s="15"/>
     </row>
-    <row r="399" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="399" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F399" s="15"/>
       <c r="G399" s="15"/>
       <c r="H399" s="15"/>
@@ -11550,7 +11551,7 @@
       <c r="AA399" s="15"/>
       <c r="AB399" s="15"/>
     </row>
-    <row r="400" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="400" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F400" s="15"/>
       <c r="G400" s="15"/>
       <c r="H400" s="15"/>
@@ -11571,7 +11572,7 @@
       <c r="AA400" s="15"/>
       <c r="AB400" s="15"/>
     </row>
-    <row r="401" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="401" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F401" s="15"/>
       <c r="G401" s="15"/>
       <c r="H401" s="15"/>
@@ -11592,7 +11593,7 @@
       <c r="AA401" s="15"/>
       <c r="AB401" s="15"/>
     </row>
-    <row r="402" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="402" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F402" s="15"/>
       <c r="G402" s="15"/>
       <c r="H402" s="15"/>
@@ -11613,7 +11614,7 @@
       <c r="AA402" s="15"/>
       <c r="AB402" s="15"/>
     </row>
-    <row r="403" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="403" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F403" s="15"/>
       <c r="G403" s="15"/>
       <c r="H403" s="15"/>
@@ -11634,7 +11635,7 @@
       <c r="AA403" s="15"/>
       <c r="AB403" s="15"/>
     </row>
-    <row r="404" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="404" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F404" s="15"/>
       <c r="G404" s="15"/>
       <c r="H404" s="15"/>
@@ -11655,7 +11656,7 @@
       <c r="AA404" s="15"/>
       <c r="AB404" s="15"/>
     </row>
-    <row r="405" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="405" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F405" s="15"/>
       <c r="G405" s="15"/>
       <c r="H405" s="15"/>
@@ -11676,7 +11677,7 @@
       <c r="AA405" s="15"/>
       <c r="AB405" s="15"/>
     </row>
-    <row r="406" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="406" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F406" s="15"/>
       <c r="G406" s="15"/>
       <c r="H406" s="15"/>
@@ -11697,7 +11698,7 @@
       <c r="AA406" s="15"/>
       <c r="AB406" s="15"/>
     </row>
-    <row r="407" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="407" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F407" s="15"/>
       <c r="G407" s="15"/>
       <c r="H407" s="15"/>
@@ -11718,7 +11719,7 @@
       <c r="AA407" s="15"/>
       <c r="AB407" s="15"/>
     </row>
-    <row r="408" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="408" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F408" s="15"/>
       <c r="G408" s="15"/>
       <c r="H408" s="15"/>
@@ -11739,7 +11740,7 @@
       <c r="AA408" s="15"/>
       <c r="AB408" s="15"/>
     </row>
-    <row r="409" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="409" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F409" s="15"/>
       <c r="G409" s="15"/>
       <c r="H409" s="15"/>
@@ -11760,7 +11761,7 @@
       <c r="AA409" s="15"/>
       <c r="AB409" s="15"/>
     </row>
-    <row r="410" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="410" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F410" s="15"/>
       <c r="G410" s="15"/>
       <c r="H410" s="15"/>
@@ -11781,7 +11782,7 @@
       <c r="AA410" s="15"/>
       <c r="AB410" s="15"/>
     </row>
-    <row r="411" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="411" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F411" s="15"/>
       <c r="G411" s="15"/>
       <c r="H411" s="15"/>
@@ -11802,7 +11803,7 @@
       <c r="AA411" s="15"/>
       <c r="AB411" s="15"/>
     </row>
-    <row r="412" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="412" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F412" s="15"/>
       <c r="G412" s="15"/>
       <c r="H412" s="15"/>
@@ -11823,7 +11824,7 @@
       <c r="AA412" s="15"/>
       <c r="AB412" s="15"/>
     </row>
-    <row r="413" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="413" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F413" s="15"/>
       <c r="G413" s="15"/>
       <c r="H413" s="15"/>
@@ -11844,7 +11845,7 @@
       <c r="AA413" s="15"/>
       <c r="AB413" s="15"/>
     </row>
-    <row r="414" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="414" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F414" s="15"/>
       <c r="G414" s="15"/>
       <c r="H414" s="15"/>
@@ -11865,7 +11866,7 @@
       <c r="AA414" s="15"/>
       <c r="AB414" s="15"/>
     </row>
-    <row r="415" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="415" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F415" s="15"/>
       <c r="G415" s="15"/>
       <c r="H415" s="15"/>
@@ -11886,7 +11887,7 @@
       <c r="AA415" s="15"/>
       <c r="AB415" s="15"/>
     </row>
-    <row r="416" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="416" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F416" s="15"/>
       <c r="G416" s="15"/>
       <c r="H416" s="15"/>
@@ -11907,7 +11908,7 @@
       <c r="AA416" s="15"/>
       <c r="AB416" s="15"/>
     </row>
-    <row r="417" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="417" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F417" s="15"/>
       <c r="G417" s="15"/>
       <c r="H417" s="15"/>
@@ -11928,7 +11929,7 @@
       <c r="AA417" s="15"/>
       <c r="AB417" s="15"/>
     </row>
-    <row r="418" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="418" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F418" s="15"/>
       <c r="G418" s="15"/>
       <c r="H418" s="15"/>
@@ -11949,7 +11950,7 @@
       <c r="AA418" s="15"/>
       <c r="AB418" s="15"/>
     </row>
-    <row r="419" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="419" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F419" s="15"/>
       <c r="G419" s="15"/>
       <c r="H419" s="15"/>
@@ -11970,7 +11971,7 @@
       <c r="AA419" s="15"/>
       <c r="AB419" s="15"/>
     </row>
-    <row r="420" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="420" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F420" s="15"/>
       <c r="G420" s="15"/>
       <c r="H420" s="15"/>
@@ -11991,7 +11992,7 @@
       <c r="AA420" s="15"/>
       <c r="AB420" s="15"/>
     </row>
-    <row r="421" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="421" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F421" s="15"/>
       <c r="G421" s="15"/>
       <c r="H421" s="15"/>
@@ -12012,7 +12013,7 @@
       <c r="AA421" s="15"/>
       <c r="AB421" s="15"/>
     </row>
-    <row r="422" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="422" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F422" s="15"/>
       <c r="G422" s="15"/>
       <c r="H422" s="15"/>
@@ -12033,7 +12034,7 @@
       <c r="AA422" s="15"/>
       <c r="AB422" s="15"/>
     </row>
-    <row r="423" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="423" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F423" s="15"/>
       <c r="G423" s="15"/>
       <c r="H423" s="15"/>
@@ -12054,7 +12055,7 @@
       <c r="AA423" s="15"/>
       <c r="AB423" s="15"/>
     </row>
-    <row r="424" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="424" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F424" s="15"/>
       <c r="G424" s="15"/>
       <c r="H424" s="15"/>
@@ -12075,7 +12076,7 @@
       <c r="AA424" s="15"/>
       <c r="AB424" s="15"/>
     </row>
-    <row r="425" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="425" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F425" s="15"/>
       <c r="G425" s="15"/>
       <c r="H425" s="15"/>
@@ -12096,7 +12097,7 @@
       <c r="AA425" s="15"/>
       <c r="AB425" s="15"/>
     </row>
-    <row r="426" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="426" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F426" s="15"/>
       <c r="G426" s="15"/>
       <c r="H426" s="15"/>
@@ -12117,7 +12118,7 @@
       <c r="AA426" s="15"/>
       <c r="AB426" s="15"/>
     </row>
-    <row r="427" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="427" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F427" s="15"/>
       <c r="G427" s="15"/>
       <c r="H427" s="15"/>
@@ -12138,7 +12139,7 @@
       <c r="AA427" s="15"/>
       <c r="AB427" s="15"/>
     </row>
-    <row r="428" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="428" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F428" s="15"/>
       <c r="G428" s="15"/>
       <c r="H428" s="15"/>
@@ -12159,7 +12160,7 @@
       <c r="AA428" s="15"/>
       <c r="AB428" s="15"/>
     </row>
-    <row r="429" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="429" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F429" s="15"/>
       <c r="G429" s="15"/>
       <c r="H429" s="15"/>
@@ -12180,7 +12181,7 @@
       <c r="AA429" s="15"/>
       <c r="AB429" s="15"/>
     </row>
-    <row r="430" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="430" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F430" s="15"/>
       <c r="G430" s="15"/>
       <c r="H430" s="15"/>
@@ -12201,7 +12202,7 @@
       <c r="AA430" s="15"/>
       <c r="AB430" s="15"/>
     </row>
-    <row r="431" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="431" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F431" s="15"/>
       <c r="G431" s="15"/>
       <c r="H431" s="15"/>
@@ -12222,7 +12223,7 @@
       <c r="AA431" s="15"/>
       <c r="AB431" s="15"/>
     </row>
-    <row r="432" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="432" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F432" s="15"/>
       <c r="G432" s="15"/>
       <c r="H432" s="15"/>
@@ -12243,7 +12244,7 @@
       <c r="AA432" s="15"/>
       <c r="AB432" s="15"/>
     </row>
-    <row r="433" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="433" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F433" s="15"/>
       <c r="G433" s="15"/>
       <c r="H433" s="15"/>
@@ -12264,7 +12265,7 @@
       <c r="AA433" s="15"/>
       <c r="AB433" s="15"/>
     </row>
-    <row r="434" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="434" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F434" s="15"/>
       <c r="G434" s="15"/>
       <c r="H434" s="15"/>
@@ -12285,7 +12286,7 @@
       <c r="AA434" s="15"/>
       <c r="AB434" s="15"/>
     </row>
-    <row r="435" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="435" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F435" s="15"/>
       <c r="G435" s="15"/>
       <c r="H435" s="15"/>
@@ -12306,7 +12307,7 @@
       <c r="AA435" s="15"/>
       <c r="AB435" s="15"/>
     </row>
-    <row r="436" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="436" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F436" s="15"/>
       <c r="G436" s="15"/>
       <c r="H436" s="15"/>
@@ -12327,7 +12328,7 @@
       <c r="AA436" s="15"/>
       <c r="AB436" s="15"/>
     </row>
-    <row r="437" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="437" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F437" s="15"/>
       <c r="G437" s="15"/>
       <c r="H437" s="15"/>
@@ -12348,7 +12349,7 @@
       <c r="AA437" s="15"/>
       <c r="AB437" s="15"/>
     </row>
-    <row r="438" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="438" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F438" s="15"/>
       <c r="G438" s="15"/>
       <c r="H438" s="15"/>
@@ -12369,7 +12370,7 @@
       <c r="AA438" s="15"/>
       <c r="AB438" s="15"/>
     </row>
-    <row r="439" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="439" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F439" s="15"/>
       <c r="G439" s="15"/>
       <c r="H439" s="15"/>
@@ -12390,7 +12391,7 @@
       <c r="AA439" s="15"/>
       <c r="AB439" s="15"/>
     </row>
-    <row r="440" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="440" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F440" s="15"/>
       <c r="G440" s="15"/>
       <c r="H440" s="15"/>
@@ -12411,7 +12412,7 @@
       <c r="AA440" s="15"/>
       <c r="AB440" s="15"/>
     </row>
-    <row r="441" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="441" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F441" s="15"/>
       <c r="G441" s="15"/>
       <c r="H441" s="15"/>
@@ -12432,7 +12433,7 @@
       <c r="AA441" s="15"/>
       <c r="AB441" s="15"/>
     </row>
-    <row r="442" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="442" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F442" s="15"/>
       <c r="G442" s="15"/>
       <c r="H442" s="15"/>
@@ -12453,7 +12454,7 @@
       <c r="AA442" s="15"/>
       <c r="AB442" s="15"/>
     </row>
-    <row r="443" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="443" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F443" s="15"/>
       <c r="G443" s="15"/>
       <c r="H443" s="15"/>
@@ -12474,7 +12475,7 @@
       <c r="AA443" s="15"/>
       <c r="AB443" s="15"/>
     </row>
-    <row r="444" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="444" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F444" s="15"/>
       <c r="G444" s="15"/>
       <c r="H444" s="15"/>
@@ -12495,7 +12496,7 @@
       <c r="AA444" s="15"/>
       <c r="AB444" s="15"/>
     </row>
-    <row r="445" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="445" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F445" s="15"/>
       <c r="G445" s="15"/>
       <c r="H445" s="15"/>
@@ -12516,7 +12517,7 @@
       <c r="AA445" s="15"/>
       <c r="AB445" s="15"/>
     </row>
-    <row r="446" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="446" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F446" s="15"/>
       <c r="G446" s="15"/>
       <c r="H446" s="15"/>
@@ -12537,7 +12538,7 @@
       <c r="AA446" s="15"/>
       <c r="AB446" s="15"/>
     </row>
-    <row r="447" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="447" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F447" s="15"/>
       <c r="G447" s="15"/>
       <c r="H447" s="15"/>
@@ -12558,7 +12559,7 @@
       <c r="AA447" s="15"/>
       <c r="AB447" s="15"/>
     </row>
-    <row r="448" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="448" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F448" s="15"/>
       <c r="G448" s="15"/>
       <c r="H448" s="15"/>
@@ -12579,7 +12580,7 @@
       <c r="AA448" s="15"/>
       <c r="AB448" s="15"/>
     </row>
-    <row r="449" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="449" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F449" s="15"/>
       <c r="G449" s="15"/>
       <c r="H449" s="15"/>
@@ -12600,7 +12601,7 @@
       <c r="AA449" s="15"/>
       <c r="AB449" s="15"/>
     </row>
-    <row r="450" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="450" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F450" s="15"/>
       <c r="G450" s="15"/>
       <c r="H450" s="15"/>
@@ -12621,7 +12622,7 @@
       <c r="AA450" s="15"/>
       <c r="AB450" s="15"/>
     </row>
-    <row r="451" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="451" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F451" s="15"/>
       <c r="G451" s="15"/>
       <c r="H451" s="15"/>
@@ -12642,7 +12643,7 @@
       <c r="AA451" s="15"/>
       <c r="AB451" s="15"/>
     </row>
-    <row r="452" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="452" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F452" s="15"/>
       <c r="G452" s="15"/>
       <c r="H452" s="15"/>
@@ -12663,7 +12664,7 @@
       <c r="AA452" s="15"/>
       <c r="AB452" s="15"/>
     </row>
-    <row r="453" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="453" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F453" s="15"/>
       <c r="G453" s="15"/>
       <c r="H453" s="15"/>
@@ -12684,7 +12685,7 @@
       <c r="AA453" s="15"/>
       <c r="AB453" s="15"/>
     </row>
-    <row r="454" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="454" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F454" s="15"/>
       <c r="G454" s="15"/>
       <c r="H454" s="15"/>
@@ -12705,7 +12706,7 @@
       <c r="AA454" s="15"/>
       <c r="AB454" s="15"/>
     </row>
-    <row r="455" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="455" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F455" s="15"/>
       <c r="G455" s="15"/>
       <c r="H455" s="15"/>
@@ -12726,7 +12727,7 @@
       <c r="AA455" s="15"/>
       <c r="AB455" s="15"/>
     </row>
-    <row r="456" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="456" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F456" s="15"/>
       <c r="G456" s="15"/>
       <c r="H456" s="15"/>
@@ -12747,7 +12748,7 @@
       <c r="AA456" s="15"/>
       <c r="AB456" s="15"/>
     </row>
-    <row r="457" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="457" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F457" s="15"/>
       <c r="G457" s="15"/>
       <c r="H457" s="15"/>
@@ -12768,7 +12769,7 @@
       <c r="AA457" s="15"/>
       <c r="AB457" s="15"/>
     </row>
-    <row r="458" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="458" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F458" s="15"/>
       <c r="G458" s="15"/>
       <c r="H458" s="15"/>
@@ -12789,7 +12790,7 @@
       <c r="AA458" s="15"/>
       <c r="AB458" s="15"/>
     </row>
-    <row r="459" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="459" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F459" s="15"/>
       <c r="G459" s="15"/>
       <c r="H459" s="15"/>
@@ -12810,7 +12811,7 @@
       <c r="AA459" s="15"/>
       <c r="AB459" s="15"/>
     </row>
-    <row r="460" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="460" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F460" s="15"/>
       <c r="G460" s="15"/>
       <c r="H460" s="15"/>
@@ -12831,7 +12832,7 @@
       <c r="AA460" s="15"/>
       <c r="AB460" s="15"/>
     </row>
-    <row r="461" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="461" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F461" s="15"/>
       <c r="G461" s="15"/>
       <c r="H461" s="15"/>
@@ -12852,7 +12853,7 @@
       <c r="AA461" s="15"/>
       <c r="AB461" s="15"/>
     </row>
-    <row r="462" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="462" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F462" s="15"/>
       <c r="G462" s="15"/>
       <c r="H462" s="15"/>
@@ -12873,7 +12874,7 @@
       <c r="AA462" s="15"/>
       <c r="AB462" s="15"/>
     </row>
-    <row r="463" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="463" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F463" s="15"/>
       <c r="G463" s="15"/>
       <c r="H463" s="15"/>
@@ -12894,7 +12895,7 @@
       <c r="AA463" s="15"/>
       <c r="AB463" s="15"/>
     </row>
-    <row r="464" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="464" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F464" s="15"/>
       <c r="G464" s="15"/>
       <c r="H464" s="15"/>
@@ -12915,7 +12916,7 @@
       <c r="AA464" s="15"/>
       <c r="AB464" s="15"/>
     </row>
-    <row r="465" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="465" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F465" s="15"/>
       <c r="G465" s="15"/>
       <c r="H465" s="15"/>
@@ -12936,7 +12937,7 @@
       <c r="AA465" s="15"/>
       <c r="AB465" s="15"/>
     </row>
-    <row r="466" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="466" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F466" s="15"/>
       <c r="G466" s="15"/>
       <c r="H466" s="15"/>
@@ -12957,7 +12958,7 @@
       <c r="AA466" s="15"/>
       <c r="AB466" s="15"/>
     </row>
-    <row r="467" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="467" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F467" s="15"/>
       <c r="G467" s="15"/>
       <c r="H467" s="15"/>
@@ -12978,7 +12979,7 @@
       <c r="AA467" s="15"/>
       <c r="AB467" s="15"/>
     </row>
-    <row r="468" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="468" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F468" s="15"/>
       <c r="G468" s="15"/>
       <c r="H468" s="15"/>
@@ -12999,7 +13000,7 @@
       <c r="AA468" s="15"/>
       <c r="AB468" s="15"/>
     </row>
-    <row r="469" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="469" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F469" s="15"/>
       <c r="G469" s="15"/>
       <c r="H469" s="15"/>
@@ -13020,7 +13021,7 @@
       <c r="AA469" s="15"/>
       <c r="AB469" s="15"/>
     </row>
-    <row r="470" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="470" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F470" s="15"/>
       <c r="G470" s="15"/>
       <c r="H470" s="15"/>
@@ -13041,7 +13042,7 @@
       <c r="AA470" s="15"/>
       <c r="AB470" s="15"/>
     </row>
-    <row r="471" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="471" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F471" s="15"/>
       <c r="G471" s="15"/>
       <c r="H471" s="15"/>
@@ -13062,7 +13063,7 @@
       <c r="AA471" s="15"/>
       <c r="AB471" s="15"/>
     </row>
-    <row r="472" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="472" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F472" s="15"/>
       <c r="G472" s="15"/>
       <c r="H472" s="15"/>
@@ -13083,7 +13084,7 @@
       <c r="AA472" s="15"/>
       <c r="AB472" s="15"/>
     </row>
-    <row r="473" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="473" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F473" s="15"/>
       <c r="G473" s="15"/>
       <c r="H473" s="15"/>
@@ -13104,7 +13105,7 @@
       <c r="AA473" s="15"/>
       <c r="AB473" s="15"/>
     </row>
-    <row r="474" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="474" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F474" s="15"/>
       <c r="G474" s="15"/>
       <c r="H474" s="15"/>
@@ -13125,7 +13126,7 @@
       <c r="AA474" s="15"/>
       <c r="AB474" s="15"/>
     </row>
-    <row r="475" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="475" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F475" s="15"/>
       <c r="G475" s="15"/>
       <c r="H475" s="15"/>
@@ -13146,7 +13147,7 @@
       <c r="AA475" s="15"/>
       <c r="AB475" s="15"/>
     </row>
-    <row r="476" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="476" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F476" s="15"/>
       <c r="G476" s="15"/>
       <c r="H476" s="15"/>
@@ -13167,7 +13168,7 @@
       <c r="AA476" s="15"/>
       <c r="AB476" s="15"/>
     </row>
-    <row r="477" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="477" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F477" s="15"/>
       <c r="G477" s="15"/>
       <c r="H477" s="15"/>
@@ -13188,7 +13189,7 @@
       <c r="AA477" s="15"/>
       <c r="AB477" s="15"/>
     </row>
-    <row r="478" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="478" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F478" s="15"/>
       <c r="G478" s="15"/>
       <c r="H478" s="15"/>
@@ -13209,7 +13210,7 @@
       <c r="AA478" s="15"/>
       <c r="AB478" s="15"/>
     </row>
-    <row r="479" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="479" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F479" s="15"/>
       <c r="G479" s="15"/>
       <c r="H479" s="15"/>
@@ -13230,7 +13231,7 @@
       <c r="AA479" s="15"/>
       <c r="AB479" s="15"/>
     </row>
-    <row r="480" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="480" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F480" s="15"/>
       <c r="G480" s="15"/>
       <c r="H480" s="15"/>
@@ -13251,7 +13252,7 @@
       <c r="AA480" s="15"/>
       <c r="AB480" s="15"/>
     </row>
-    <row r="481" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="481" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F481" s="15"/>
       <c r="G481" s="15"/>
       <c r="H481" s="15"/>
@@ -13272,7 +13273,7 @@
       <c r="AA481" s="15"/>
       <c r="AB481" s="15"/>
     </row>
-    <row r="482" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="482" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F482" s="15"/>
       <c r="G482" s="15"/>
       <c r="H482" s="15"/>
@@ -13293,7 +13294,7 @@
       <c r="AA482" s="15"/>
       <c r="AB482" s="15"/>
     </row>
-    <row r="483" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="483" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F483" s="15"/>
       <c r="G483" s="15"/>
       <c r="H483" s="15"/>
@@ -13314,7 +13315,7 @@
       <c r="AA483" s="15"/>
       <c r="AB483" s="15"/>
     </row>
-    <row r="484" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="484" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F484" s="15"/>
       <c r="G484" s="15"/>
       <c r="H484" s="15"/>
@@ -13335,7 +13336,7 @@
       <c r="AA484" s="15"/>
       <c r="AB484" s="15"/>
     </row>
-    <row r="485" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="485" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F485" s="15"/>
       <c r="G485" s="15"/>
       <c r="H485" s="15"/>
@@ -13356,7 +13357,7 @@
       <c r="AA485" s="15"/>
       <c r="AB485" s="15"/>
     </row>
-    <row r="486" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="486" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F486" s="15"/>
       <c r="G486" s="15"/>
       <c r="H486" s="15"/>
@@ -13377,7 +13378,7 @@
       <c r="AA486" s="15"/>
       <c r="AB486" s="15"/>
     </row>
-    <row r="487" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="487" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F487" s="15"/>
       <c r="G487" s="15"/>
       <c r="H487" s="15"/>
@@ -13398,7 +13399,7 @@
       <c r="AA487" s="15"/>
       <c r="AB487" s="15"/>
     </row>
-    <row r="488" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="488" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F488" s="15"/>
       <c r="G488" s="15"/>
       <c r="H488" s="15"/>
@@ -13419,7 +13420,7 @@
       <c r="AA488" s="15"/>
       <c r="AB488" s="15"/>
     </row>
-    <row r="489" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="489" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F489" s="15"/>
       <c r="G489" s="15"/>
       <c r="H489" s="15"/>
@@ -13440,7 +13441,7 @@
       <c r="AA489" s="15"/>
       <c r="AB489" s="15"/>
     </row>
-    <row r="490" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="490" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F490" s="15"/>
       <c r="G490" s="15"/>
       <c r="H490" s="15"/>
@@ -13461,7 +13462,7 @@
       <c r="AA490" s="15"/>
       <c r="AB490" s="15"/>
     </row>
-    <row r="491" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="491" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F491" s="15"/>
       <c r="G491" s="15"/>
       <c r="H491" s="15"/>
@@ -13482,7 +13483,7 @@
       <c r="AA491" s="15"/>
       <c r="AB491" s="15"/>
     </row>
-    <row r="492" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="492" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F492" s="15"/>
       <c r="G492" s="15"/>
       <c r="H492" s="15"/>
@@ -13503,7 +13504,7 @@
       <c r="AA492" s="15"/>
       <c r="AB492" s="15"/>
     </row>
-    <row r="493" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="493" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F493" s="15"/>
       <c r="G493" s="15"/>
       <c r="H493" s="15"/>
@@ -13524,7 +13525,7 @@
       <c r="AA493" s="15"/>
       <c r="AB493" s="15"/>
     </row>
-    <row r="494" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="494" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F494" s="15"/>
       <c r="G494" s="15"/>
       <c r="H494" s="15"/>
@@ -13545,7 +13546,7 @@
       <c r="AA494" s="15"/>
       <c r="AB494" s="15"/>
     </row>
-    <row r="495" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="495" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F495" s="15"/>
       <c r="G495" s="15"/>
       <c r="H495" s="15"/>
@@ -13566,7 +13567,7 @@
       <c r="AA495" s="15"/>
       <c r="AB495" s="15"/>
     </row>
-    <row r="496" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="496" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F496" s="15"/>
       <c r="G496" s="15"/>
       <c r="H496" s="15"/>
@@ -13587,7 +13588,7 @@
       <c r="AA496" s="15"/>
       <c r="AB496" s="15"/>
     </row>
-    <row r="497" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="497" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F497" s="15"/>
       <c r="G497" s="15"/>
       <c r="H497" s="15"/>
@@ -13608,7 +13609,7 @@
       <c r="AA497" s="15"/>
       <c r="AB497" s="15"/>
     </row>
-    <row r="498" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="498" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F498" s="15"/>
       <c r="G498" s="15"/>
       <c r="H498" s="15"/>
@@ -13629,7 +13630,7 @@
       <c r="AA498" s="15"/>
       <c r="AB498" s="15"/>
     </row>
-    <row r="499" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="499" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F499" s="15"/>
       <c r="G499" s="15"/>
       <c r="H499" s="15"/>
@@ -13650,7 +13651,7 @@
       <c r="AA499" s="15"/>
       <c r="AB499" s="15"/>
     </row>
-    <row r="500" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="500" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F500" s="15"/>
       <c r="G500" s="15"/>
       <c r="H500" s="15"/>
@@ -13671,7 +13672,7 @@
       <c r="AA500" s="15"/>
       <c r="AB500" s="15"/>
     </row>
-    <row r="501" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="501" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F501" s="15"/>
       <c r="G501" s="15"/>
       <c r="H501" s="15"/>
@@ -13692,7 +13693,7 @@
       <c r="AA501" s="15"/>
       <c r="AB501" s="15"/>
     </row>
-    <row r="502" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="502" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F502" s="15"/>
       <c r="G502" s="15"/>
       <c r="H502" s="15"/>
@@ -13713,7 +13714,7 @@
       <c r="AA502" s="15"/>
       <c r="AB502" s="15"/>
     </row>
-    <row r="503" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="503" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F503" s="15"/>
       <c r="G503" s="15"/>
       <c r="H503" s="15"/>
@@ -13734,7 +13735,7 @@
       <c r="AA503" s="15"/>
       <c r="AB503" s="15"/>
     </row>
-    <row r="504" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="504" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F504" s="15"/>
       <c r="G504" s="15"/>
       <c r="H504" s="15"/>
@@ -13755,7 +13756,7 @@
       <c r="AA504" s="15"/>
       <c r="AB504" s="15"/>
     </row>
-    <row r="505" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="505" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F505" s="15"/>
       <c r="G505" s="15"/>
       <c r="H505" s="15"/>
@@ -13776,7 +13777,7 @@
       <c r="AA505" s="15"/>
       <c r="AB505" s="15"/>
     </row>
-    <row r="506" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="506" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F506" s="15"/>
       <c r="G506" s="15"/>
       <c r="H506" s="15"/>
@@ -13797,7 +13798,7 @@
       <c r="AA506" s="15"/>
       <c r="AB506" s="15"/>
     </row>
-    <row r="507" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="507" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F507" s="15"/>
       <c r="G507" s="15"/>
       <c r="H507" s="15"/>
@@ -13818,7 +13819,7 @@
       <c r="AA507" s="15"/>
       <c r="AB507" s="15"/>
     </row>
-    <row r="508" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="508" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F508" s="15"/>
       <c r="G508" s="15"/>
       <c r="H508" s="15"/>
@@ -13839,7 +13840,7 @@
       <c r="AA508" s="15"/>
       <c r="AB508" s="15"/>
     </row>
-    <row r="509" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="509" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F509" s="15"/>
       <c r="G509" s="15"/>
       <c r="H509" s="15"/>
@@ -13860,7 +13861,7 @@
       <c r="AA509" s="15"/>
       <c r="AB509" s="15"/>
     </row>
-    <row r="510" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="510" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F510" s="15"/>
       <c r="G510" s="15"/>
       <c r="H510" s="15"/>
@@ -13881,7 +13882,7 @@
       <c r="AA510" s="15"/>
       <c r="AB510" s="15"/>
     </row>
-    <row r="511" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="511" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F511" s="15"/>
       <c r="G511" s="15"/>
       <c r="H511" s="15"/>
@@ -13902,7 +13903,7 @@
       <c r="AA511" s="15"/>
       <c r="AB511" s="15"/>
     </row>
-    <row r="512" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="512" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F512" s="15"/>
       <c r="G512" s="15"/>
       <c r="H512" s="15"/>
@@ -13923,7 +13924,7 @@
       <c r="AA512" s="15"/>
       <c r="AB512" s="15"/>
     </row>
-    <row r="513" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="513" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F513" s="15"/>
       <c r="G513" s="15"/>
       <c r="H513" s="15"/>
@@ -13944,7 +13945,7 @@
       <c r="AA513" s="15"/>
       <c r="AB513" s="15"/>
     </row>
-    <row r="514" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="514" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F514" s="15"/>
       <c r="G514" s="15"/>
       <c r="H514" s="15"/>
@@ -13965,7 +13966,7 @@
       <c r="AA514" s="15"/>
       <c r="AB514" s="15"/>
     </row>
-    <row r="515" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="515" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F515" s="15"/>
       <c r="G515" s="15"/>
       <c r="H515" s="15"/>
@@ -13986,7 +13987,7 @@
       <c r="AA515" s="15"/>
       <c r="AB515" s="15"/>
     </row>
-    <row r="516" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="516" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F516" s="15"/>
       <c r="G516" s="15"/>
       <c r="H516" s="15"/>
@@ -14007,7 +14008,7 @@
       <c r="AA516" s="15"/>
       <c r="AB516" s="15"/>
     </row>
-    <row r="517" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="517" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F517" s="15"/>
       <c r="G517" s="15"/>
       <c r="H517" s="15"/>
@@ -14028,7 +14029,7 @@
       <c r="AA517" s="15"/>
       <c r="AB517" s="15"/>
     </row>
-    <row r="518" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="518" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F518" s="15"/>
       <c r="G518" s="15"/>
       <c r="H518" s="15"/>
@@ -14049,7 +14050,7 @@
       <c r="AA518" s="15"/>
       <c r="AB518" s="15"/>
     </row>
-    <row r="519" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="519" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F519" s="15"/>
       <c r="G519" s="15"/>
       <c r="H519" s="15"/>
@@ -14070,7 +14071,7 @@
       <c r="AA519" s="15"/>
       <c r="AB519" s="15"/>
     </row>
-    <row r="520" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="520" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F520" s="15"/>
       <c r="G520" s="15"/>
       <c r="H520" s="15"/>
@@ -14091,7 +14092,7 @@
       <c r="AA520" s="15"/>
       <c r="AB520" s="15"/>
     </row>
-    <row r="521" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="521" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F521" s="15"/>
       <c r="G521" s="15"/>
       <c r="H521" s="15"/>
@@ -14112,7 +14113,7 @@
       <c r="AA521" s="15"/>
       <c r="AB521" s="15"/>
     </row>
-    <row r="522" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="522" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F522" s="15"/>
       <c r="G522" s="15"/>
       <c r="H522" s="15"/>
@@ -14133,7 +14134,7 @@
       <c r="AA522" s="15"/>
       <c r="AB522" s="15"/>
     </row>
-    <row r="523" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="523" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F523" s="15"/>
       <c r="G523" s="15"/>
       <c r="H523" s="15"/>
@@ -14154,7 +14155,7 @@
       <c r="AA523" s="15"/>
       <c r="AB523" s="15"/>
     </row>
-    <row r="524" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="524" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F524" s="15"/>
       <c r="G524" s="15"/>
       <c r="H524" s="15"/>
@@ -14175,7 +14176,7 @@
       <c r="AA524" s="15"/>
       <c r="AB524" s="15"/>
     </row>
-    <row r="525" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="525" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F525" s="15"/>
       <c r="G525" s="15"/>
       <c r="H525" s="15"/>
@@ -14196,7 +14197,7 @@
       <c r="AA525" s="15"/>
       <c r="AB525" s="15"/>
     </row>
-    <row r="526" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="526" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F526" s="15"/>
       <c r="G526" s="15"/>
       <c r="H526" s="15"/>
@@ -14217,7 +14218,7 @@
       <c r="AA526" s="15"/>
       <c r="AB526" s="15"/>
     </row>
-    <row r="527" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="527" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F527" s="15"/>
       <c r="G527" s="15"/>
       <c r="H527" s="15"/>
@@ -14238,7 +14239,7 @@
       <c r="AA527" s="15"/>
       <c r="AB527" s="15"/>
     </row>
-    <row r="528" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="528" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F528" s="15"/>
       <c r="G528" s="15"/>
       <c r="H528" s="15"/>
@@ -14259,7 +14260,7 @@
       <c r="AA528" s="15"/>
       <c r="AB528" s="15"/>
     </row>
-    <row r="529" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="529" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F529" s="15"/>
       <c r="G529" s="15"/>
       <c r="H529" s="15"/>
@@ -14280,7 +14281,7 @@
       <c r="AA529" s="15"/>
       <c r="AB529" s="15"/>
     </row>
-    <row r="530" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="530" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F530" s="15"/>
       <c r="G530" s="15"/>
       <c r="H530" s="15"/>
@@ -14301,7 +14302,7 @@
       <c r="AA530" s="15"/>
       <c r="AB530" s="15"/>
     </row>
-    <row r="531" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="531" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F531" s="15"/>
       <c r="G531" s="15"/>
       <c r="H531" s="15"/>
@@ -14322,7 +14323,7 @@
       <c r="AA531" s="15"/>
       <c r="AB531" s="15"/>
     </row>
-    <row r="532" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="532" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F532" s="15"/>
       <c r="G532" s="15"/>
       <c r="H532" s="15"/>
@@ -14343,7 +14344,7 @@
       <c r="AA532" s="15"/>
       <c r="AB532" s="15"/>
     </row>
-    <row r="533" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="533" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F533" s="15"/>
       <c r="G533" s="15"/>
       <c r="H533" s="15"/>
@@ -14364,7 +14365,7 @@
       <c r="AA533" s="15"/>
       <c r="AB533" s="15"/>
     </row>
-    <row r="534" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="534" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F534" s="15"/>
       <c r="G534" s="15"/>
       <c r="H534" s="15"/>
@@ -14385,7 +14386,7 @@
       <c r="AA534" s="15"/>
       <c r="AB534" s="15"/>
     </row>
-    <row r="535" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="535" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F535" s="15"/>
       <c r="G535" s="15"/>
       <c r="H535" s="15"/>
@@ -14406,7 +14407,7 @@
       <c r="AA535" s="15"/>
       <c r="AB535" s="15"/>
     </row>
-    <row r="536" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="536" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F536" s="15"/>
       <c r="G536" s="15"/>
       <c r="H536" s="15"/>
@@ -14427,7 +14428,7 @@
       <c r="AA536" s="15"/>
       <c r="AB536" s="15"/>
     </row>
-    <row r="537" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="537" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F537" s="15"/>
       <c r="G537" s="15"/>
       <c r="H537" s="15"/>
@@ -14448,7 +14449,7 @@
       <c r="AA537" s="15"/>
       <c r="AB537" s="15"/>
     </row>
-    <row r="538" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="538" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F538" s="15"/>
       <c r="G538" s="15"/>
       <c r="H538" s="15"/>
@@ -14469,7 +14470,7 @@
       <c r="AA538" s="15"/>
       <c r="AB538" s="15"/>
     </row>
-    <row r="539" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="539" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F539" s="15"/>
       <c r="G539" s="15"/>
       <c r="H539" s="15"/>
@@ -14490,7 +14491,7 @@
       <c r="AA539" s="15"/>
       <c r="AB539" s="15"/>
     </row>
-    <row r="540" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="540" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F540" s="15"/>
       <c r="G540" s="15"/>
       <c r="H540" s="15"/>
@@ -14511,7 +14512,7 @@
       <c r="AA540" s="15"/>
       <c r="AB540" s="15"/>
     </row>
-    <row r="541" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="541" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F541" s="15"/>
       <c r="G541" s="15"/>
       <c r="H541" s="15"/>
@@ -14532,7 +14533,7 @@
       <c r="AA541" s="15"/>
       <c r="AB541" s="15"/>
     </row>
-    <row r="542" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="542" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F542" s="15"/>
       <c r="G542" s="15"/>
       <c r="H542" s="15"/>
@@ -14553,7 +14554,7 @@
       <c r="AA542" s="15"/>
       <c r="AB542" s="15"/>
     </row>
-    <row r="543" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="543" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F543" s="15"/>
       <c r="G543" s="15"/>
       <c r="H543" s="15"/>
@@ -14574,7 +14575,7 @@
       <c r="AA543" s="15"/>
       <c r="AB543" s="15"/>
     </row>
-    <row r="544" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="544" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F544" s="15"/>
       <c r="G544" s="15"/>
       <c r="H544" s="15"/>
@@ -14595,7 +14596,7 @@
       <c r="AA544" s="15"/>
       <c r="AB544" s="15"/>
     </row>
-    <row r="545" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="545" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F545" s="15"/>
       <c r="G545" s="15"/>
       <c r="H545" s="15"/>
@@ -14616,7 +14617,7 @@
       <c r="AA545" s="15"/>
       <c r="AB545" s="15"/>
     </row>
-    <row r="546" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="546" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F546" s="15"/>
       <c r="G546" s="15"/>
       <c r="H546" s="15"/>
@@ -14637,7 +14638,7 @@
       <c r="AA546" s="15"/>
       <c r="AB546" s="15"/>
     </row>
-    <row r="547" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="547" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F547" s="15"/>
       <c r="G547" s="15"/>
       <c r="H547" s="15"/>
@@ -14658,7 +14659,7 @@
       <c r="AA547" s="15"/>
       <c r="AB547" s="15"/>
     </row>
-    <row r="548" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="548" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F548" s="15"/>
       <c r="G548" s="15"/>
       <c r="H548" s="15"/>
@@ -14679,7 +14680,7 @@
       <c r="AA548" s="15"/>
       <c r="AB548" s="15"/>
     </row>
-    <row r="549" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="549" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F549" s="15"/>
       <c r="G549" s="15"/>
       <c r="H549" s="15"/>
@@ -14700,7 +14701,7 @@
       <c r="AA549" s="15"/>
       <c r="AB549" s="15"/>
     </row>
-    <row r="550" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="550" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F550" s="15"/>
       <c r="G550" s="15"/>
       <c r="H550" s="15"/>
@@ -14721,7 +14722,7 @@
       <c r="AA550" s="15"/>
       <c r="AB550" s="15"/>
     </row>
-    <row r="551" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="551" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F551" s="15"/>
       <c r="G551" s="15"/>
       <c r="H551" s="15"/>
@@ -14742,7 +14743,7 @@
       <c r="AA551" s="15"/>
       <c r="AB551" s="15"/>
     </row>
-    <row r="552" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="552" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F552" s="15"/>
       <c r="G552" s="15"/>
       <c r="H552" s="15"/>
@@ -14763,7 +14764,7 @@
       <c r="AA552" s="15"/>
       <c r="AB552" s="15"/>
     </row>
-    <row r="553" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="553" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F553" s="15"/>
       <c r="G553" s="15"/>
       <c r="H553" s="15"/>
@@ -14784,7 +14785,7 @@
       <c r="AA553" s="15"/>
       <c r="AB553" s="15"/>
     </row>
-    <row r="554" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="554" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F554" s="15"/>
       <c r="G554" s="15"/>
       <c r="H554" s="15"/>
@@ -14805,7 +14806,7 @@
       <c r="AA554" s="15"/>
       <c r="AB554" s="15"/>
     </row>
-    <row r="555" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="555" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F555" s="15"/>
       <c r="G555" s="15"/>
       <c r="H555" s="15"/>
@@ -14826,7 +14827,7 @@
       <c r="AA555" s="15"/>
       <c r="AB555" s="15"/>
     </row>
-    <row r="556" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="556" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F556" s="15"/>
       <c r="G556" s="15"/>
       <c r="H556" s="15"/>
@@ -14847,7 +14848,7 @@
       <c r="AA556" s="15"/>
       <c r="AB556" s="15"/>
     </row>
-    <row r="557" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="557" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F557" s="15"/>
       <c r="G557" s="15"/>
       <c r="H557" s="15"/>
@@ -14868,7 +14869,7 @@
       <c r="AA557" s="15"/>
       <c r="AB557" s="15"/>
     </row>
-    <row r="558" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="558" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F558" s="15"/>
       <c r="G558" s="15"/>
       <c r="H558" s="15"/>
@@ -14889,7 +14890,7 @@
       <c r="AA558" s="15"/>
       <c r="AB558" s="15"/>
     </row>
-    <row r="559" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="559" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F559" s="15"/>
       <c r="G559" s="15"/>
       <c r="H559" s="15"/>
@@ -14910,7 +14911,7 @@
       <c r="AA559" s="15"/>
       <c r="AB559" s="15"/>
     </row>
-    <row r="560" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="560" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F560" s="15"/>
       <c r="G560" s="15"/>
       <c r="H560" s="15"/>
@@ -14931,7 +14932,7 @@
       <c r="AA560" s="15"/>
       <c r="AB560" s="15"/>
     </row>
-    <row r="561" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="561" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F561" s="15"/>
       <c r="G561" s="15"/>
       <c r="H561" s="15"/>
@@ -14952,7 +14953,7 @@
       <c r="AA561" s="15"/>
       <c r="AB561" s="15"/>
     </row>
-    <row r="562" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="562" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F562" s="15"/>
       <c r="G562" s="15"/>
       <c r="H562" s="15"/>
@@ -14973,7 +14974,7 @@
       <c r="AA562" s="15"/>
       <c r="AB562" s="15"/>
     </row>
-    <row r="563" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="563" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F563" s="15"/>
       <c r="G563" s="15"/>
       <c r="H563" s="15"/>
@@ -14994,7 +14995,7 @@
       <c r="AA563" s="15"/>
       <c r="AB563" s="15"/>
     </row>
-    <row r="564" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="564" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F564" s="15"/>
       <c r="G564" s="15"/>
       <c r="H564" s="15"/>
@@ -15015,7 +15016,7 @@
       <c r="AA564" s="15"/>
       <c r="AB564" s="15"/>
     </row>
-    <row r="565" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="565" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F565" s="15"/>
       <c r="G565" s="15"/>
       <c r="H565" s="15"/>
@@ -15036,7 +15037,7 @@
       <c r="AA565" s="15"/>
       <c r="AB565" s="15"/>
     </row>
-    <row r="566" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="566" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F566" s="15"/>
       <c r="G566" s="15"/>
       <c r="H566" s="15"/>
@@ -15057,7 +15058,7 @@
       <c r="AA566" s="15"/>
       <c r="AB566" s="15"/>
     </row>
-    <row r="567" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="567" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F567" s="15"/>
       <c r="G567" s="15"/>
       <c r="H567" s="15"/>
@@ -15078,7 +15079,7 @@
       <c r="AA567" s="15"/>
       <c r="AB567" s="15"/>
     </row>
-    <row r="568" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="568" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F568" s="15"/>
       <c r="G568" s="15"/>
       <c r="H568" s="15"/>
@@ -15099,7 +15100,7 @@
       <c r="AA568" s="15"/>
       <c r="AB568" s="15"/>
     </row>
-    <row r="569" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="569" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F569" s="15"/>
       <c r="G569" s="15"/>
       <c r="H569" s="15"/>
@@ -15120,7 +15121,7 @@
       <c r="AA569" s="15"/>
       <c r="AB569" s="15"/>
     </row>
-    <row r="570" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="570" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F570" s="15"/>
       <c r="G570" s="15"/>
       <c r="H570" s="15"/>
@@ -15141,7 +15142,7 @@
       <c r="AA570" s="15"/>
       <c r="AB570" s="15"/>
     </row>
-    <row r="571" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="571" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F571" s="15"/>
       <c r="G571" s="15"/>
       <c r="H571" s="15"/>
@@ -15162,7 +15163,7 @@
       <c r="AA571" s="15"/>
       <c r="AB571" s="15"/>
     </row>
-    <row r="572" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="572" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F572" s="15"/>
       <c r="G572" s="15"/>
       <c r="H572" s="15"/>
@@ -15183,7 +15184,7 @@
       <c r="AA572" s="15"/>
       <c r="AB572" s="15"/>
     </row>
-    <row r="573" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="573" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F573" s="15"/>
       <c r="G573" s="15"/>
       <c r="H573" s="15"/>
@@ -15204,7 +15205,7 @@
       <c r="AA573" s="15"/>
       <c r="AB573" s="15"/>
     </row>
-    <row r="574" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="574" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F574" s="15"/>
       <c r="G574" s="15"/>
       <c r="H574" s="15"/>
@@ -15225,7 +15226,7 @@
       <c r="AA574" s="15"/>
       <c r="AB574" s="15"/>
     </row>
-    <row r="575" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="575" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F575" s="15"/>
       <c r="G575" s="15"/>
       <c r="H575" s="15"/>
@@ -15246,7 +15247,7 @@
       <c r="AA575" s="15"/>
       <c r="AB575" s="15"/>
     </row>
-    <row r="576" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="576" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F576" s="15"/>
       <c r="G576" s="15"/>
       <c r="H576" s="15"/>
@@ -15267,7 +15268,7 @@
       <c r="AA576" s="15"/>
       <c r="AB576" s="15"/>
     </row>
-    <row r="577" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="577" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F577" s="15"/>
       <c r="G577" s="15"/>
       <c r="H577" s="15"/>
@@ -15288,7 +15289,7 @@
       <c r="AA577" s="15"/>
       <c r="AB577" s="15"/>
     </row>
-    <row r="578" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="578" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F578" s="15"/>
       <c r="G578" s="15"/>
       <c r="H578" s="15"/>
@@ -15309,7 +15310,7 @@
       <c r="AA578" s="15"/>
       <c r="AB578" s="15"/>
     </row>
-    <row r="579" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="579" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F579" s="15"/>
       <c r="G579" s="15"/>
       <c r="H579" s="15"/>
@@ -15330,7 +15331,7 @@
       <c r="AA579" s="15"/>
       <c r="AB579" s="15"/>
     </row>
-    <row r="580" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="580" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F580" s="15"/>
       <c r="G580" s="15"/>
       <c r="H580" s="15"/>
@@ -15351,7 +15352,7 @@
       <c r="AA580" s="15"/>
       <c r="AB580" s="15"/>
     </row>
-    <row r="581" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="581" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F581" s="15"/>
       <c r="G581" s="15"/>
       <c r="H581" s="15"/>
@@ -15372,7 +15373,7 @@
       <c r="AA581" s="15"/>
       <c r="AB581" s="15"/>
     </row>
-    <row r="582" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="582" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F582" s="15"/>
       <c r="G582" s="15"/>
       <c r="H582" s="15"/>
@@ -15393,7 +15394,7 @@
       <c r="AA582" s="15"/>
       <c r="AB582" s="15"/>
     </row>
-    <row r="583" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="583" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F583" s="15"/>
       <c r="G583" s="15"/>
       <c r="H583" s="15"/>
@@ -15414,7 +15415,7 @@
       <c r="AA583" s="15"/>
       <c r="AB583" s="15"/>
     </row>
-    <row r="584" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="584" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F584" s="15"/>
       <c r="G584" s="15"/>
       <c r="H584" s="15"/>
@@ -15435,7 +15436,7 @@
       <c r="AA584" s="15"/>
       <c r="AB584" s="15"/>
     </row>
-    <row r="585" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="585" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F585" s="15"/>
       <c r="G585" s="15"/>
       <c r="H585" s="15"/>
@@ -15456,7 +15457,7 @@
       <c r="AA585" s="15"/>
       <c r="AB585" s="15"/>
     </row>
-    <row r="586" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="586" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F586" s="15"/>
       <c r="G586" s="15"/>
       <c r="H586" s="15"/>
@@ -15477,7 +15478,7 @@
       <c r="AA586" s="15"/>
       <c r="AB586" s="15"/>
     </row>
-    <row r="587" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="587" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F587" s="15"/>
       <c r="G587" s="15"/>
       <c r="H587" s="15"/>
@@ -15498,7 +15499,7 @@
       <c r="AA587" s="15"/>
       <c r="AB587" s="15"/>
     </row>
-    <row r="588" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="588" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F588" s="15"/>
       <c r="G588" s="15"/>
       <c r="H588" s="15"/>
@@ -15519,7 +15520,7 @@
       <c r="AA588" s="15"/>
       <c r="AB588" s="15"/>
     </row>
-    <row r="589" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="589" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F589" s="15"/>
       <c r="G589" s="15"/>
       <c r="H589" s="15"/>
@@ -15540,7 +15541,7 @@
       <c r="AA589" s="15"/>
       <c r="AB589" s="15"/>
     </row>
-    <row r="590" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="590" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F590" s="15"/>
       <c r="G590" s="15"/>
       <c r="H590" s="15"/>
@@ -15561,7 +15562,7 @@
       <c r="AA590" s="15"/>
       <c r="AB590" s="15"/>
     </row>
-    <row r="591" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="591" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F591" s="15"/>
       <c r="G591" s="15"/>
       <c r="H591" s="15"/>
@@ -15582,7 +15583,7 @@
       <c r="AA591" s="15"/>
       <c r="AB591" s="15"/>
     </row>
-    <row r="592" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="592" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F592" s="15"/>
       <c r="G592" s="15"/>
       <c r="H592" s="15"/>
@@ -15603,7 +15604,7 @@
       <c r="AA592" s="15"/>
       <c r="AB592" s="15"/>
     </row>
-    <row r="593" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="593" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F593" s="15"/>
       <c r="G593" s="15"/>
       <c r="H593" s="15"/>
@@ -15624,7 +15625,7 @@
       <c r="AA593" s="15"/>
       <c r="AB593" s="15"/>
     </row>
-    <row r="594" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="594" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F594" s="15"/>
       <c r="G594" s="15"/>
       <c r="H594" s="15"/>
@@ -15645,7 +15646,7 @@
       <c r="AA594" s="15"/>
       <c r="AB594" s="15"/>
     </row>
-    <row r="595" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="595" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F595" s="15"/>
       <c r="G595" s="15"/>
       <c r="H595" s="15"/>
@@ -15666,7 +15667,7 @@
       <c r="AA595" s="15"/>
       <c r="AB595" s="15"/>
     </row>
-    <row r="596" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="596" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F596" s="15"/>
       <c r="G596" s="15"/>
       <c r="H596" s="15"/>
@@ -15687,7 +15688,7 @@
       <c r="AA596" s="15"/>
       <c r="AB596" s="15"/>
     </row>
-    <row r="597" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="597" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F597" s="15"/>
       <c r="G597" s="15"/>
       <c r="H597" s="15"/>
@@ -15708,7 +15709,7 @@
       <c r="AA597" s="15"/>
       <c r="AB597" s="15"/>
     </row>
-    <row r="598" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="598" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F598" s="15"/>
       <c r="G598" s="15"/>
       <c r="H598" s="15"/>
@@ -15729,7 +15730,7 @@
       <c r="AA598" s="15"/>
       <c r="AB598" s="15"/>
     </row>
-    <row r="599" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="599" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F599" s="15"/>
       <c r="G599" s="15"/>
       <c r="H599" s="15"/>
@@ -15750,7 +15751,7 @@
       <c r="AA599" s="15"/>
       <c r="AB599" s="15"/>
     </row>
-    <row r="600" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="600" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F600" s="15"/>
       <c r="G600" s="15"/>
       <c r="H600" s="15"/>
@@ -15771,7 +15772,7 @@
       <c r="AA600" s="15"/>
       <c r="AB600" s="15"/>
     </row>
-    <row r="601" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="601" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F601" s="15"/>
       <c r="G601" s="15"/>
       <c r="H601" s="15"/>
@@ -15792,7 +15793,7 @@
       <c r="AA601" s="15"/>
       <c r="AB601" s="15"/>
     </row>
-    <row r="602" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="602" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F602" s="15"/>
       <c r="G602" s="15"/>
       <c r="H602" s="15"/>
@@ -15813,7 +15814,7 @@
       <c r="AA602" s="15"/>
       <c r="AB602" s="15"/>
     </row>
-    <row r="603" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="603" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F603" s="15"/>
       <c r="G603" s="15"/>
       <c r="H603" s="15"/>
@@ -15834,7 +15835,7 @@
       <c r="AA603" s="15"/>
       <c r="AB603" s="15"/>
     </row>
-    <row r="604" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="604" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F604" s="15"/>
       <c r="G604" s="15"/>
       <c r="H604" s="15"/>
@@ -15855,7 +15856,7 @@
       <c r="AA604" s="15"/>
       <c r="AB604" s="15"/>
     </row>
-    <row r="605" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="605" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F605" s="15"/>
       <c r="G605" s="15"/>
       <c r="H605" s="15"/>
@@ -15876,7 +15877,7 @@
       <c r="AA605" s="15"/>
       <c r="AB605" s="15"/>
     </row>
-    <row r="606" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="606" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F606" s="15"/>
       <c r="G606" s="15"/>
       <c r="H606" s="15"/>
@@ -15897,7 +15898,7 @@
       <c r="AA606" s="15"/>
       <c r="AB606" s="15"/>
     </row>
-    <row r="607" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="607" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F607" s="15"/>
       <c r="G607" s="15"/>
       <c r="H607" s="15"/>
@@ -15918,7 +15919,7 @@
       <c r="AA607" s="15"/>
       <c r="AB607" s="15"/>
     </row>
-    <row r="608" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="608" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F608" s="15"/>
       <c r="G608" s="15"/>
       <c r="H608" s="15"/>
@@ -15939,7 +15940,7 @@
       <c r="AA608" s="15"/>
       <c r="AB608" s="15"/>
     </row>
-    <row r="609" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="609" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F609" s="15"/>
       <c r="G609" s="15"/>
       <c r="H609" s="15"/>
@@ -15960,7 +15961,7 @@
       <c r="AA609" s="15"/>
       <c r="AB609" s="15"/>
     </row>
-    <row r="610" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="610" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F610" s="15"/>
       <c r="G610" s="15"/>
       <c r="H610" s="15"/>
@@ -15981,7 +15982,7 @@
       <c r="AA610" s="15"/>
       <c r="AB610" s="15"/>
     </row>
-    <row r="611" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="611" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F611" s="15"/>
       <c r="G611" s="15"/>
       <c r="H611" s="15"/>
@@ -16002,7 +16003,7 @@
       <c r="AA611" s="15"/>
       <c r="AB611" s="15"/>
     </row>
-    <row r="612" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="612" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F612" s="15"/>
       <c r="G612" s="15"/>
       <c r="H612" s="15"/>
@@ -16023,7 +16024,7 @@
       <c r="AA612" s="15"/>
       <c r="AB612" s="15"/>
     </row>
-    <row r="613" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="613" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F613" s="15"/>
       <c r="G613" s="15"/>
       <c r="H613" s="15"/>
@@ -16044,7 +16045,7 @@
       <c r="AA613" s="15"/>
       <c r="AB613" s="15"/>
     </row>
-    <row r="614" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="614" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F614" s="15"/>
       <c r="G614" s="15"/>
       <c r="H614" s="15"/>
@@ -16065,7 +16066,7 @@
       <c r="AA614" s="15"/>
       <c r="AB614" s="15"/>
     </row>
-    <row r="615" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="615" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F615" s="15"/>
       <c r="G615" s="15"/>
       <c r="H615" s="15"/>
@@ -16086,7 +16087,7 @@
       <c r="AA615" s="15"/>
       <c r="AB615" s="15"/>
     </row>
-    <row r="616" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="616" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F616" s="15"/>
       <c r="G616" s="15"/>
       <c r="H616" s="15"/>
@@ -16107,7 +16108,7 @@
       <c r="AA616" s="15"/>
       <c r="AB616" s="15"/>
     </row>
-    <row r="617" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="617" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F617" s="15"/>
       <c r="G617" s="15"/>
       <c r="H617" s="15"/>
@@ -16128,7 +16129,7 @@
       <c r="AA617" s="15"/>
       <c r="AB617" s="15"/>
     </row>
-    <row r="618" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="618" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F618" s="15"/>
       <c r="G618" s="15"/>
       <c r="H618" s="15"/>
@@ -16149,7 +16150,7 @@
       <c r="AA618" s="15"/>
       <c r="AB618" s="15"/>
     </row>
-    <row r="619" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="619" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F619" s="15"/>
       <c r="G619" s="15"/>
       <c r="H619" s="15"/>
@@ -16170,7 +16171,7 @@
       <c r="AA619" s="15"/>
       <c r="AB619" s="15"/>
     </row>
-    <row r="620" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="620" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F620" s="15"/>
       <c r="G620" s="15"/>
       <c r="H620" s="15"/>
@@ -16191,7 +16192,7 @@
       <c r="AA620" s="15"/>
       <c r="AB620" s="15"/>
     </row>
-    <row r="621" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="621" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F621" s="15"/>
       <c r="G621" s="15"/>
       <c r="H621" s="15"/>
@@ -16212,7 +16213,7 @@
       <c r="AA621" s="15"/>
       <c r="AB621" s="15"/>
     </row>
-    <row r="622" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="622" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F622" s="15"/>
       <c r="G622" s="15"/>
       <c r="H622" s="15"/>
@@ -16233,7 +16234,7 @@
       <c r="AA622" s="15"/>
       <c r="AB622" s="15"/>
     </row>
-    <row r="623" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="623" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F623" s="15"/>
       <c r="G623" s="15"/>
       <c r="H623" s="15"/>
@@ -16254,7 +16255,7 @@
       <c r="AA623" s="15"/>
       <c r="AB623" s="15"/>
     </row>
-    <row r="624" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="624" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F624" s="15"/>
       <c r="G624" s="15"/>
       <c r="H624" s="15"/>
@@ -16275,7 +16276,7 @@
       <c r="AA624" s="15"/>
       <c r="AB624" s="15"/>
     </row>
-    <row r="625" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="625" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F625" s="15"/>
       <c r="G625" s="15"/>
       <c r="H625" s="15"/>
@@ -16296,7 +16297,7 @@
       <c r="AA625" s="15"/>
       <c r="AB625" s="15"/>
     </row>
-    <row r="626" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="626" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F626" s="15"/>
       <c r="G626" s="15"/>
       <c r="H626" s="15"/>
@@ -16317,7 +16318,7 @@
       <c r="AA626" s="15"/>
       <c r="AB626" s="15"/>
     </row>
-    <row r="627" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="627" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F627" s="15"/>
       <c r="G627" s="15"/>
       <c r="H627" s="15"/>
@@ -16338,7 +16339,7 @@
       <c r="AA627" s="15"/>
       <c r="AB627" s="15"/>
     </row>
-    <row r="628" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="628" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F628" s="15"/>
       <c r="G628" s="15"/>
       <c r="H628" s="15"/>
@@ -16359,7 +16360,7 @@
       <c r="AA628" s="15"/>
       <c r="AB628" s="15"/>
     </row>
-    <row r="629" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="629" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F629" s="15"/>
       <c r="G629" s="15"/>
       <c r="H629" s="15"/>
@@ -16380,7 +16381,7 @@
       <c r="AA629" s="15"/>
       <c r="AB629" s="15"/>
     </row>
-    <row r="630" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="630" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F630" s="15"/>
       <c r="G630" s="15"/>
       <c r="H630" s="15"/>
@@ -16401,7 +16402,7 @@
       <c r="AA630" s="15"/>
       <c r="AB630" s="15"/>
     </row>
-    <row r="631" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="631" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F631" s="15"/>
       <c r="G631" s="15"/>
       <c r="H631" s="15"/>
@@ -16422,7 +16423,7 @@
       <c r="AA631" s="15"/>
       <c r="AB631" s="15"/>
     </row>
-    <row r="632" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="632" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F632" s="15"/>
       <c r="G632" s="15"/>
       <c r="H632" s="15"/>
@@ -16443,7 +16444,7 @@
       <c r="AA632" s="15"/>
       <c r="AB632" s="15"/>
     </row>
-    <row r="633" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="633" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F633" s="15"/>
       <c r="G633" s="15"/>
       <c r="H633" s="15"/>
@@ -16464,7 +16465,7 @@
       <c r="AA633" s="15"/>
       <c r="AB633" s="15"/>
     </row>
-    <row r="634" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="634" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F634" s="15"/>
       <c r="G634" s="15"/>
       <c r="H634" s="15"/>
@@ -16485,7 +16486,7 @@
       <c r="AA634" s="15"/>
       <c r="AB634" s="15"/>
     </row>
-    <row r="635" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="635" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F635" s="15"/>
       <c r="G635" s="15"/>
       <c r="H635" s="15"/>
@@ -16506,7 +16507,7 @@
       <c r="AA635" s="15"/>
       <c r="AB635" s="15"/>
     </row>
-    <row r="636" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="636" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F636" s="15"/>
       <c r="G636" s="15"/>
       <c r="H636" s="15"/>
@@ -16527,7 +16528,7 @@
       <c r="AA636" s="15"/>
       <c r="AB636" s="15"/>
     </row>
-    <row r="637" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="637" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F637" s="15"/>
       <c r="G637" s="15"/>
       <c r="H637" s="15"/>
@@ -16548,7 +16549,7 @@
       <c r="AA637" s="15"/>
       <c r="AB637" s="15"/>
     </row>
-    <row r="638" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="638" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F638" s="15"/>
       <c r="G638" s="15"/>
       <c r="H638" s="15"/>
@@ -16569,7 +16570,7 @@
       <c r="AA638" s="15"/>
       <c r="AB638" s="15"/>
     </row>
-    <row r="639" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="639" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F639" s="15"/>
       <c r="G639" s="15"/>
       <c r="H639" s="15"/>
@@ -16590,7 +16591,7 @@
       <c r="AA639" s="15"/>
       <c r="AB639" s="15"/>
     </row>
-    <row r="640" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="640" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F640" s="15"/>
       <c r="G640" s="15"/>
       <c r="H640" s="15"/>
@@ -16611,7 +16612,7 @@
       <c r="AA640" s="15"/>
       <c r="AB640" s="15"/>
     </row>
-    <row r="641" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="641" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F641" s="15"/>
       <c r="G641" s="15"/>
       <c r="H641" s="15"/>
@@ -16632,7 +16633,7 @@
       <c r="AA641" s="15"/>
       <c r="AB641" s="15"/>
     </row>
-    <row r="642" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="642" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F642" s="15"/>
       <c r="G642" s="15"/>
       <c r="H642" s="15"/>
@@ -16653,7 +16654,7 @@
       <c r="AA642" s="15"/>
       <c r="AB642" s="15"/>
     </row>
-    <row r="643" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="643" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F643" s="15"/>
       <c r="G643" s="15"/>
       <c r="H643" s="15"/>
@@ -16674,7 +16675,7 @@
       <c r="AA643" s="15"/>
       <c r="AB643" s="15"/>
     </row>
-    <row r="644" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="644" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F644" s="15"/>
       <c r="G644" s="15"/>
       <c r="H644" s="15"/>
@@ -16695,7 +16696,7 @@
       <c r="AA644" s="15"/>
       <c r="AB644" s="15"/>
     </row>
-    <row r="645" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="645" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F645" s="15"/>
       <c r="G645" s="15"/>
       <c r="H645" s="15"/>
@@ -16716,7 +16717,7 @@
       <c r="AA645" s="15"/>
       <c r="AB645" s="15"/>
     </row>
-    <row r="646" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="646" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F646" s="15"/>
       <c r="G646" s="15"/>
       <c r="H646" s="15"/>
@@ -16737,7 +16738,7 @@
       <c r="AA646" s="15"/>
       <c r="AB646" s="15"/>
     </row>
-    <row r="647" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="647" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F647" s="15"/>
       <c r="G647" s="15"/>
       <c r="H647" s="15"/>
@@ -16758,7 +16759,7 @@
       <c r="AA647" s="15"/>
       <c r="AB647" s="15"/>
     </row>
-    <row r="648" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="648" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F648" s="15"/>
       <c r="G648" s="15"/>
       <c r="H648" s="15"/>
@@ -16779,7 +16780,7 @@
       <c r="AA648" s="15"/>
       <c r="AB648" s="15"/>
     </row>
-    <row r="649" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="649" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F649" s="15"/>
       <c r="G649" s="15"/>
       <c r="H649" s="15"/>
@@ -16800,7 +16801,7 @@
       <c r="AA649" s="15"/>
       <c r="AB649" s="15"/>
     </row>
-    <row r="650" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="650" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F650" s="15"/>
       <c r="G650" s="15"/>
       <c r="H650" s="15"/>
@@ -16821,7 +16822,7 @@
       <c r="AA650" s="15"/>
       <c r="AB650" s="15"/>
     </row>
-    <row r="651" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="651" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F651" s="15"/>
       <c r="G651" s="15"/>
       <c r="H651" s="15"/>
@@ -16842,7 +16843,7 @@
       <c r="AA651" s="15"/>
       <c r="AB651" s="15"/>
     </row>
-    <row r="652" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="652" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F652" s="15"/>
       <c r="G652" s="15"/>
       <c r="H652" s="15"/>
@@ -16863,7 +16864,7 @@
       <c r="AA652" s="15"/>
       <c r="AB652" s="15"/>
     </row>
-    <row r="653" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="653" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F653" s="15"/>
       <c r="G653" s="15"/>
       <c r="H653" s="15"/>
@@ -16884,7 +16885,7 @@
       <c r="AA653" s="15"/>
       <c r="AB653" s="15"/>
     </row>
-    <row r="654" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="654" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F654" s="15"/>
       <c r="G654" s="15"/>
       <c r="H654" s="15"/>
@@ -16905,7 +16906,7 @@
       <c r="AA654" s="15"/>
       <c r="AB654" s="15"/>
     </row>
-    <row r="655" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="655" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F655" s="15"/>
       <c r="G655" s="15"/>
       <c r="H655" s="15"/>
@@ -16926,7 +16927,7 @@
       <c r="AA655" s="15"/>
       <c r="AB655" s="15"/>
     </row>
-    <row r="656" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="656" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F656" s="15"/>
       <c r="G656" s="15"/>
       <c r="H656" s="15"/>
@@ -16947,7 +16948,7 @@
       <c r="AA656" s="15"/>
       <c r="AB656" s="15"/>
     </row>
-    <row r="657" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="657" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F657" s="15"/>
       <c r="G657" s="15"/>
       <c r="H657" s="15"/>
@@ -16968,7 +16969,7 @@
       <c r="AA657" s="15"/>
       <c r="AB657" s="15"/>
     </row>
-    <row r="658" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="658" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F658" s="15"/>
       <c r="G658" s="15"/>
       <c r="H658" s="15"/>
@@ -16989,7 +16990,7 @@
       <c r="AA658" s="15"/>
       <c r="AB658" s="15"/>
     </row>
-    <row r="659" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="659" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F659" s="15"/>
       <c r="G659" s="15"/>
       <c r="H659" s="15"/>
@@ -17010,7 +17011,7 @@
       <c r="AA659" s="15"/>
       <c r="AB659" s="15"/>
     </row>
-    <row r="660" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="660" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F660" s="15"/>
       <c r="G660" s="15"/>
       <c r="H660" s="15"/>
@@ -17031,7 +17032,7 @@
       <c r="AA660" s="15"/>
       <c r="AB660" s="15"/>
     </row>
-    <row r="661" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="661" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F661" s="15"/>
       <c r="G661" s="15"/>
       <c r="H661" s="15"/>
@@ -17052,7 +17053,7 @@
       <c r="AA661" s="15"/>
       <c r="AB661" s="15"/>
     </row>
-    <row r="662" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="662" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F662" s="15"/>
       <c r="G662" s="15"/>
       <c r="H662" s="15"/>
@@ -17073,7 +17074,7 @@
       <c r="AA662" s="15"/>
       <c r="AB662" s="15"/>
     </row>
-    <row r="663" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="663" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F663" s="15"/>
       <c r="G663" s="15"/>
       <c r="H663" s="15"/>
@@ -17094,7 +17095,7 @@
       <c r="AA663" s="15"/>
       <c r="AB663" s="15"/>
     </row>
-    <row r="664" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="664" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F664" s="15"/>
       <c r="G664" s="15"/>
       <c r="H664" s="15"/>
@@ -17115,7 +17116,7 @@
       <c r="AA664" s="15"/>
       <c r="AB664" s="15"/>
     </row>
-    <row r="665" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="665" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F665" s="15"/>
       <c r="G665" s="15"/>
       <c r="H665" s="15"/>
@@ -17136,7 +17137,7 @@
       <c r="AA665" s="15"/>
       <c r="AB665" s="15"/>
     </row>
-    <row r="666" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="666" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F666" s="15"/>
       <c r="G666" s="15"/>
       <c r="H666" s="15"/>
@@ -17157,7 +17158,7 @@
       <c r="AA666" s="15"/>
       <c r="AB666" s="15"/>
     </row>
-    <row r="667" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="667" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F667" s="15"/>
       <c r="G667" s="15"/>
       <c r="H667" s="15"/>
@@ -17178,7 +17179,7 @@
       <c r="AA667" s="15"/>
       <c r="AB667" s="15"/>
     </row>
-    <row r="668" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="668" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F668" s="15"/>
       <c r="G668" s="15"/>
       <c r="H668" s="15"/>
@@ -17199,7 +17200,7 @@
       <c r="AA668" s="15"/>
       <c r="AB668" s="15"/>
     </row>
-    <row r="669" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="669" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F669" s="15"/>
       <c r="G669" s="15"/>
       <c r="H669" s="15"/>
@@ -17220,7 +17221,7 @@
       <c r="AA669" s="15"/>
       <c r="AB669" s="15"/>
     </row>
-    <row r="670" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="670" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F670" s="15"/>
       <c r="G670" s="15"/>
       <c r="H670" s="15"/>
@@ -17241,7 +17242,7 @@
       <c r="AA670" s="15"/>
       <c r="AB670" s="15"/>
     </row>
-    <row r="671" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="671" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F671" s="15"/>
       <c r="G671" s="15"/>
       <c r="H671" s="15"/>
@@ -17262,7 +17263,7 @@
       <c r="AA671" s="15"/>
       <c r="AB671" s="15"/>
     </row>
-    <row r="672" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="672" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F672" s="15"/>
       <c r="G672" s="15"/>
       <c r="H672" s="15"/>
@@ -17283,7 +17284,7 @@
       <c r="AA672" s="15"/>
       <c r="AB672" s="15"/>
     </row>
-    <row r="673" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="673" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F673" s="15"/>
       <c r="G673" s="15"/>
       <c r="H673" s="15"/>
@@ -17304,7 +17305,7 @@
       <c r="AA673" s="15"/>
       <c r="AB673" s="15"/>
     </row>
-    <row r="674" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="674" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F674" s="15"/>
       <c r="G674" s="15"/>
       <c r="H674" s="15"/>
@@ -17325,7 +17326,7 @@
       <c r="AA674" s="15"/>
       <c r="AB674" s="15"/>
     </row>
-    <row r="675" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="675" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F675" s="15"/>
       <c r="G675" s="15"/>
       <c r="H675" s="15"/>
@@ -17346,7 +17347,7 @@
       <c r="AA675" s="15"/>
       <c r="AB675" s="15"/>
     </row>
-    <row r="676" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="676" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F676" s="15"/>
       <c r="G676" s="15"/>
       <c r="H676" s="15"/>
@@ -17367,7 +17368,7 @@
       <c r="AA676" s="15"/>
       <c r="AB676" s="15"/>
     </row>
-    <row r="677" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="677" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F677" s="15"/>
       <c r="G677" s="15"/>
       <c r="H677" s="15"/>
@@ -17388,7 +17389,7 @@
       <c r="AA677" s="15"/>
       <c r="AB677" s="15"/>
     </row>
-    <row r="678" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="678" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F678" s="15"/>
       <c r="G678" s="15"/>
       <c r="H678" s="15"/>
@@ -17409,7 +17410,7 @@
       <c r="AA678" s="15"/>
       <c r="AB678" s="15"/>
     </row>
-    <row r="679" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="679" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F679" s="15"/>
       <c r="G679" s="15"/>
       <c r="H679" s="15"/>
@@ -17430,7 +17431,7 @@
       <c r="AA679" s="15"/>
       <c r="AB679" s="15"/>
     </row>
-    <row r="680" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="680" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F680" s="15"/>
       <c r="G680" s="15"/>
       <c r="H680" s="15"/>
@@ -17451,7 +17452,7 @@
       <c r="AA680" s="15"/>
       <c r="AB680" s="15"/>
     </row>
-    <row r="681" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="681" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F681" s="15"/>
       <c r="G681" s="15"/>
       <c r="H681" s="15"/>
@@ -17472,7 +17473,7 @@
       <c r="AA681" s="15"/>
       <c r="AB681" s="15"/>
     </row>
-    <row r="682" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="682" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F682" s="15"/>
       <c r="G682" s="15"/>
       <c r="H682" s="15"/>
@@ -17493,7 +17494,7 @@
       <c r="AA682" s="15"/>
       <c r="AB682" s="15"/>
     </row>
-    <row r="683" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="683" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F683" s="15"/>
       <c r="G683" s="15"/>
       <c r="H683" s="15"/>
@@ -17514,7 +17515,7 @@
       <c r="AA683" s="15"/>
       <c r="AB683" s="15"/>
     </row>
-    <row r="684" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="684" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F684" s="15"/>
       <c r="G684" s="15"/>
       <c r="H684" s="15"/>
@@ -17535,7 +17536,7 @@
       <c r="AA684" s="15"/>
       <c r="AB684" s="15"/>
     </row>
-    <row r="685" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="685" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F685" s="15"/>
       <c r="G685" s="15"/>
       <c r="H685" s="15"/>
@@ -17556,7 +17557,7 @@
       <c r="AA685" s="15"/>
       <c r="AB685" s="15"/>
     </row>
-    <row r="686" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="686" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F686" s="15"/>
       <c r="G686" s="15"/>
       <c r="H686" s="15"/>
@@ -17577,7 +17578,7 @@
       <c r="AA686" s="15"/>
       <c r="AB686" s="15"/>
     </row>
-    <row r="687" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="687" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F687" s="15"/>
       <c r="G687" s="15"/>
       <c r="H687" s="15"/>
@@ -17598,7 +17599,7 @@
       <c r="AA687" s="15"/>
       <c r="AB687" s="15"/>
     </row>
-    <row r="688" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="688" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F688" s="15"/>
       <c r="G688" s="15"/>
       <c r="H688" s="15"/>
@@ -17619,7 +17620,7 @@
       <c r="AA688" s="15"/>
       <c r="AB688" s="15"/>
     </row>
-    <row r="689" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="689" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F689" s="15"/>
       <c r="G689" s="15"/>
       <c r="H689" s="15"/>
@@ -17640,7 +17641,7 @@
       <c r="AA689" s="15"/>
       <c r="AB689" s="15"/>
     </row>
-    <row r="690" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="690" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F690" s="15"/>
       <c r="G690" s="15"/>
       <c r="H690" s="15"/>
@@ -17661,7 +17662,7 @@
       <c r="AA690" s="15"/>
       <c r="AB690" s="15"/>
     </row>
-    <row r="691" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="691" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F691" s="15"/>
       <c r="G691" s="15"/>
       <c r="H691" s="15"/>
@@ -17682,7 +17683,7 @@
       <c r="AA691" s="15"/>
       <c r="AB691" s="15"/>
     </row>
-    <row r="692" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="692" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F692" s="15"/>
       <c r="G692" s="15"/>
       <c r="H692" s="15"/>
@@ -17703,7 +17704,7 @@
       <c r="AA692" s="15"/>
       <c r="AB692" s="15"/>
     </row>
-    <row r="693" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="693" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F693" s="15"/>
       <c r="G693" s="15"/>
       <c r="H693" s="15"/>
@@ -17724,7 +17725,7 @@
       <c r="AA693" s="15"/>
       <c r="AB693" s="15"/>
     </row>
-    <row r="694" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="694" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F694" s="15"/>
       <c r="G694" s="15"/>
       <c r="H694" s="15"/>
@@ -17745,7 +17746,7 @@
       <c r="AA694" s="15"/>
       <c r="AB694" s="15"/>
     </row>
-    <row r="695" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="695" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F695" s="15"/>
       <c r="G695" s="15"/>
       <c r="H695" s="15"/>
@@ -17766,7 +17767,7 @@
       <c r="AA695" s="15"/>
       <c r="AB695" s="15"/>
     </row>
-    <row r="696" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="696" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F696" s="15"/>
       <c r="G696" s="15"/>
       <c r="H696" s="15"/>
@@ -17787,7 +17788,7 @@
       <c r="AA696" s="15"/>
       <c r="AB696" s="15"/>
     </row>
-    <row r="697" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="697" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F697" s="15"/>
       <c r="G697" s="15"/>
       <c r="H697" s="15"/>
@@ -17808,7 +17809,7 @@
       <c r="AA697" s="15"/>
       <c r="AB697" s="15"/>
     </row>
-    <row r="698" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="698" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F698" s="15"/>
       <c r="G698" s="15"/>
       <c r="H698" s="15"/>
@@ -17829,7 +17830,7 @@
       <c r="AA698" s="15"/>
       <c r="AB698" s="15"/>
     </row>
-    <row r="699" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="699" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F699" s="15"/>
       <c r="G699" s="15"/>
       <c r="H699" s="15"/>
@@ -17850,7 +17851,7 @@
       <c r="AA699" s="15"/>
       <c r="AB699" s="15"/>
     </row>
-    <row r="700" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="700" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F700" s="15"/>
       <c r="G700" s="15"/>
       <c r="H700" s="15"/>
@@ -17871,7 +17872,7 @@
       <c r="AA700" s="15"/>
       <c r="AB700" s="15"/>
     </row>
-    <row r="701" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="701" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F701" s="15"/>
       <c r="G701" s="15"/>
       <c r="H701" s="15"/>
@@ -17892,7 +17893,7 @@
       <c r="AA701" s="15"/>
       <c r="AB701" s="15"/>
     </row>
-    <row r="702" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="702" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F702" s="15"/>
       <c r="G702" s="15"/>
       <c r="H702" s="15"/>
@@ -17913,7 +17914,7 @@
       <c r="AA702" s="15"/>
       <c r="AB702" s="15"/>
     </row>
-    <row r="703" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="703" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F703" s="15"/>
       <c r="G703" s="15"/>
       <c r="H703" s="15"/>
@@ -17934,7 +17935,7 @@
       <c r="AA703" s="15"/>
       <c r="AB703" s="15"/>
     </row>
-    <row r="704" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="704" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F704" s="15"/>
       <c r="G704" s="15"/>
       <c r="H704" s="15"/>
@@ -17955,7 +17956,7 @@
       <c r="AA704" s="15"/>
       <c r="AB704" s="15"/>
     </row>
-    <row r="705" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="705" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F705" s="15"/>
       <c r="G705" s="15"/>
       <c r="H705" s="15"/>
@@ -17976,7 +17977,7 @@
       <c r="AA705" s="15"/>
       <c r="AB705" s="15"/>
     </row>
-    <row r="706" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="706" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F706" s="15"/>
       <c r="G706" s="15"/>
       <c r="H706" s="15"/>
@@ -17997,7 +17998,7 @@
       <c r="AA706" s="15"/>
       <c r="AB706" s="15"/>
     </row>
-    <row r="707" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="707" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F707" s="15"/>
       <c r="G707" s="15"/>
       <c r="H707" s="15"/>
@@ -18018,7 +18019,7 @@
       <c r="AA707" s="15"/>
       <c r="AB707" s="15"/>
     </row>
-    <row r="708" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="708" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F708" s="15"/>
       <c r="G708" s="15"/>
       <c r="H708" s="15"/>
@@ -18039,7 +18040,7 @@
       <c r="AA708" s="15"/>
       <c r="AB708" s="15"/>
     </row>
-    <row r="709" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="709" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F709" s="15"/>
       <c r="G709" s="15"/>
       <c r="H709" s="15"/>
@@ -18060,7 +18061,7 @@
       <c r="AA709" s="15"/>
       <c r="AB709" s="15"/>
     </row>
-    <row r="710" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="710" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F710" s="15"/>
       <c r="G710" s="15"/>
       <c r="H710" s="15"/>
@@ -18081,7 +18082,7 @@
       <c r="AA710" s="15"/>
       <c r="AB710" s="15"/>
     </row>
-    <row r="711" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="711" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F711" s="15"/>
       <c r="G711" s="15"/>
       <c r="H711" s="15"/>
@@ -18102,7 +18103,7 @@
       <c r="AA711" s="15"/>
       <c r="AB711" s="15"/>
     </row>
-    <row r="712" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="712" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F712" s="15"/>
       <c r="G712" s="15"/>
       <c r="H712" s="15"/>
@@ -18123,7 +18124,7 @@
       <c r="AA712" s="15"/>
       <c r="AB712" s="15"/>
     </row>
-    <row r="713" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="713" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F713" s="15"/>
       <c r="G713" s="15"/>
       <c r="H713" s="15"/>
@@ -18144,7 +18145,7 @@
       <c r="AA713" s="15"/>
       <c r="AB713" s="15"/>
     </row>
-    <row r="714" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="714" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F714" s="15"/>
       <c r="G714" s="15"/>
       <c r="H714" s="15"/>
@@ -18165,7 +18166,7 @@
       <c r="AA714" s="15"/>
       <c r="AB714" s="15"/>
     </row>
-    <row r="715" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="715" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F715" s="15"/>
       <c r="G715" s="15"/>
       <c r="H715" s="15"/>
@@ -18186,7 +18187,7 @@
       <c r="AA715" s="15"/>
       <c r="AB715" s="15"/>
     </row>
-    <row r="716" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="716" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F716" s="15"/>
       <c r="G716" s="15"/>
       <c r="H716" s="15"/>
@@ -18207,7 +18208,7 @@
       <c r="AA716" s="15"/>
       <c r="AB716" s="15"/>
     </row>
-    <row r="717" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="717" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F717" s="15"/>
       <c r="G717" s="15"/>
       <c r="H717" s="15"/>
@@ -18228,7 +18229,7 @@
       <c r="AA717" s="15"/>
       <c r="AB717" s="15"/>
     </row>
-    <row r="718" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="718" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F718" s="15"/>
       <c r="G718" s="15"/>
       <c r="H718" s="15"/>
@@ -18249,7 +18250,7 @@
       <c r="AA718" s="15"/>
       <c r="AB718" s="15"/>
     </row>
-    <row r="719" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="719" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F719" s="15"/>
       <c r="G719" s="15"/>
       <c r="H719" s="15"/>
@@ -18270,7 +18271,7 @@
       <c r="AA719" s="15"/>
       <c r="AB719" s="15"/>
     </row>
-    <row r="720" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="720" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F720" s="15"/>
       <c r="G720" s="15"/>
       <c r="H720" s="15"/>
@@ -18291,7 +18292,7 @@
       <c r="AA720" s="15"/>
       <c r="AB720" s="15"/>
     </row>
-    <row r="721" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="721" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F721" s="15"/>
       <c r="G721" s="15"/>
       <c r="H721" s="15"/>
@@ -18312,7 +18313,7 @@
       <c r="AA721" s="15"/>
       <c r="AB721" s="15"/>
     </row>
-    <row r="722" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="722" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F722" s="15"/>
       <c r="G722" s="15"/>
       <c r="H722" s="15"/>
@@ -18333,7 +18334,7 @@
       <c r="AA722" s="15"/>
       <c r="AB722" s="15"/>
     </row>
-    <row r="723" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="723" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F723" s="15"/>
       <c r="G723" s="15"/>
       <c r="H723" s="15"/>
@@ -18354,7 +18355,7 @@
       <c r="AA723" s="15"/>
       <c r="AB723" s="15"/>
     </row>
-    <row r="724" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="724" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F724" s="15"/>
       <c r="G724" s="15"/>
       <c r="H724" s="15"/>
@@ -18375,7 +18376,7 @@
       <c r="AA724" s="15"/>
       <c r="AB724" s="15"/>
     </row>
-    <row r="725" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="725" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F725" s="15"/>
       <c r="G725" s="15"/>
       <c r="H725" s="15"/>
@@ -18396,7 +18397,7 @@
       <c r="AA725" s="15"/>
       <c r="AB725" s="15"/>
     </row>
-    <row r="726" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="726" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F726" s="15"/>
       <c r="G726" s="15"/>
       <c r="H726" s="15"/>
@@ -18417,7 +18418,7 @@
       <c r="AA726" s="15"/>
       <c r="AB726" s="15"/>
     </row>
-    <row r="727" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="727" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F727" s="15"/>
       <c r="G727" s="15"/>
       <c r="H727" s="15"/>
@@ -18438,7 +18439,7 @@
       <c r="AA727" s="15"/>
       <c r="AB727" s="15"/>
     </row>
-    <row r="728" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="728" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F728" s="15"/>
       <c r="G728" s="15"/>
       <c r="H728" s="15"/>
@@ -18459,7 +18460,7 @@
       <c r="AA728" s="15"/>
       <c r="AB728" s="15"/>
     </row>
-    <row r="729" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="729" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F729" s="15"/>
       <c r="G729" s="15"/>
       <c r="H729" s="15"/>
@@ -18480,7 +18481,7 @@
       <c r="AA729" s="15"/>
       <c r="AB729" s="15"/>
     </row>
-    <row r="730" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="730" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F730" s="15"/>
       <c r="G730" s="15"/>
       <c r="H730" s="15"/>
@@ -18501,7 +18502,7 @@
       <c r="AA730" s="15"/>
       <c r="AB730" s="15"/>
     </row>
-    <row r="731" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="731" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F731" s="15"/>
       <c r="G731" s="15"/>
       <c r="H731" s="15"/>
@@ -18522,7 +18523,7 @@
       <c r="AA731" s="15"/>
       <c r="AB731" s="15"/>
     </row>
-    <row r="732" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="732" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F732" s="15"/>
       <c r="G732" s="15"/>
       <c r="H732" s="15"/>
@@ -18543,7 +18544,7 @@
       <c r="AA732" s="15"/>
       <c r="AB732" s="15"/>
     </row>
-    <row r="733" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="733" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F733" s="15"/>
       <c r="G733" s="15"/>
       <c r="H733" s="15"/>
@@ -18564,7 +18565,7 @@
       <c r="AA733" s="15"/>
       <c r="AB733" s="15"/>
     </row>
-    <row r="734" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="734" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F734" s="15"/>
       <c r="G734" s="15"/>
       <c r="H734" s="15"/>
@@ -18585,7 +18586,7 @@
       <c r="AA734" s="15"/>
       <c r="AB734" s="15"/>
     </row>
-    <row r="735" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="735" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F735" s="15"/>
       <c r="G735" s="15"/>
       <c r="H735" s="15"/>
@@ -18606,7 +18607,7 @@
       <c r="AA735" s="15"/>
       <c r="AB735" s="15"/>
     </row>
-    <row r="736" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="736" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F736" s="15"/>
       <c r="G736" s="15"/>
       <c r="H736" s="15"/>
@@ -18627,7 +18628,7 @@
       <c r="AA736" s="15"/>
       <c r="AB736" s="15"/>
     </row>
-    <row r="737" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="737" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F737" s="15"/>
       <c r="G737" s="15"/>
       <c r="H737" s="15"/>
@@ -18648,7 +18649,7 @@
       <c r="AA737" s="15"/>
       <c r="AB737" s="15"/>
     </row>
-    <row r="738" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="738" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F738" s="15"/>
       <c r="G738" s="15"/>
       <c r="H738" s="15"/>
@@ -18669,7 +18670,7 @@
       <c r="AA738" s="15"/>
       <c r="AB738" s="15"/>
     </row>
-    <row r="739" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="739" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F739" s="15"/>
       <c r="G739" s="15"/>
       <c r="H739" s="15"/>
@@ -18690,7 +18691,7 @@
       <c r="AA739" s="15"/>
       <c r="AB739" s="15"/>
     </row>
-    <row r="740" spans="6:28" x14ac:dyDescent="0.15">
+    <row r="740" spans="6:28" x14ac:dyDescent="0.2">
       <c r="F740" s="15"/>
       <c r="G740" s="15"/>
       <c r="H740" s="15"/>
@@ -18736,7 +18737,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
